--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,487 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>15.09.202411</t>
-  </si>
-  <si>
-    <t>15.09.202412</t>
-  </si>
-  <si>
-    <t>15.09.202413</t>
-  </si>
-  <si>
-    <t>15.09.202414</t>
-  </si>
-  <si>
-    <t>15.09.202415</t>
-  </si>
-  <si>
-    <t>15.09.202416</t>
-  </si>
-  <si>
-    <t>15.09.202417</t>
-  </si>
-  <si>
-    <t>15.09.202418</t>
-  </si>
-  <si>
-    <t>15.09.202419</t>
-  </si>
-  <si>
-    <t>15.09.202420</t>
-  </si>
-  <si>
-    <t>15.09.202421</t>
-  </si>
-  <si>
-    <t>15.09.202422</t>
-  </si>
-  <si>
-    <t>15.09.202423</t>
-  </si>
-  <si>
-    <t>16.09.20241</t>
-  </si>
-  <si>
-    <t>16.09.20242</t>
-  </si>
-  <si>
-    <t>16.09.20243</t>
-  </si>
-  <si>
-    <t>16.09.20244</t>
-  </si>
-  <si>
-    <t>16.09.20245</t>
-  </si>
-  <si>
-    <t>16.09.20246</t>
-  </si>
-  <si>
-    <t>16.09.20247</t>
-  </si>
-  <si>
-    <t>16.09.20248</t>
-  </si>
-  <si>
-    <t>16.09.20249</t>
-  </si>
-  <si>
-    <t>16.09.202410</t>
-  </si>
-  <si>
-    <t>16.09.202411</t>
-  </si>
-  <si>
-    <t>16.09.202412</t>
-  </si>
-  <si>
-    <t>16.09.202413</t>
-  </si>
-  <si>
-    <t>16.09.202414</t>
-  </si>
-  <si>
-    <t>16.09.202415</t>
-  </si>
-  <si>
-    <t>16.09.202416</t>
-  </si>
-  <si>
-    <t>16.09.202417</t>
-  </si>
-  <si>
-    <t>16.09.202418</t>
-  </si>
-  <si>
-    <t>16.09.202419</t>
-  </si>
-  <si>
-    <t>16.09.202420</t>
-  </si>
-  <si>
-    <t>16.09.202421</t>
-  </si>
-  <si>
-    <t>16.09.202422</t>
-  </si>
-  <si>
-    <t>16.09.202423</t>
-  </si>
-  <si>
-    <t>17.09.20241</t>
-  </si>
-  <si>
-    <t>17.09.20242</t>
-  </si>
-  <si>
-    <t>17.09.20243</t>
-  </si>
-  <si>
-    <t>17.09.20244</t>
-  </si>
-  <si>
-    <t>17.09.20245</t>
-  </si>
-  <si>
-    <t>17.09.20246</t>
-  </si>
-  <si>
-    <t>17.09.20247</t>
-  </si>
-  <si>
-    <t>17.09.20248</t>
-  </si>
-  <si>
-    <t>17.09.20249</t>
-  </si>
-  <si>
-    <t>17.09.202410</t>
-  </si>
-  <si>
-    <t>17.09.202411</t>
-  </si>
-  <si>
-    <t>17.09.202412</t>
-  </si>
-  <si>
-    <t>17.09.202413</t>
-  </si>
-  <si>
-    <t>17.09.202414</t>
-  </si>
-  <si>
-    <t>17.09.202415</t>
-  </si>
-  <si>
-    <t>17.09.202416</t>
-  </si>
-  <si>
-    <t>17.09.202417</t>
-  </si>
-  <si>
-    <t>17.09.202418</t>
-  </si>
-  <si>
-    <t>17.09.202419</t>
-  </si>
-  <si>
-    <t>17.09.202420</t>
-  </si>
-  <si>
-    <t>17.09.202421</t>
-  </si>
-  <si>
-    <t>17.09.202422</t>
-  </si>
-  <si>
-    <t>17.09.202423</t>
-  </si>
-  <si>
-    <t>18.09.20241</t>
-  </si>
-  <si>
-    <t>18.09.20242</t>
-  </si>
-  <si>
-    <t>18.09.20243</t>
-  </si>
-  <si>
-    <t>18.09.20244</t>
-  </si>
-  <si>
-    <t>18.09.20245</t>
-  </si>
-  <si>
-    <t>18.09.20246</t>
-  </si>
-  <si>
-    <t>18.09.20247</t>
-  </si>
-  <si>
-    <t>18.09.20248</t>
-  </si>
-  <si>
-    <t>18.09.20249</t>
-  </si>
-  <si>
-    <t>18.09.202410</t>
-  </si>
-  <si>
-    <t>18.09.202411</t>
-  </si>
-  <si>
-    <t>18.09.202412</t>
-  </si>
-  <si>
-    <t>18.09.202413</t>
-  </si>
-  <si>
-    <t>18.09.202414</t>
-  </si>
-  <si>
-    <t>18.09.202415</t>
-  </si>
-  <si>
-    <t>18.09.202416</t>
-  </si>
-  <si>
-    <t>18.09.202417</t>
-  </si>
-  <si>
-    <t>18.09.202418</t>
-  </si>
-  <si>
-    <t>18.09.202419</t>
-  </si>
-  <si>
-    <t>18.09.202420</t>
-  </si>
-  <si>
-    <t>18.09.202421</t>
-  </si>
-  <si>
-    <t>18.09.202422</t>
-  </si>
-  <si>
-    <t>18.09.202423</t>
-  </si>
-  <si>
-    <t>19.09.20241</t>
-  </si>
-  <si>
-    <t>19.09.20242</t>
-  </si>
-  <si>
-    <t>19.09.20243</t>
-  </si>
-  <si>
-    <t>19.09.20244</t>
-  </si>
-  <si>
-    <t>19.09.20245</t>
-  </si>
-  <si>
-    <t>19.09.20246</t>
-  </si>
-  <si>
-    <t>19.09.20247</t>
-  </si>
-  <si>
-    <t>19.09.20248</t>
-  </si>
-  <si>
-    <t>19.09.20249</t>
-  </si>
-  <si>
-    <t>19.09.202410</t>
-  </si>
-  <si>
-    <t>19.09.202411</t>
-  </si>
-  <si>
-    <t>19.09.202412</t>
-  </si>
-  <si>
-    <t>19.09.202413</t>
-  </si>
-  <si>
-    <t>19.09.202414</t>
-  </si>
-  <si>
-    <t>19.09.202415</t>
-  </si>
-  <si>
-    <t>19.09.202416</t>
-  </si>
-  <si>
-    <t>19.09.202417</t>
-  </si>
-  <si>
-    <t>19.09.202418</t>
-  </si>
-  <si>
-    <t>19.09.202419</t>
-  </si>
-  <si>
-    <t>19.09.202420</t>
-  </si>
-  <si>
-    <t>19.09.202421</t>
-  </si>
-  <si>
-    <t>19.09.202422</t>
-  </si>
-  <si>
-    <t>19.09.202423</t>
-  </si>
-  <si>
-    <t>20.09.20241</t>
-  </si>
-  <si>
-    <t>20.09.20242</t>
-  </si>
-  <si>
-    <t>20.09.20243</t>
-  </si>
-  <si>
-    <t>20.09.20244</t>
-  </si>
-  <si>
-    <t>20.09.20245</t>
-  </si>
-  <si>
-    <t>20.09.20246</t>
-  </si>
-  <si>
-    <t>20.09.20247</t>
-  </si>
-  <si>
-    <t>20.09.20248</t>
-  </si>
-  <si>
-    <t>20.09.20249</t>
-  </si>
-  <si>
-    <t>20.09.202410</t>
-  </si>
-  <si>
-    <t>20.09.202411</t>
-  </si>
-  <si>
-    <t>20.09.202412</t>
-  </si>
-  <si>
-    <t>20.09.202413</t>
-  </si>
-  <si>
-    <t>20.09.202414</t>
-  </si>
-  <si>
-    <t>20.09.202415</t>
-  </si>
-  <si>
-    <t>20.09.202416</t>
-  </si>
-  <si>
-    <t>20.09.202417</t>
-  </si>
-  <si>
-    <t>20.09.202418</t>
-  </si>
-  <si>
-    <t>20.09.202419</t>
-  </si>
-  <si>
-    <t>20.09.202420</t>
-  </si>
-  <si>
-    <t>20.09.202421</t>
-  </si>
-  <si>
-    <t>20.09.202422</t>
-  </si>
-  <si>
-    <t>20.09.202423</t>
-  </si>
-  <si>
-    <t>21.09.20241</t>
-  </si>
-  <si>
-    <t>21.09.20242</t>
-  </si>
-  <si>
-    <t>21.09.20243</t>
-  </si>
-  <si>
-    <t>21.09.20244</t>
-  </si>
-  <si>
-    <t>21.09.20245</t>
-  </si>
-  <si>
-    <t>21.09.20246</t>
-  </si>
-  <si>
-    <t>21.09.20247</t>
-  </si>
-  <si>
-    <t>21.09.20248</t>
-  </si>
-  <si>
-    <t>21.09.20249</t>
-  </si>
-  <si>
-    <t>21.09.202410</t>
-  </si>
-  <si>
-    <t>21.09.202411</t>
-  </si>
-  <si>
-    <t>21.09.202412</t>
-  </si>
-  <si>
-    <t>21.09.202413</t>
-  </si>
-  <si>
-    <t>21.09.202414</t>
-  </si>
-  <si>
-    <t>21.09.202415</t>
-  </si>
-  <si>
-    <t>21.09.202416</t>
-  </si>
-  <si>
-    <t>21.09.202417</t>
-  </si>
-  <si>
-    <t>21.09.202418</t>
-  </si>
-  <si>
-    <t>21.09.202419</t>
-  </si>
-  <si>
-    <t>21.09.202420</t>
-  </si>
-  <si>
-    <t>21.09.202421</t>
-  </si>
-  <si>
-    <t>21.09.202422</t>
-  </si>
-  <si>
-    <t>21.09.202423</t>
-  </si>
-  <si>
-    <t>22.09.20241</t>
-  </si>
-  <si>
-    <t>22.09.20242</t>
-  </si>
-  <si>
-    <t>22.09.20243</t>
-  </si>
-  <si>
-    <t>22.09.20244</t>
-  </si>
-  <si>
-    <t>22.09.20245</t>
-  </si>
-  <si>
-    <t>22.09.20246</t>
-  </si>
-  <si>
-    <t>22.09.20247</t>
-  </si>
-  <si>
-    <t>22.09.20248</t>
-  </si>
-  <si>
-    <t>22.09.20249</t>
-  </si>
-  <si>
-    <t>22.09.202410</t>
+    <t>29.04.202518</t>
+  </si>
+  <si>
+    <t>29.04.202519</t>
+  </si>
+  <si>
+    <t>29.04.202520</t>
+  </si>
+  <si>
+    <t>29.04.202521</t>
+  </si>
+  <si>
+    <t>29.04.202522</t>
+  </si>
+  <si>
+    <t>29.04.202523</t>
+  </si>
+  <si>
+    <t>30.04.20251</t>
+  </si>
+  <si>
+    <t>30.04.20252</t>
+  </si>
+  <si>
+    <t>30.04.20253</t>
+  </si>
+  <si>
+    <t>30.04.20254</t>
+  </si>
+  <si>
+    <t>30.04.20255</t>
+  </si>
+  <si>
+    <t>30.04.20256</t>
+  </si>
+  <si>
+    <t>30.04.20257</t>
+  </si>
+  <si>
+    <t>30.04.20258</t>
+  </si>
+  <si>
+    <t>30.04.20259</t>
+  </si>
+  <si>
+    <t>30.04.202510</t>
+  </si>
+  <si>
+    <t>30.04.202511</t>
+  </si>
+  <si>
+    <t>30.04.202512</t>
+  </si>
+  <si>
+    <t>30.04.202513</t>
+  </si>
+  <si>
+    <t>30.04.202514</t>
+  </si>
+  <si>
+    <t>30.04.202515</t>
+  </si>
+  <si>
+    <t>30.04.202516</t>
+  </si>
+  <si>
+    <t>30.04.202517</t>
+  </si>
+  <si>
+    <t>30.04.202518</t>
+  </si>
+  <si>
+    <t>30.04.202519</t>
+  </si>
+  <si>
+    <t>30.04.202520</t>
+  </si>
+  <si>
+    <t>30.04.202521</t>
+  </si>
+  <si>
+    <t>30.04.202522</t>
+  </si>
+  <si>
+    <t>30.04.202523</t>
+  </si>
+  <si>
+    <t>01.05.20251</t>
+  </si>
+  <si>
+    <t>01.05.20252</t>
+  </si>
+  <si>
+    <t>01.05.20253</t>
+  </si>
+  <si>
+    <t>01.05.20254</t>
+  </si>
+  <si>
+    <t>01.05.20255</t>
+  </si>
+  <si>
+    <t>01.05.20256</t>
+  </si>
+  <si>
+    <t>01.05.20257</t>
+  </si>
+  <si>
+    <t>01.05.20258</t>
+  </si>
+  <si>
+    <t>01.05.20259</t>
+  </si>
+  <si>
+    <t>01.05.202510</t>
+  </si>
+  <si>
+    <t>01.05.202511</t>
+  </si>
+  <si>
+    <t>01.05.202512</t>
+  </si>
+  <si>
+    <t>01.05.202513</t>
+  </si>
+  <si>
+    <t>01.05.202514</t>
+  </si>
+  <si>
+    <t>01.05.202515</t>
+  </si>
+  <si>
+    <t>01.05.202516</t>
+  </si>
+  <si>
+    <t>01.05.202517</t>
+  </si>
+  <si>
+    <t>01.05.202518</t>
+  </si>
+  <si>
+    <t>01.05.202519</t>
+  </si>
+  <si>
+    <t>01.05.202520</t>
+  </si>
+  <si>
+    <t>01.05.202521</t>
+  </si>
+  <si>
+    <t>01.05.202522</t>
+  </si>
+  <si>
+    <t>01.05.202523</t>
+  </si>
+  <si>
+    <t>02.05.20251</t>
+  </si>
+  <si>
+    <t>02.05.20252</t>
+  </si>
+  <si>
+    <t>02.05.20253</t>
+  </si>
+  <si>
+    <t>02.05.20254</t>
+  </si>
+  <si>
+    <t>02.05.20255</t>
+  </si>
+  <si>
+    <t>02.05.20256</t>
+  </si>
+  <si>
+    <t>02.05.20257</t>
+  </si>
+  <si>
+    <t>02.05.20258</t>
+  </si>
+  <si>
+    <t>02.05.20259</t>
+  </si>
+  <si>
+    <t>02.05.202510</t>
+  </si>
+  <si>
+    <t>02.05.202511</t>
+  </si>
+  <si>
+    <t>02.05.202512</t>
+  </si>
+  <si>
+    <t>02.05.202513</t>
+  </si>
+  <si>
+    <t>02.05.202514</t>
+  </si>
+  <si>
+    <t>02.05.202515</t>
+  </si>
+  <si>
+    <t>02.05.202516</t>
+  </si>
+  <si>
+    <t>02.05.202517</t>
+  </si>
+  <si>
+    <t>02.05.202518</t>
+  </si>
+  <si>
+    <t>02.05.202519</t>
+  </si>
+  <si>
+    <t>02.05.202520</t>
+  </si>
+  <si>
+    <t>02.05.202521</t>
+  </si>
+  <si>
+    <t>02.05.202522</t>
+  </si>
+  <si>
+    <t>02.05.202523</t>
+  </si>
+  <si>
+    <t>03.05.20251</t>
+  </si>
+  <si>
+    <t>03.05.20252</t>
+  </si>
+  <si>
+    <t>03.05.20253</t>
+  </si>
+  <si>
+    <t>03.05.20254</t>
+  </si>
+  <si>
+    <t>03.05.20255</t>
+  </si>
+  <si>
+    <t>03.05.20256</t>
+  </si>
+  <si>
+    <t>03.05.20257</t>
+  </si>
+  <si>
+    <t>03.05.20258</t>
+  </si>
+  <si>
+    <t>03.05.20259</t>
+  </si>
+  <si>
+    <t>03.05.202510</t>
+  </si>
+  <si>
+    <t>03.05.202511</t>
+  </si>
+  <si>
+    <t>03.05.202512</t>
+  </si>
+  <si>
+    <t>03.05.202513</t>
+  </si>
+  <si>
+    <t>03.05.202514</t>
+  </si>
+  <si>
+    <t>03.05.202515</t>
+  </si>
+  <si>
+    <t>03.05.202516</t>
+  </si>
+  <si>
+    <t>03.05.202517</t>
+  </si>
+  <si>
+    <t>03.05.202518</t>
+  </si>
+  <si>
+    <t>03.05.202519</t>
+  </si>
+  <si>
+    <t>03.05.202520</t>
+  </si>
+  <si>
+    <t>03.05.202521</t>
+  </si>
+  <si>
+    <t>03.05.202522</t>
+  </si>
+  <si>
+    <t>03.05.202523</t>
+  </si>
+  <si>
+    <t>04.05.20251</t>
+  </si>
+  <si>
+    <t>04.05.20252</t>
+  </si>
+  <si>
+    <t>04.05.20253</t>
+  </si>
+  <si>
+    <t>04.05.20254</t>
+  </si>
+  <si>
+    <t>04.05.20255</t>
+  </si>
+  <si>
+    <t>04.05.20256</t>
+  </si>
+  <si>
+    <t>04.05.20257</t>
+  </si>
+  <si>
+    <t>04.05.20258</t>
+  </si>
+  <si>
+    <t>04.05.20259</t>
+  </si>
+  <si>
+    <t>04.05.202510</t>
+  </si>
+  <si>
+    <t>04.05.202511</t>
+  </si>
+  <si>
+    <t>04.05.202512</t>
+  </si>
+  <si>
+    <t>04.05.202513</t>
+  </si>
+  <si>
+    <t>04.05.202514</t>
+  </si>
+  <si>
+    <t>04.05.202515</t>
+  </si>
+  <si>
+    <t>04.05.202516</t>
+  </si>
+  <si>
+    <t>04.05.202517</t>
+  </si>
+  <si>
+    <t>04.05.202518</t>
+  </si>
+  <si>
+    <t>04.05.202519</t>
+  </si>
+  <si>
+    <t>04.05.202520</t>
+  </si>
+  <si>
+    <t>04.05.202521</t>
+  </si>
+  <si>
+    <t>04.05.202522</t>
+  </si>
+  <si>
+    <t>04.05.202523</t>
+  </si>
+  <si>
+    <t>05.05.20251</t>
+  </si>
+  <si>
+    <t>05.05.20252</t>
+  </si>
+  <si>
+    <t>05.05.20253</t>
+  </si>
+  <si>
+    <t>05.05.20254</t>
+  </si>
+  <si>
+    <t>05.05.20255</t>
+  </si>
+  <si>
+    <t>05.05.20256</t>
+  </si>
+  <si>
+    <t>05.05.20257</t>
+  </si>
+  <si>
+    <t>05.05.20258</t>
+  </si>
+  <si>
+    <t>05.05.20259</t>
+  </si>
+  <si>
+    <t>05.05.202510</t>
+  </si>
+  <si>
+    <t>05.05.202511</t>
+  </si>
+  <si>
+    <t>05.05.202512</t>
+  </si>
+  <si>
+    <t>05.05.202513</t>
+  </si>
+  <si>
+    <t>05.05.202514</t>
+  </si>
+  <si>
+    <t>05.05.202515</t>
+  </si>
+  <si>
+    <t>05.05.202516</t>
+  </si>
+  <si>
+    <t>05.05.202517</t>
+  </si>
+  <si>
+    <t>05.05.202518</t>
+  </si>
+  <si>
+    <t>05.05.202519</t>
+  </si>
+  <si>
+    <t>05.05.202520</t>
+  </si>
+  <si>
+    <t>05.05.202521</t>
+  </si>
+  <si>
+    <t>05.05.202522</t>
+  </si>
+  <si>
+    <t>05.05.202523</t>
+  </si>
+  <si>
+    <t>06.05.20251</t>
+  </si>
+  <si>
+    <t>06.05.20252</t>
+  </si>
+  <si>
+    <t>06.05.20253</t>
+  </si>
+  <si>
+    <t>06.05.20254</t>
+  </si>
+  <si>
+    <t>06.05.20255</t>
+  </si>
+  <si>
+    <t>06.05.20256</t>
+  </si>
+  <si>
+    <t>06.05.20257</t>
+  </si>
+  <si>
+    <t>06.05.20258</t>
+  </si>
+  <si>
+    <t>06.05.20259</t>
+  </si>
+  <si>
+    <t>06.05.202510</t>
+  </si>
+  <si>
+    <t>06.05.202511</t>
+  </si>
+  <si>
+    <t>06.05.202512</t>
+  </si>
+  <si>
+    <t>06.05.202513</t>
+  </si>
+  <si>
+    <t>06.05.202514</t>
+  </si>
+  <si>
+    <t>06.05.202515</t>
+  </si>
+  <si>
+    <t>06.05.202516</t>
+  </si>
+  <si>
+    <t>06.05.202517</t>
   </si>
 </sst>
 </file>
@@ -910,10 +910,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>715</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>16</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>733</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3.1</v>
+        <v>0.192</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>3.155</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45550</v>
+        <v>45776</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.344</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,200 +1065,200 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>1.969</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>1.073</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>0.344</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45550</v>
+        <v>45777</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.031</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -1266,22 +1266,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.118</v>
       </c>
       <c r="G18" t="s">
         <v>21</v>
@@ -1289,22 +1289,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.998</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -1312,22 +1312,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.681</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
@@ -1335,22 +1335,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>803</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>66</v>
-      </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.983</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3.023</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -1381,22 +1381,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>652</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.789</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>567</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F24">
-        <v>0.039</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>121</v>
+        <v>443</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>0.18</v>
+        <v>2.237</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>0.422</v>
+        <v>1.686</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>0.6850000000000001</v>
+        <v>1.042</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>0.483</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F29">
-        <v>0.9330000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>0.951</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F31">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45551</v>
+        <v>45777</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F32">
-        <v>1.231</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,79 +1611,73 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>37</v>
-      </c>
-      <c r="F33">
-        <v>1.141</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1692,21 +1686,21 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1715,21 +1709,21 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1738,73 +1732,79 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45551</v>
+        <v>45778</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0.027</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="G41" t="s">
         <v>43</v>
@@ -1812,22 +1812,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.078</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -1835,22 +1835,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.957</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -1858,22 +1858,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2.476</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -1881,22 +1881,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.926</v>
       </c>
       <c r="G45" t="s">
         <v>47</v>
@@ -1904,22 +1904,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3.165</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>833</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.185</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>93</v>
+        <v>746</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.04</v>
+        <v>3.114</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>196</v>
+        <v>607</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>0.278</v>
+        <v>2.694</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>311</v>
+        <v>449</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>0.732</v>
+        <v>2.11</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>401</v>
+        <v>276</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E51">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>1.165</v>
+        <v>1.463</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>1.562</v>
+        <v>0.7</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>473</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>1.954</v>
+        <v>0.178</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>2.005</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>1.978</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45552</v>
+        <v>45778</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>1.653</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,200 +2157,200 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>36</v>
-      </c>
-      <c r="F57">
-        <v>1.1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45552</v>
+        <v>45779</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>0.043</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="D65">
         <v>12</v>
       </c>
       <c r="E65">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -2358,22 +2358,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1.145</v>
       </c>
       <c r="G66" t="s">
         <v>67</v>
@@ -2381,22 +2381,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1.976</v>
       </c>
       <c r="G67" t="s">
         <v>68</v>
@@ -2404,22 +2404,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2.608</v>
       </c>
       <c r="G68" t="s">
         <v>69</v>
@@ -2427,22 +2427,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3.006</v>
       </c>
       <c r="G69" t="s">
         <v>70</v>
@@ -2450,22 +2450,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="G70" t="s">
         <v>71</v>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>851</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>3.283</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>94</v>
+        <v>767</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.038</v>
+        <v>3.136</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>197</v>
+        <v>639</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.277</v>
+        <v>2.855</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>290</v>
+        <v>477</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.728</v>
+        <v>2.254</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.092</v>
+        <v>1.537</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C76">
-        <v>384</v>
+        <v>115</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F76">
-        <v>1.338</v>
+        <v>0.748</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C77">
-        <v>419</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>1.605</v>
+        <v>0.205</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C78">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F78">
-        <v>1.79</v>
+        <v>0.011</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B79">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79">
         <v>15</v>
       </c>
-      <c r="C79">
-        <v>364</v>
-      </c>
-      <c r="D79">
-        <v>24</v>
-      </c>
-      <c r="E79">
-        <v>37</v>
-      </c>
       <c r="F79">
-        <v>1.638</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45553</v>
+        <v>45779</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C80">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,200 +2703,200 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>42</v>
-      </c>
-      <c r="F81">
-        <v>0.968</v>
-      </c>
-      <c r="G81" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
         <v>18</v>
       </c>
-      <c r="C82">
-        <v>59</v>
-      </c>
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82">
-        <v>51</v>
-      </c>
       <c r="F82">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45553</v>
+        <v>45780</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D87">
         <v>12</v>
       </c>
       <c r="E87">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
       <c r="E88">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="F88">
+        <v>0.029</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="G89" t="s">
         <v>89</v>
@@ -2904,22 +2904,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G90" t="s">
         <v>90</v>
@@ -2927,22 +2927,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="G91" t="s">
         <v>91</v>
@@ -2950,22 +2950,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1.797</v>
       </c>
       <c r="G92" t="s">
         <v>92</v>
@@ -2973,22 +2973,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2.349</v>
       </c>
       <c r="G93" t="s">
         <v>93</v>
@@ -2996,22 +2996,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="D94">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2.503</v>
       </c>
       <c r="G94" t="s">
         <v>94</v>
@@ -3019,22 +3019,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E95">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2.351</v>
       </c>
       <c r="G95" t="s">
         <v>95</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>125</v>
+        <v>485</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E96">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F96">
-        <v>0.043</v>
+        <v>2.12</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="D97">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F97">
-        <v>0.409</v>
+        <v>1.702</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F98">
-        <v>1.029</v>
+        <v>1.585</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>586</v>
+        <v>195</v>
       </c>
       <c r="D99">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F99">
-        <v>1.924</v>
+        <v>1.02</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C100">
-        <v>671</v>
+        <v>81</v>
       </c>
       <c r="D100">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F100">
-        <v>2.333</v>
+        <v>0.511</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F101">
-        <v>2.572</v>
+        <v>0.153</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C102">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F102">
-        <v>2.647</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C103">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F103">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45554</v>
+        <v>45780</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C104">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F104">
-        <v>2.204</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,102 +3249,96 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>18</v>
-      </c>
-      <c r="F105">
-        <v>1.737</v>
-      </c>
-      <c r="G105" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F106">
-        <v>0.831</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E107">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F107">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3353,21 +3347,21 @@
         <v>14</v>
       </c>
       <c r="E109">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3376,73 +3370,79 @@
         <v>13</v>
       </c>
       <c r="E110">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45554</v>
+        <v>45781</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="F112">
+        <v>0.023</v>
+      </c>
+      <c r="G112" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="G113" t="s">
         <v>112</v>
@@ -3450,22 +3450,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E114">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="G114" t="s">
         <v>113</v>
@@ -3473,22 +3473,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G115" t="s">
         <v>114</v>
@@ -3496,22 +3496,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.928</v>
       </c>
       <c r="G116" t="s">
         <v>115</v>
@@ -3519,22 +3519,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1.179</v>
       </c>
       <c r="G117" t="s">
         <v>116</v>
@@ -3542,22 +3542,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1.208</v>
       </c>
       <c r="G118" t="s">
         <v>117</v>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1.381</v>
       </c>
       <c r="G119" t="s">
         <v>118</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C120">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F120">
-        <v>0.057</v>
+        <v>1.106</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C121">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="D121">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F121">
-        <v>0.656</v>
+        <v>1.075</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C122">
-        <v>517</v>
+        <v>204</v>
       </c>
       <c r="D122">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F122">
-        <v>1.557</v>
+        <v>0.92</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>637</v>
+        <v>134</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F123">
-        <v>2.391</v>
+        <v>0.635</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C124">
-        <v>710</v>
+        <v>68</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F124">
-        <v>2.817</v>
+        <v>0.374</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C125">
-        <v>726</v>
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F125">
-        <v>3.068</v>
+        <v>0.122</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C126">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F126">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C127">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F127">
-        <v>2.901</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45555</v>
+        <v>45781</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C128">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F128">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,200 +3795,200 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>1.942</v>
-      </c>
-      <c r="G129" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F130">
-        <v>1.113</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F131">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F132">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45555</v>
+        <v>45782</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="F136">
+        <v>0.028</v>
+      </c>
+      <c r="G136" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D137">
         <v>12</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="G137" t="s">
         <v>135</v>
@@ -3996,22 +3996,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D138">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="G138" t="s">
         <v>136</v>
@@ -4019,22 +4019,22 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.882</v>
       </c>
       <c r="G139" t="s">
         <v>137</v>
@@ -4042,22 +4042,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1.226</v>
       </c>
       <c r="G140" t="s">
         <v>138</v>
@@ -4065,22 +4065,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1.356</v>
       </c>
       <c r="G141" t="s">
         <v>139</v>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="D142">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1.682</v>
       </c>
       <c r="G142" t="s">
         <v>140</v>
@@ -4111,22 +4111,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>425</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1.819</v>
       </c>
       <c r="G143" t="s">
         <v>141</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C144">
-        <v>172</v>
+        <v>392</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F144">
-        <v>0.057</v>
+        <v>1.677</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C145">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F145">
-        <v>0.553</v>
+        <v>1.515</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C146">
-        <v>490</v>
+        <v>244</v>
       </c>
       <c r="D146">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F146">
-        <v>1.483</v>
+        <v>1.326</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C147">
-        <v>606</v>
+        <v>156</v>
       </c>
       <c r="D147">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F147">
-        <v>2.282</v>
+        <v>0.893</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C148">
-        <v>678</v>
+        <v>70</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F148">
-        <v>2.798</v>
+        <v>0.453</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C149">
-        <v>694</v>
+        <v>7</v>
       </c>
       <c r="D149">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F149">
-        <v>2.974</v>
+        <v>0.137</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C150">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F150">
-        <v>2.992</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C151">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F151">
-        <v>2.833</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45556</v>
+        <v>45782</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C152">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F152">
-        <v>2.285</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,200 +4341,200 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>1.92</v>
-      </c>
-      <c r="G153" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F154">
-        <v>0.998</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F155">
-        <v>0.179</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45556</v>
+        <v>45783</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D160">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F160">
+        <v>0.03</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G161" t="s">
         <v>158</v>
@@ -4542,22 +4542,22 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>0.634</v>
       </c>
       <c r="G162" t="s">
         <v>159</v>
@@ -4565,22 +4565,22 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="G163" t="s">
         <v>160</v>
@@ -4588,22 +4588,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1.276</v>
       </c>
       <c r="G164" t="s">
         <v>161</v>
@@ -4611,22 +4611,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1.384</v>
       </c>
       <c r="G165" t="s">
         <v>162</v>
@@ -4634,22 +4634,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="D166">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1.613</v>
       </c>
       <c r="G166" t="s">
         <v>163</v>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C167">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1.629</v>
       </c>
       <c r="G167" t="s">
         <v>164</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C168">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F168">
-        <v>0.046</v>
+        <v>1.357</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C169">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D169">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F169">
-        <v>0.552</v>
+        <v>1.267</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45557</v>
+        <v>45783</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C170">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="D170">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F170">
-        <v>1.479</v>
+        <v>1.152</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,487 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>30.04.20251</t>
-  </si>
-  <si>
-    <t>30.04.20252</t>
-  </si>
-  <si>
-    <t>30.04.20253</t>
-  </si>
-  <si>
-    <t>30.04.20254</t>
-  </si>
-  <si>
-    <t>30.04.20255</t>
-  </si>
-  <si>
-    <t>30.04.20256</t>
-  </si>
-  <si>
-    <t>30.04.20257</t>
-  </si>
-  <si>
-    <t>30.04.20258</t>
-  </si>
-  <si>
-    <t>30.04.20259</t>
-  </si>
-  <si>
-    <t>30.04.202510</t>
-  </si>
-  <si>
-    <t>30.04.202511</t>
-  </si>
-  <si>
-    <t>30.04.202512</t>
-  </si>
-  <si>
-    <t>30.04.202513</t>
-  </si>
-  <si>
-    <t>30.04.202514</t>
-  </si>
-  <si>
-    <t>30.04.202515</t>
-  </si>
-  <si>
-    <t>30.04.202516</t>
-  </si>
-  <si>
-    <t>30.04.202517</t>
-  </si>
-  <si>
-    <t>30.04.202518</t>
-  </si>
-  <si>
-    <t>30.04.202519</t>
-  </si>
-  <si>
-    <t>30.04.202520</t>
-  </si>
-  <si>
-    <t>30.04.202521</t>
-  </si>
-  <si>
-    <t>30.04.202522</t>
-  </si>
-  <si>
-    <t>30.04.202523</t>
-  </si>
-  <si>
-    <t>01.05.20251</t>
-  </si>
-  <si>
-    <t>01.05.20252</t>
-  </si>
-  <si>
-    <t>01.05.20253</t>
-  </si>
-  <si>
-    <t>01.05.20254</t>
-  </si>
-  <si>
-    <t>01.05.20255</t>
-  </si>
-  <si>
-    <t>01.05.20256</t>
-  </si>
-  <si>
-    <t>01.05.20257</t>
-  </si>
-  <si>
-    <t>01.05.20258</t>
-  </si>
-  <si>
-    <t>01.05.20259</t>
-  </si>
-  <si>
-    <t>01.05.202510</t>
-  </si>
-  <si>
-    <t>01.05.202511</t>
-  </si>
-  <si>
-    <t>01.05.202512</t>
-  </si>
-  <si>
-    <t>01.05.202513</t>
-  </si>
-  <si>
-    <t>01.05.202514</t>
-  </si>
-  <si>
-    <t>01.05.202515</t>
-  </si>
-  <si>
-    <t>01.05.202516</t>
-  </si>
-  <si>
-    <t>01.05.202517</t>
-  </si>
-  <si>
-    <t>01.05.202518</t>
-  </si>
-  <si>
-    <t>01.05.202519</t>
-  </si>
-  <si>
-    <t>01.05.202520</t>
-  </si>
-  <si>
-    <t>01.05.202521</t>
-  </si>
-  <si>
-    <t>01.05.202522</t>
-  </si>
-  <si>
-    <t>01.05.202523</t>
-  </si>
-  <si>
-    <t>02.05.20251</t>
-  </si>
-  <si>
-    <t>02.05.20252</t>
-  </si>
-  <si>
-    <t>02.05.20253</t>
-  </si>
-  <si>
-    <t>02.05.20254</t>
-  </si>
-  <si>
-    <t>02.05.20255</t>
-  </si>
-  <si>
-    <t>02.05.20256</t>
-  </si>
-  <si>
-    <t>02.05.20257</t>
-  </si>
-  <si>
-    <t>02.05.20258</t>
-  </si>
-  <si>
-    <t>02.05.20259</t>
-  </si>
-  <si>
-    <t>02.05.202510</t>
-  </si>
-  <si>
-    <t>02.05.202511</t>
-  </si>
-  <si>
-    <t>02.05.202512</t>
-  </si>
-  <si>
-    <t>02.05.202513</t>
-  </si>
-  <si>
-    <t>02.05.202514</t>
-  </si>
-  <si>
-    <t>02.05.202515</t>
-  </si>
-  <si>
-    <t>02.05.202516</t>
-  </si>
-  <si>
-    <t>02.05.202517</t>
-  </si>
-  <si>
-    <t>02.05.202518</t>
-  </si>
-  <si>
-    <t>02.05.202519</t>
-  </si>
-  <si>
-    <t>02.05.202520</t>
-  </si>
-  <si>
-    <t>02.05.202521</t>
-  </si>
-  <si>
-    <t>02.05.202522</t>
-  </si>
-  <si>
-    <t>02.05.202523</t>
-  </si>
-  <si>
-    <t>03.05.20251</t>
-  </si>
-  <si>
-    <t>03.05.20252</t>
-  </si>
-  <si>
-    <t>03.05.20253</t>
-  </si>
-  <si>
-    <t>03.05.20254</t>
-  </si>
-  <si>
-    <t>03.05.20255</t>
-  </si>
-  <si>
-    <t>03.05.20256</t>
-  </si>
-  <si>
-    <t>03.05.20257</t>
-  </si>
-  <si>
-    <t>03.05.20258</t>
-  </si>
-  <si>
-    <t>03.05.20259</t>
-  </si>
-  <si>
-    <t>03.05.202510</t>
-  </si>
-  <si>
-    <t>03.05.202511</t>
-  </si>
-  <si>
-    <t>03.05.202512</t>
-  </si>
-  <si>
-    <t>03.05.202513</t>
-  </si>
-  <si>
-    <t>03.05.202514</t>
-  </si>
-  <si>
-    <t>03.05.202515</t>
-  </si>
-  <si>
-    <t>03.05.202516</t>
-  </si>
-  <si>
-    <t>03.05.202517</t>
-  </si>
-  <si>
-    <t>03.05.202518</t>
-  </si>
-  <si>
-    <t>03.05.202519</t>
-  </si>
-  <si>
-    <t>03.05.202520</t>
-  </si>
-  <si>
-    <t>03.05.202521</t>
-  </si>
-  <si>
-    <t>03.05.202522</t>
-  </si>
-  <si>
-    <t>03.05.202523</t>
-  </si>
-  <si>
-    <t>04.05.20251</t>
-  </si>
-  <si>
-    <t>04.05.20252</t>
-  </si>
-  <si>
-    <t>04.05.20253</t>
-  </si>
-  <si>
-    <t>04.05.20254</t>
-  </si>
-  <si>
-    <t>04.05.20255</t>
-  </si>
-  <si>
-    <t>04.05.20256</t>
-  </si>
-  <si>
-    <t>04.05.20257</t>
-  </si>
-  <si>
-    <t>04.05.20258</t>
-  </si>
-  <si>
-    <t>04.05.20259</t>
-  </si>
-  <si>
-    <t>04.05.202510</t>
-  </si>
-  <si>
-    <t>04.05.202511</t>
-  </si>
-  <si>
-    <t>04.05.202512</t>
-  </si>
-  <si>
-    <t>04.05.202513</t>
-  </si>
-  <si>
-    <t>04.05.202514</t>
-  </si>
-  <si>
-    <t>04.05.202515</t>
-  </si>
-  <si>
-    <t>04.05.202516</t>
-  </si>
-  <si>
-    <t>04.05.202517</t>
-  </si>
-  <si>
-    <t>04.05.202518</t>
-  </si>
-  <si>
-    <t>04.05.202519</t>
-  </si>
-  <si>
-    <t>04.05.202520</t>
-  </si>
-  <si>
-    <t>04.05.202521</t>
-  </si>
-  <si>
-    <t>04.05.202522</t>
-  </si>
-  <si>
-    <t>04.05.202523</t>
-  </si>
-  <si>
-    <t>05.05.20251</t>
-  </si>
-  <si>
-    <t>05.05.20252</t>
-  </si>
-  <si>
-    <t>05.05.20253</t>
-  </si>
-  <si>
-    <t>05.05.20254</t>
-  </si>
-  <si>
-    <t>05.05.20255</t>
-  </si>
-  <si>
-    <t>05.05.20256</t>
-  </si>
-  <si>
-    <t>05.05.20257</t>
-  </si>
-  <si>
-    <t>05.05.20258</t>
-  </si>
-  <si>
-    <t>05.05.20259</t>
-  </si>
-  <si>
-    <t>05.05.202510</t>
-  </si>
-  <si>
-    <t>05.05.202511</t>
-  </si>
-  <si>
-    <t>05.05.202512</t>
-  </si>
-  <si>
-    <t>05.05.202513</t>
-  </si>
-  <si>
-    <t>05.05.202514</t>
-  </si>
-  <si>
-    <t>05.05.202515</t>
-  </si>
-  <si>
-    <t>05.05.202516</t>
-  </si>
-  <si>
-    <t>05.05.202517</t>
-  </si>
-  <si>
-    <t>05.05.202518</t>
-  </si>
-  <si>
-    <t>05.05.202519</t>
-  </si>
-  <si>
-    <t>05.05.202520</t>
-  </si>
-  <si>
-    <t>05.05.202521</t>
-  </si>
-  <si>
-    <t>05.05.202522</t>
-  </si>
-  <si>
-    <t>05.05.202523</t>
-  </si>
-  <si>
-    <t>06.05.20251</t>
-  </si>
-  <si>
-    <t>06.05.20252</t>
-  </si>
-  <si>
-    <t>06.05.20253</t>
-  </si>
-  <si>
-    <t>06.05.20254</t>
-  </si>
-  <si>
-    <t>06.05.20255</t>
-  </si>
-  <si>
-    <t>06.05.20256</t>
-  </si>
-  <si>
-    <t>06.05.20257</t>
-  </si>
-  <si>
-    <t>06.05.20258</t>
-  </si>
-  <si>
-    <t>06.05.20259</t>
-  </si>
-  <si>
-    <t>06.05.202510</t>
-  </si>
-  <si>
-    <t>06.05.202511</t>
-  </si>
-  <si>
-    <t>06.05.202512</t>
-  </si>
-  <si>
-    <t>06.05.202513</t>
-  </si>
-  <si>
-    <t>06.05.202514</t>
-  </si>
-  <si>
-    <t>06.05.202515</t>
-  </si>
-  <si>
-    <t>06.05.202516</t>
-  </si>
-  <si>
-    <t>06.05.202517</t>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
+  </si>
+  <si>
+    <t>09.05.202523</t>
+  </si>
+  <si>
+    <t>10.05.20251</t>
+  </si>
+  <si>
+    <t>10.05.20252</t>
+  </si>
+  <si>
+    <t>10.05.20253</t>
+  </si>
+  <si>
+    <t>10.05.20254</t>
+  </si>
+  <si>
+    <t>10.05.20255</t>
+  </si>
+  <si>
+    <t>10.05.20256</t>
+  </si>
+  <si>
+    <t>10.05.20257</t>
+  </si>
+  <si>
+    <t>10.05.20258</t>
+  </si>
+  <si>
+    <t>10.05.20259</t>
+  </si>
+  <si>
+    <t>10.05.202510</t>
+  </si>
+  <si>
+    <t>10.05.202511</t>
+  </si>
+  <si>
+    <t>10.05.202512</t>
+  </si>
+  <si>
+    <t>10.05.202513</t>
+  </si>
+  <si>
+    <t>10.05.202514</t>
+  </si>
+  <si>
+    <t>10.05.202515</t>
+  </si>
+  <si>
+    <t>10.05.202516</t>
+  </si>
+  <si>
+    <t>10.05.202517</t>
+  </si>
+  <si>
+    <t>10.05.202518</t>
+  </si>
+  <si>
+    <t>10.05.202519</t>
+  </si>
+  <si>
+    <t>10.05.202520</t>
+  </si>
+  <si>
+    <t>10.05.202521</t>
+  </si>
+  <si>
+    <t>10.05.202522</t>
+  </si>
+  <si>
+    <t>10.05.202523</t>
+  </si>
+  <si>
+    <t>11.05.20251</t>
+  </si>
+  <si>
+    <t>11.05.20252</t>
+  </si>
+  <si>
+    <t>11.05.20253</t>
+  </si>
+  <si>
+    <t>11.05.20254</t>
+  </si>
+  <si>
+    <t>11.05.20255</t>
+  </si>
+  <si>
+    <t>11.05.20256</t>
+  </si>
+  <si>
+    <t>11.05.20257</t>
+  </si>
+  <si>
+    <t>11.05.20258</t>
+  </si>
+  <si>
+    <t>11.05.20259</t>
+  </si>
+  <si>
+    <t>11.05.202510</t>
+  </si>
+  <si>
+    <t>11.05.202511</t>
+  </si>
+  <si>
+    <t>11.05.202512</t>
+  </si>
+  <si>
+    <t>11.05.202513</t>
+  </si>
+  <si>
+    <t>11.05.202514</t>
+  </si>
+  <si>
+    <t>11.05.202515</t>
+  </si>
+  <si>
+    <t>11.05.202516</t>
+  </si>
+  <si>
+    <t>11.05.202517</t>
+  </si>
+  <si>
+    <t>11.05.202518</t>
+  </si>
+  <si>
+    <t>11.05.202519</t>
+  </si>
+  <si>
+    <t>11.05.202520</t>
+  </si>
+  <si>
+    <t>11.05.202521</t>
+  </si>
+  <si>
+    <t>11.05.202522</t>
+  </si>
+  <si>
+    <t>11.05.202523</t>
+  </si>
+  <si>
+    <t>12.05.20251</t>
+  </si>
+  <si>
+    <t>12.05.20252</t>
+  </si>
+  <si>
+    <t>12.05.20253</t>
+  </si>
+  <si>
+    <t>12.05.20254</t>
+  </si>
+  <si>
+    <t>12.05.20255</t>
+  </si>
+  <si>
+    <t>12.05.20256</t>
+  </si>
+  <si>
+    <t>12.05.20257</t>
+  </si>
+  <si>
+    <t>12.05.20258</t>
+  </si>
+  <si>
+    <t>12.05.20259</t>
+  </si>
+  <si>
+    <t>12.05.202510</t>
+  </si>
+  <si>
+    <t>12.05.202511</t>
+  </si>
+  <si>
+    <t>12.05.202512</t>
+  </si>
+  <si>
+    <t>12.05.202513</t>
+  </si>
+  <si>
+    <t>12.05.202514</t>
+  </si>
+  <si>
+    <t>12.05.202515</t>
+  </si>
+  <si>
+    <t>12.05.202516</t>
+  </si>
+  <si>
+    <t>12.05.202517</t>
+  </si>
+  <si>
+    <t>12.05.202518</t>
+  </si>
+  <si>
+    <t>12.05.202519</t>
+  </si>
+  <si>
+    <t>12.05.202520</t>
+  </si>
+  <si>
+    <t>12.05.202521</t>
+  </si>
+  <si>
+    <t>12.05.202522</t>
+  </si>
+  <si>
+    <t>12.05.202523</t>
+  </si>
+  <si>
+    <t>13.05.20251</t>
+  </si>
+  <si>
+    <t>13.05.20252</t>
+  </si>
+  <si>
+    <t>13.05.20253</t>
+  </si>
+  <si>
+    <t>13.05.20254</t>
+  </si>
+  <si>
+    <t>13.05.20255</t>
+  </si>
+  <si>
+    <t>13.05.20256</t>
+  </si>
+  <si>
+    <t>13.05.20257</t>
+  </si>
+  <si>
+    <t>13.05.20258</t>
+  </si>
+  <si>
+    <t>13.05.20259</t>
+  </si>
+  <si>
+    <t>13.05.202510</t>
+  </si>
+  <si>
+    <t>13.05.202511</t>
+  </si>
+  <si>
+    <t>13.05.202512</t>
+  </si>
+  <si>
+    <t>13.05.202513</t>
+  </si>
+  <si>
+    <t>13.05.202514</t>
+  </si>
+  <si>
+    <t>13.05.202515</t>
+  </si>
+  <si>
+    <t>13.05.202516</t>
+  </si>
+  <si>
+    <t>13.05.202517</t>
+  </si>
+  <si>
+    <t>13.05.202518</t>
+  </si>
+  <si>
+    <t>13.05.202519</t>
+  </si>
+  <si>
+    <t>13.05.202520</t>
+  </si>
+  <si>
+    <t>13.05.202521</t>
+  </si>
+  <si>
+    <t>13.05.202522</t>
+  </si>
+  <si>
+    <t>13.05.202523</t>
+  </si>
+  <si>
+    <t>14.05.20251</t>
+  </si>
+  <si>
+    <t>14.05.20252</t>
+  </si>
+  <si>
+    <t>14.05.20253</t>
+  </si>
+  <si>
+    <t>14.05.20254</t>
+  </si>
+  <si>
+    <t>14.05.20255</t>
+  </si>
+  <si>
+    <t>14.05.20256</t>
+  </si>
+  <si>
+    <t>14.05.20257</t>
+  </si>
+  <si>
+    <t>14.05.20258</t>
+  </si>
+  <si>
+    <t>14.05.20259</t>
+  </si>
+  <si>
+    <t>14.05.202510</t>
+  </si>
+  <si>
+    <t>14.05.202511</t>
+  </si>
+  <si>
+    <t>14.05.202512</t>
+  </si>
+  <si>
+    <t>14.05.202513</t>
+  </si>
+  <si>
+    <t>14.05.202514</t>
+  </si>
+  <si>
+    <t>14.05.202515</t>
+  </si>
+  <si>
+    <t>14.05.202516</t>
+  </si>
+  <si>
+    <t>14.05.202517</t>
+  </si>
+  <si>
+    <t>14.05.202518</t>
+  </si>
+  <si>
+    <t>14.05.202519</t>
+  </si>
+  <si>
+    <t>14.05.202520</t>
+  </si>
+  <si>
+    <t>14.05.202521</t>
+  </si>
+  <si>
+    <t>14.05.202522</t>
+  </si>
+  <si>
+    <t>14.05.202523</t>
+  </si>
+  <si>
+    <t>15.05.20251</t>
+  </si>
+  <si>
+    <t>15.05.20252</t>
+  </si>
+  <si>
+    <t>15.05.20253</t>
+  </si>
+  <si>
+    <t>15.05.20254</t>
+  </si>
+  <si>
+    <t>15.05.20255</t>
+  </si>
+  <si>
+    <t>15.05.20256</t>
+  </si>
+  <si>
+    <t>15.05.20257</t>
+  </si>
+  <si>
+    <t>15.05.20258</t>
+  </si>
+  <si>
+    <t>15.05.20259</t>
+  </si>
+  <si>
+    <t>15.05.202510</t>
+  </si>
+  <si>
+    <t>15.05.202511</t>
+  </si>
+  <si>
+    <t>15.05.202512</t>
+  </si>
+  <si>
+    <t>15.05.202513</t>
+  </si>
+  <si>
+    <t>15.05.202514</t>
+  </si>
+  <si>
+    <t>15.05.202515</t>
+  </si>
+  <si>
+    <t>15.05.202516</t>
+  </si>
+  <si>
+    <t>15.05.202517</t>
+  </si>
+  <si>
+    <t>15.05.202518</t>
+  </si>
+  <si>
+    <t>15.05.202519</t>
+  </si>
+  <si>
+    <t>15.05.202520</t>
+  </si>
+  <si>
+    <t>15.05.202521</t>
+  </si>
+  <si>
+    <t>15.05.202522</t>
+  </si>
+  <si>
+    <t>15.05.202523</t>
+  </si>
+  <si>
+    <t>16.05.20251</t>
+  </si>
+  <si>
+    <t>16.05.20252</t>
+  </si>
+  <si>
+    <t>16.05.20253</t>
+  </si>
+  <si>
+    <t>16.05.20254</t>
+  </si>
+  <si>
+    <t>16.05.20255</t>
+  </si>
+  <si>
+    <t>16.05.20256</t>
   </si>
 </sst>
 </file>
@@ -910,10 +910,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>0.192</v>
+        <v>0.444</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.218</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,292 +1065,292 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>1.259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.401</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.732</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.645</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.624</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>0.031</v>
+        <v>0.202</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>0.422</v>
+        <v>0.023</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>1.118</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>1.998</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>2.681</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>803</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>2.983</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>3.023</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -1381,22 +1381,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2.237</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>316</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.686</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.042</v>
+        <v>0.062</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>388</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.483</v>
+        <v>0.445</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>564</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.124</v>
+        <v>1.407</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.173</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="D31">
         <v>12</v>
       </c>
       <c r="E31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.839</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3.154</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,292 +1611,292 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3.27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3.342</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.042</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2.379</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.953</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.367</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>0.027</v>
+        <v>0.227</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F41">
-        <v>0.349</v>
+        <v>0.022</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>9</v>
       </c>
-      <c r="C42">
-        <v>490</v>
-      </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
       <c r="E42">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F42">
-        <v>1.078</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C43">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>1.957</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>2.476</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>2.926</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>47</v>
@@ -1904,22 +1904,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F46">
-        <v>3.165</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F47">
-        <v>3.185</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F48">
-        <v>3.114</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F49">
-        <v>2.694</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F50">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F51">
-        <v>1.463</v>
+        <v>0.04</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F52">
-        <v>0.7</v>
+        <v>0.207</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C53">
+        <v>163</v>
+      </c>
+      <c r="D53">
         <v>8</v>
       </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
       <c r="E53">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F53">
-        <v>0.178</v>
+        <v>0.353</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.821</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1.188</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,292 +2157,292 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="F57">
+        <v>1.386</v>
+      </c>
+      <c r="G57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1.448</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1.351</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1.222</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1.181</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.529</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F64">
-        <v>0.043</v>
+        <v>0.22</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F65">
-        <v>0.379</v>
+        <v>0.025</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C66">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>1.145</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>1.976</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
         <v>17</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>2.608</v>
-      </c>
-      <c r="G68" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F69">
-        <v>3.006</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>70</v>
@@ -2450,22 +2450,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>71</v>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>3.283</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>3.136</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>2.855</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>477</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>2.254</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B75">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>1.537</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>115</v>
+        <v>391</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.748</v>
+        <v>0.455</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C77">
+        <v>565</v>
+      </c>
+      <c r="D77">
         <v>9</v>
       </c>
-      <c r="D77">
-        <v>14</v>
-      </c>
       <c r="E77">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.205</v>
+        <v>1.409</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="D78">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.011</v>
+        <v>2.169</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="D80">
         <v>12</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3.223</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,292 +2703,292 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3.356</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3.367</v>
       </c>
       <c r="G82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>3.285</v>
       </c>
       <c r="G83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>2.966</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2.266</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E86">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1.738</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.851</v>
       </c>
       <c r="G87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C88">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F88">
-        <v>0.029</v>
+        <v>0.235</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C89">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F89">
-        <v>0.382</v>
+        <v>0.033</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C90">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F90">
-        <v>0.9320000000000001</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45780</v>
+        <v>45789</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C91">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F91">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <v>18</v>
       </c>
-      <c r="F92">
-        <v>1.797</v>
-      </c>
-      <c r="G92" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
         <v>16</v>
       </c>
-      <c r="E93">
-        <v>19</v>
-      </c>
       <c r="F93">
-        <v>2.349</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>93</v>
@@ -2996,22 +2996,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F94">
-        <v>2.503</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>94</v>
@@ -3019,22 +3019,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
         <v>14</v>
       </c>
-      <c r="C95">
-        <v>551</v>
-      </c>
-      <c r="D95">
-        <v>20</v>
-      </c>
-      <c r="E95">
-        <v>33</v>
-      </c>
       <c r="F95">
-        <v>2.351</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>95</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F96">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F97">
-        <v>1.702</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B98">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F98">
-        <v>1.585</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B99">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D99">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>1.02</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B100">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="D100">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>0.511</v>
+        <v>0.484</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>525</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>0.153</v>
+        <v>1.395</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2.107</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2.448</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45780</v>
+        <v>45790</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="D104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>2.984</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,292 +3249,292 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="D105">
         <v>13</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>3.116</v>
+      </c>
+      <c r="G105" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="D106">
         <v>14</v>
       </c>
       <c r="E106">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2.812</v>
       </c>
       <c r="G106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="D107">
         <v>14</v>
       </c>
       <c r="E107">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2.704</v>
       </c>
       <c r="G107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="D108">
         <v>14</v>
       </c>
       <c r="E108">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2.372</v>
       </c>
       <c r="G108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="D109">
         <v>14</v>
       </c>
       <c r="E109">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1.433</v>
       </c>
       <c r="G110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C111">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.873</v>
       </c>
       <c r="G111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B112">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C112">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E112">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>0.023</v>
+        <v>0.213</v>
       </c>
       <c r="G112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C113">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F113">
-        <v>0.183</v>
+        <v>0.024</v>
       </c>
       <c r="G113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C114">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C115">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F115">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
         <v>11</v>
-      </c>
-      <c r="C116">
-        <v>330</v>
-      </c>
-      <c r="D116">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>57</v>
-      </c>
-      <c r="F116">
-        <v>0.928</v>
-      </c>
-      <c r="G116" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B117">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F117">
-        <v>1.179</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>116</v>
@@ -3542,22 +3542,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B118">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F118">
-        <v>1.208</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>117</v>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.381</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>118</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B120">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.106</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C121">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B122">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C123">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D123">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E123">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.635</v>
+        <v>0.048</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B124">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="D124">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B125">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>496</v>
       </c>
       <c r="D125">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.122</v>
+        <v>1.163</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B126">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="D126">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>2.046</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B127">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D127">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2.569</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45781</v>
+        <v>45791</v>
       </c>
       <c r="B128">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="D128">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>3.084</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,292 +3795,292 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="D129">
         <v>12</v>
       </c>
       <c r="E129">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>3.248</v>
+      </c>
+      <c r="G129" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="D130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>3.143</v>
       </c>
       <c r="G130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="G131" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E132">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2.606</v>
       </c>
       <c r="G132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E133">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2.061</v>
       </c>
       <c r="G133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1.398</v>
       </c>
       <c r="G134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D135">
         <v>10</v>
       </c>
       <c r="E135">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="G135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C136">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F136">
-        <v>0.028</v>
+        <v>0.173</v>
       </c>
       <c r="G136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C137">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F137">
-        <v>0.208</v>
+        <v>0.021</v>
       </c>
       <c r="G137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C138">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F138">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45782</v>
+        <v>45791</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C139">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F139">
-        <v>0.882</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B140">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>55</v>
-      </c>
-      <c r="F140">
-        <v>1.226</v>
-      </c>
-      <c r="G140" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B141">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
         <v>16</v>
       </c>
-      <c r="E141">
-        <v>52</v>
-      </c>
       <c r="F141">
-        <v>1.356</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>139</v>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B142">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F142">
-        <v>1.682</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>140</v>
@@ -4111,22 +4111,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B143">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F143">
-        <v>1.819</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>141</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B144">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F144">
-        <v>1.677</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B145">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C145">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F145">
-        <v>1.515</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B146">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C146">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F146">
-        <v>1.326</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B147">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C147">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D147">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F147">
-        <v>0.893</v>
+        <v>0.049</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B148">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C148">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F148">
-        <v>0.453</v>
+        <v>0.34</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>357</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F149">
-        <v>0.137</v>
+        <v>0.752</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B150">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="D150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1.344</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1.814</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B152">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E152">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>2.032</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,292 +4341,292 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="F153">
+        <v>2.198</v>
+      </c>
+      <c r="G153" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="D154">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2.246</v>
       </c>
       <c r="G154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2.084</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1.877</v>
       </c>
       <c r="G156" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E157">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1.585</v>
       </c>
       <c r="G157" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B158">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E158">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1.139</v>
       </c>
       <c r="G158" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C159">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E159">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="G159" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F160">
-        <v>0.03</v>
+        <v>0.197</v>
       </c>
       <c r="G160" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B161">
+        <v>21</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
         <v>8</v>
       </c>
-      <c r="C161">
-        <v>168</v>
-      </c>
-      <c r="D161">
-        <v>10</v>
-      </c>
       <c r="E161">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F161">
-        <v>0.34</v>
+        <v>0.023</v>
       </c>
       <c r="G161" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B162">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C162">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F162">
-        <v>0.634</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C163">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F163">
-        <v>0.958</v>
+        <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>51</v>
-      </c>
-      <c r="F164">
-        <v>1.276</v>
-      </c>
-      <c r="G164" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B165">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F165">
-        <v>1.384</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>162</v>
@@ -4634,22 +4634,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B166">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E166">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F166">
-        <v>1.613</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>163</v>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B167">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F167">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>164</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B168">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F168">
-        <v>1.357</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B169">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F169">
-        <v>1.267</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45783</v>
+        <v>45793</v>
       </c>
       <c r="B170">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="D170">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F170">
-        <v>1.152</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,487 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
-  </si>
-  <si>
-    <t>09.05.202523</t>
-  </si>
-  <si>
-    <t>10.05.20251</t>
-  </si>
-  <si>
-    <t>10.05.20252</t>
-  </si>
-  <si>
-    <t>10.05.20253</t>
-  </si>
-  <si>
-    <t>10.05.20254</t>
-  </si>
-  <si>
-    <t>10.05.20255</t>
-  </si>
-  <si>
-    <t>10.05.20256</t>
-  </si>
-  <si>
-    <t>10.05.20257</t>
-  </si>
-  <si>
-    <t>10.05.20258</t>
-  </si>
-  <si>
-    <t>10.05.20259</t>
-  </si>
-  <si>
-    <t>10.05.202510</t>
-  </si>
-  <si>
-    <t>10.05.202511</t>
-  </si>
-  <si>
-    <t>10.05.202512</t>
-  </si>
-  <si>
-    <t>10.05.202513</t>
-  </si>
-  <si>
-    <t>10.05.202514</t>
-  </si>
-  <si>
-    <t>10.05.202515</t>
-  </si>
-  <si>
-    <t>10.05.202516</t>
-  </si>
-  <si>
-    <t>10.05.202517</t>
-  </si>
-  <si>
-    <t>10.05.202518</t>
-  </si>
-  <si>
-    <t>10.05.202519</t>
-  </si>
-  <si>
-    <t>10.05.202520</t>
-  </si>
-  <si>
-    <t>10.05.202521</t>
-  </si>
-  <si>
-    <t>10.05.202522</t>
-  </si>
-  <si>
-    <t>10.05.202523</t>
-  </si>
-  <si>
-    <t>11.05.20251</t>
-  </si>
-  <si>
-    <t>11.05.20252</t>
-  </si>
-  <si>
-    <t>11.05.20253</t>
-  </si>
-  <si>
-    <t>11.05.20254</t>
-  </si>
-  <si>
-    <t>11.05.20255</t>
-  </si>
-  <si>
-    <t>11.05.20256</t>
-  </si>
-  <si>
-    <t>11.05.20257</t>
-  </si>
-  <si>
-    <t>11.05.20258</t>
-  </si>
-  <si>
-    <t>11.05.20259</t>
-  </si>
-  <si>
-    <t>11.05.202510</t>
-  </si>
-  <si>
-    <t>11.05.202511</t>
-  </si>
-  <si>
-    <t>11.05.202512</t>
-  </si>
-  <si>
-    <t>11.05.202513</t>
-  </si>
-  <si>
-    <t>11.05.202514</t>
-  </si>
-  <si>
-    <t>11.05.202515</t>
-  </si>
-  <si>
-    <t>11.05.202516</t>
-  </si>
-  <si>
-    <t>11.05.202517</t>
-  </si>
-  <si>
-    <t>11.05.202518</t>
-  </si>
-  <si>
-    <t>11.05.202519</t>
-  </si>
-  <si>
-    <t>11.05.202520</t>
-  </si>
-  <si>
-    <t>11.05.202521</t>
-  </si>
-  <si>
-    <t>11.05.202522</t>
-  </si>
-  <si>
-    <t>11.05.202523</t>
-  </si>
-  <si>
-    <t>12.05.20251</t>
-  </si>
-  <si>
-    <t>12.05.20252</t>
-  </si>
-  <si>
-    <t>12.05.20253</t>
-  </si>
-  <si>
-    <t>12.05.20254</t>
-  </si>
-  <si>
-    <t>12.05.20255</t>
-  </si>
-  <si>
-    <t>12.05.20256</t>
-  </si>
-  <si>
-    <t>12.05.20257</t>
-  </si>
-  <si>
-    <t>12.05.20258</t>
-  </si>
-  <si>
-    <t>12.05.20259</t>
-  </si>
-  <si>
-    <t>12.05.202510</t>
-  </si>
-  <si>
-    <t>12.05.202511</t>
-  </si>
-  <si>
-    <t>12.05.202512</t>
-  </si>
-  <si>
-    <t>12.05.202513</t>
-  </si>
-  <si>
-    <t>12.05.202514</t>
-  </si>
-  <si>
-    <t>12.05.202515</t>
-  </si>
-  <si>
-    <t>12.05.202516</t>
-  </si>
-  <si>
-    <t>12.05.202517</t>
-  </si>
-  <si>
-    <t>12.05.202518</t>
-  </si>
-  <si>
-    <t>12.05.202519</t>
-  </si>
-  <si>
-    <t>12.05.202520</t>
-  </si>
-  <si>
-    <t>12.05.202521</t>
-  </si>
-  <si>
-    <t>12.05.202522</t>
-  </si>
-  <si>
-    <t>12.05.202523</t>
-  </si>
-  <si>
-    <t>13.05.20251</t>
-  </si>
-  <si>
-    <t>13.05.20252</t>
-  </si>
-  <si>
-    <t>13.05.20253</t>
-  </si>
-  <si>
-    <t>13.05.20254</t>
-  </si>
-  <si>
-    <t>13.05.20255</t>
-  </si>
-  <si>
-    <t>13.05.20256</t>
-  </si>
-  <si>
-    <t>13.05.20257</t>
-  </si>
-  <si>
-    <t>13.05.20258</t>
-  </si>
-  <si>
-    <t>13.05.20259</t>
-  </si>
-  <si>
-    <t>13.05.202510</t>
-  </si>
-  <si>
-    <t>13.05.202511</t>
-  </si>
-  <si>
-    <t>13.05.202512</t>
-  </si>
-  <si>
-    <t>13.05.202513</t>
-  </si>
-  <si>
-    <t>13.05.202514</t>
-  </si>
-  <si>
-    <t>13.05.202515</t>
-  </si>
-  <si>
-    <t>13.05.202516</t>
-  </si>
-  <si>
-    <t>13.05.202517</t>
-  </si>
-  <si>
-    <t>13.05.202518</t>
-  </si>
-  <si>
-    <t>13.05.202519</t>
-  </si>
-  <si>
-    <t>13.05.202520</t>
-  </si>
-  <si>
-    <t>13.05.202521</t>
-  </si>
-  <si>
-    <t>13.05.202522</t>
-  </si>
-  <si>
-    <t>13.05.202523</t>
-  </si>
-  <si>
-    <t>14.05.20251</t>
-  </si>
-  <si>
-    <t>14.05.20252</t>
-  </si>
-  <si>
-    <t>14.05.20253</t>
-  </si>
-  <si>
-    <t>14.05.20254</t>
-  </si>
-  <si>
-    <t>14.05.20255</t>
-  </si>
-  <si>
-    <t>14.05.20256</t>
-  </si>
-  <si>
-    <t>14.05.20257</t>
-  </si>
-  <si>
-    <t>14.05.20258</t>
-  </si>
-  <si>
-    <t>14.05.20259</t>
-  </si>
-  <si>
-    <t>14.05.202510</t>
-  </si>
-  <si>
-    <t>14.05.202511</t>
-  </si>
-  <si>
-    <t>14.05.202512</t>
-  </si>
-  <si>
-    <t>14.05.202513</t>
-  </si>
-  <si>
-    <t>14.05.202514</t>
-  </si>
-  <si>
-    <t>14.05.202515</t>
-  </si>
-  <si>
-    <t>14.05.202516</t>
-  </si>
-  <si>
-    <t>14.05.202517</t>
-  </si>
-  <si>
-    <t>14.05.202518</t>
-  </si>
-  <si>
-    <t>14.05.202519</t>
-  </si>
-  <si>
-    <t>14.05.202520</t>
-  </si>
-  <si>
-    <t>14.05.202521</t>
-  </si>
-  <si>
-    <t>14.05.202522</t>
-  </si>
-  <si>
-    <t>14.05.202523</t>
-  </si>
-  <si>
-    <t>15.05.20251</t>
-  </si>
-  <si>
-    <t>15.05.20252</t>
-  </si>
-  <si>
-    <t>15.05.20253</t>
-  </si>
-  <si>
-    <t>15.05.20254</t>
-  </si>
-  <si>
-    <t>15.05.20255</t>
-  </si>
-  <si>
-    <t>15.05.20256</t>
-  </si>
-  <si>
-    <t>15.05.20257</t>
-  </si>
-  <si>
-    <t>15.05.20258</t>
-  </si>
-  <si>
-    <t>15.05.20259</t>
-  </si>
-  <si>
-    <t>15.05.202510</t>
-  </si>
-  <si>
-    <t>15.05.202511</t>
-  </si>
-  <si>
-    <t>15.05.202512</t>
-  </si>
-  <si>
-    <t>15.05.202513</t>
-  </si>
-  <si>
-    <t>15.05.202514</t>
-  </si>
-  <si>
-    <t>15.05.202515</t>
-  </si>
-  <si>
-    <t>15.05.202516</t>
-  </si>
-  <si>
-    <t>15.05.202517</t>
-  </si>
-  <si>
-    <t>15.05.202518</t>
-  </si>
-  <si>
-    <t>15.05.202519</t>
-  </si>
-  <si>
-    <t>15.05.202520</t>
-  </si>
-  <si>
-    <t>15.05.202521</t>
-  </si>
-  <si>
-    <t>15.05.202522</t>
-  </si>
-  <si>
-    <t>15.05.202523</t>
-  </si>
-  <si>
-    <t>16.05.20251</t>
-  </si>
-  <si>
-    <t>16.05.20252</t>
-  </si>
-  <si>
-    <t>16.05.20253</t>
-  </si>
-  <si>
-    <t>16.05.20254</t>
-  </si>
-  <si>
-    <t>16.05.20255</t>
-  </si>
-  <si>
-    <t>16.05.20256</t>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>21.06.20251</t>
+  </si>
+  <si>
+    <t>21.06.20252</t>
+  </si>
+  <si>
+    <t>21.06.20253</t>
+  </si>
+  <si>
+    <t>21.06.20254</t>
+  </si>
+  <si>
+    <t>21.06.20255</t>
+  </si>
+  <si>
+    <t>21.06.20256</t>
+  </si>
+  <si>
+    <t>21.06.20257</t>
+  </si>
+  <si>
+    <t>21.06.20258</t>
+  </si>
+  <si>
+    <t>21.06.20259</t>
+  </si>
+  <si>
+    <t>21.06.202510</t>
+  </si>
+  <si>
+    <t>21.06.202511</t>
+  </si>
+  <si>
+    <t>21.06.202512</t>
+  </si>
+  <si>
+    <t>21.06.202513</t>
+  </si>
+  <si>
+    <t>21.06.202514</t>
+  </si>
+  <si>
+    <t>21.06.202515</t>
+  </si>
+  <si>
+    <t>21.06.202516</t>
+  </si>
+  <si>
+    <t>21.06.202517</t>
+  </si>
+  <si>
+    <t>21.06.202518</t>
+  </si>
+  <si>
+    <t>21.06.202519</t>
+  </si>
+  <si>
+    <t>21.06.202520</t>
+  </si>
+  <si>
+    <t>21.06.202521</t>
+  </si>
+  <si>
+    <t>21.06.202522</t>
+  </si>
+  <si>
+    <t>21.06.202523</t>
+  </si>
+  <si>
+    <t>22.06.20251</t>
+  </si>
+  <si>
+    <t>22.06.20252</t>
+  </si>
+  <si>
+    <t>22.06.20253</t>
+  </si>
+  <si>
+    <t>22.06.20254</t>
+  </si>
+  <si>
+    <t>22.06.20255</t>
+  </si>
+  <si>
+    <t>22.06.20256</t>
+  </si>
+  <si>
+    <t>22.06.20257</t>
+  </si>
+  <si>
+    <t>22.06.20258</t>
+  </si>
+  <si>
+    <t>22.06.20259</t>
+  </si>
+  <si>
+    <t>22.06.202510</t>
+  </si>
+  <si>
+    <t>22.06.202511</t>
+  </si>
+  <si>
+    <t>22.06.202512</t>
+  </si>
+  <si>
+    <t>22.06.202513</t>
+  </si>
+  <si>
+    <t>22.06.202514</t>
+  </si>
+  <si>
+    <t>22.06.202515</t>
+  </si>
+  <si>
+    <t>22.06.202516</t>
+  </si>
+  <si>
+    <t>22.06.202517</t>
+  </si>
+  <si>
+    <t>22.06.202518</t>
+  </si>
+  <si>
+    <t>22.06.202519</t>
+  </si>
+  <si>
+    <t>22.06.202520</t>
+  </si>
+  <si>
+    <t>22.06.202521</t>
+  </si>
+  <si>
+    <t>22.06.202522</t>
+  </si>
+  <si>
+    <t>22.06.202523</t>
+  </si>
+  <si>
+    <t>23.06.20251</t>
+  </si>
+  <si>
+    <t>23.06.20252</t>
+  </si>
+  <si>
+    <t>23.06.20253</t>
+  </si>
+  <si>
+    <t>23.06.20254</t>
+  </si>
+  <si>
+    <t>23.06.20255</t>
+  </si>
+  <si>
+    <t>23.06.20256</t>
+  </si>
+  <si>
+    <t>23.06.20257</t>
+  </si>
+  <si>
+    <t>23.06.20258</t>
+  </si>
+  <si>
+    <t>23.06.20259</t>
+  </si>
+  <si>
+    <t>23.06.202510</t>
+  </si>
+  <si>
+    <t>23.06.202511</t>
+  </si>
+  <si>
+    <t>23.06.202512</t>
+  </si>
+  <si>
+    <t>23.06.202513</t>
+  </si>
+  <si>
+    <t>23.06.202514</t>
+  </si>
+  <si>
+    <t>23.06.202515</t>
+  </si>
+  <si>
+    <t>23.06.202516</t>
+  </si>
+  <si>
+    <t>23.06.202517</t>
+  </si>
+  <si>
+    <t>23.06.202518</t>
+  </si>
+  <si>
+    <t>23.06.202519</t>
+  </si>
+  <si>
+    <t>23.06.202520</t>
+  </si>
+  <si>
+    <t>23.06.202521</t>
+  </si>
+  <si>
+    <t>23.06.202522</t>
+  </si>
+  <si>
+    <t>23.06.202523</t>
+  </si>
+  <si>
+    <t>24.06.20251</t>
+  </si>
+  <si>
+    <t>24.06.20252</t>
+  </si>
+  <si>
+    <t>24.06.20253</t>
+  </si>
+  <si>
+    <t>24.06.20254</t>
+  </si>
+  <si>
+    <t>24.06.20255</t>
+  </si>
+  <si>
+    <t>24.06.20256</t>
+  </si>
+  <si>
+    <t>24.06.20257</t>
+  </si>
+  <si>
+    <t>24.06.20258</t>
+  </si>
+  <si>
+    <t>24.06.20259</t>
+  </si>
+  <si>
+    <t>24.06.202510</t>
+  </si>
+  <si>
+    <t>24.06.202511</t>
+  </si>
+  <si>
+    <t>24.06.202512</t>
+  </si>
+  <si>
+    <t>24.06.202513</t>
+  </si>
+  <si>
+    <t>24.06.202514</t>
+  </si>
+  <si>
+    <t>24.06.202515</t>
+  </si>
+  <si>
+    <t>24.06.202516</t>
+  </si>
+  <si>
+    <t>24.06.202517</t>
+  </si>
+  <si>
+    <t>24.06.202518</t>
+  </si>
+  <si>
+    <t>24.06.202519</t>
+  </si>
+  <si>
+    <t>24.06.202520</t>
+  </si>
+  <si>
+    <t>24.06.202521</t>
+  </si>
+  <si>
+    <t>24.06.202522</t>
+  </si>
+  <si>
+    <t>24.06.202523</t>
+  </si>
+  <si>
+    <t>25.06.20251</t>
+  </si>
+  <si>
+    <t>25.06.20252</t>
+  </si>
+  <si>
+    <t>25.06.20253</t>
+  </si>
+  <si>
+    <t>25.06.20254</t>
+  </si>
+  <si>
+    <t>25.06.20255</t>
+  </si>
+  <si>
+    <t>25.06.20256</t>
+  </si>
+  <si>
+    <t>25.06.20257</t>
+  </si>
+  <si>
+    <t>25.06.20258</t>
+  </si>
+  <si>
+    <t>25.06.20259</t>
+  </si>
+  <si>
+    <t>25.06.202510</t>
+  </si>
+  <si>
+    <t>25.06.202511</t>
+  </si>
+  <si>
+    <t>25.06.202512</t>
+  </si>
+  <si>
+    <t>25.06.202513</t>
+  </si>
+  <si>
+    <t>25.06.202514</t>
+  </si>
+  <si>
+    <t>25.06.202515</t>
+  </si>
+  <si>
+    <t>25.06.202516</t>
+  </si>
+  <si>
+    <t>25.06.202517</t>
+  </si>
+  <si>
+    <t>25.06.202518</t>
+  </si>
+  <si>
+    <t>25.06.202519</t>
+  </si>
+  <si>
+    <t>25.06.202520</t>
+  </si>
+  <si>
+    <t>25.06.202521</t>
+  </si>
+  <si>
+    <t>25.06.202522</t>
+  </si>
+  <si>
+    <t>25.06.202523</t>
+  </si>
+  <si>
+    <t>26.06.20251</t>
+  </si>
+  <si>
+    <t>26.06.20252</t>
+  </si>
+  <si>
+    <t>26.06.20253</t>
+  </si>
+  <si>
+    <t>26.06.20254</t>
+  </si>
+  <si>
+    <t>26.06.20255</t>
+  </si>
+  <si>
+    <t>26.06.20256</t>
+  </si>
+  <si>
+    <t>26.06.20257</t>
+  </si>
+  <si>
+    <t>26.06.20258</t>
+  </si>
+  <si>
+    <t>26.06.20259</t>
+  </si>
+  <si>
+    <t>26.06.202510</t>
+  </si>
+  <si>
+    <t>26.06.202511</t>
+  </si>
+  <si>
+    <t>26.06.202512</t>
+  </si>
+  <si>
+    <t>26.06.202513</t>
+  </si>
+  <si>
+    <t>26.06.202514</t>
+  </si>
+  <si>
+    <t>26.06.202515</t>
+  </si>
+  <si>
+    <t>26.06.202516</t>
+  </si>
+  <si>
+    <t>26.06.202517</t>
+  </si>
+  <si>
+    <t>26.06.202518</t>
+  </si>
+  <si>
+    <t>26.06.202519</t>
+  </si>
+  <si>
+    <t>26.06.202520</t>
+  </si>
+  <si>
+    <t>26.06.202521</t>
+  </si>
+  <si>
+    <t>26.06.202522</t>
+  </si>
+  <si>
+    <t>26.06.202523</t>
+  </si>
+  <si>
+    <t>27.06.20251</t>
+  </si>
+  <si>
+    <t>27.06.20252</t>
+  </si>
+  <si>
+    <t>27.06.20253</t>
+  </si>
+  <si>
+    <t>27.06.20254</t>
+  </si>
+  <si>
+    <t>27.06.20255</t>
+  </si>
+  <si>
+    <t>27.06.20256</t>
+  </si>
+  <si>
+    <t>27.06.20257</t>
+  </si>
+  <si>
+    <t>27.06.20258</t>
+  </si>
+  <si>
+    <t>27.06.20259</t>
+  </si>
+  <si>
+    <t>27.06.202510</t>
   </si>
 </sst>
 </file>
@@ -910,10 +910,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>131</v>
+        <v>918</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>212</v>
+        <v>893</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0.444</v>
+        <v>3.213</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>926</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.675</v>
+        <v>3.143</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>337</v>
+        <v>855</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.988</v>
+        <v>3.188</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>361</v>
+        <v>735</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.218</v>
+        <v>3.015</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>371</v>
+        <v>579</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.259</v>
+        <v>2.688</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1088,22 +1088,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1.32</v>
+        <v>1.876</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1.401</v>
+        <v>0.964</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1134,22 +1134,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>417</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
       <c r="E12">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1.732</v>
+        <v>0.378</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1157,22 +1157,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>321</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.645</v>
+        <v>0.076</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1180,22 +1180,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.224</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1203,22 +1203,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45786</v>
+        <v>45828</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.624</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1226,128 +1226,128 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45786</v>
+        <v>45829</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>0.202</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45786</v>
+        <v>45829</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45786</v>
+        <v>45829</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45786</v>
+        <v>45829</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -1381,22 +1381,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.627</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.422</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>739</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.121</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>205</v>
+        <v>851</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.062</v>
+        <v>2.762</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>388</v>
+        <v>920</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.445</v>
+        <v>3.069</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>564</v>
+        <v>936</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.407</v>
+        <v>3.36</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>717</v>
+        <v>904</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2.173</v>
+        <v>3.37</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>2.839</v>
+        <v>3.074</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>902</v>
+        <v>697</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>3.154</v>
+        <v>2.731</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>918</v>
+        <v>551</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>3.27</v>
+        <v>2.283</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1634,22 +1634,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>859</v>
+        <v>392</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>3.342</v>
+        <v>1.546</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1657,22 +1657,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>708</v>
+        <v>226</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>3.042</v>
+        <v>0.849</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1680,22 +1680,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>2.379</v>
+        <v>0.363</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1703,22 +1703,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>408</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>14</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.953</v>
+        <v>0.074</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -1726,22 +1726,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.367</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -1749,22 +1749,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45787</v>
+        <v>45829</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6870000000000001</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
@@ -1772,102 +1772,96 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45787</v>
+        <v>45830</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <v>0.227</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45787</v>
+        <v>45830</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45787</v>
+        <v>45830</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45787</v>
+        <v>45830</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1876,24 +1870,30 @@
         <v>9</v>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>9</v>
       </c>
       <c r="E45">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1904,22 +1904,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.581</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>742</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.071</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>65</v>
+        <v>853</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.04</v>
+        <v>2.76</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>95</v>
+        <v>920</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.207</v>
+        <v>3.048</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>163</v>
+        <v>938</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E53">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.353</v>
+        <v>3.362</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>262</v>
+        <v>907</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.552</v>
+        <v>3.361</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>335</v>
+        <v>830</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.821</v>
+        <v>3.145</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>398</v>
+        <v>712</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.188</v>
+        <v>2.913</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>404</v>
+        <v>563</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E57">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.386</v>
+        <v>2.42</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.448</v>
+        <v>1.735</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2203,22 +2203,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.351</v>
+        <v>0.905</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2226,22 +2226,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E60">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.222</v>
+        <v>0.272</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2249,22 +2249,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
         <v>17</v>
       </c>
-      <c r="C61">
-        <v>245</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
       <c r="E61">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.181</v>
+        <v>0.06</v>
       </c>
       <c r="G61" t="s">
         <v>63</v>
@@ -2272,22 +2272,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.881</v>
+        <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>64</v>
@@ -2295,22 +2295,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45788</v>
+        <v>45830</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>65</v>
@@ -2318,128 +2318,128 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45788</v>
+        <v>45831</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>25</v>
-      </c>
-      <c r="F64">
-        <v>0.22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45788</v>
+        <v>45831</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45788</v>
+        <v>45831</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45788</v>
+        <v>45831</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2450,19 +2450,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1.255</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>48</v>
+        <v>727</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2.006</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>204</v>
+        <v>840</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.07000000000000001</v>
+        <v>2.656</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>391</v>
+        <v>908</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.455</v>
+        <v>2.957</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>565</v>
+        <v>930</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.409</v>
+        <v>3.177</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>721</v>
+        <v>903</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>2.169</v>
+        <v>3.183</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2.84</v>
+        <v>3.068</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>908</v>
+        <v>710</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>3.223</v>
+        <v>2.848</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>925</v>
+        <v>557</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>3.356</v>
+        <v>2.354</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B82">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>889</v>
+        <v>390</v>
       </c>
       <c r="D82">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>3.367</v>
+        <v>1.57</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2749,22 +2749,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>804</v>
+        <v>223</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83">
-        <v>3.285</v>
+        <v>0.822</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2772,22 +2772,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B84">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>674</v>
+        <v>77</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84">
-        <v>2.966</v>
+        <v>0.327</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2795,22 +2795,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B85">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>2.266</v>
+        <v>0.062</v>
       </c>
       <c r="G85" t="s">
         <v>86</v>
@@ -2818,22 +2818,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.738</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>87</v>
@@ -2841,22 +2841,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="B87">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.851</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
         <v>88</v>
@@ -2864,128 +2864,128 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45789</v>
+        <v>45832</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>13</v>
-      </c>
-      <c r="F88">
-        <v>0.235</v>
-      </c>
-      <c r="G88" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45789</v>
+        <v>45832</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45789</v>
+        <v>45832</v>
       </c>
       <c r="B90">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E90">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45789</v>
+        <v>45832</v>
       </c>
       <c r="B91">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2996,19 +2996,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3019,22 +3019,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E95">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="G95" t="s">
         <v>95</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E96">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.479</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1.058</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>46</v>
+        <v>598</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1.685</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>191</v>
+        <v>684</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F99">
-        <v>0.08799999999999999</v>
+        <v>2.073</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>375</v>
+        <v>746</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F100">
-        <v>0.484</v>
+        <v>2.373</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B101">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>525</v>
+        <v>801</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F101">
-        <v>1.395</v>
+        <v>2.669</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>664</v>
+        <v>821</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F102">
-        <v>2.107</v>
+        <v>2.738</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B103">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>2.448</v>
+        <v>2.789</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B104">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>844</v>
+        <v>667</v>
       </c>
       <c r="D104">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>2.984</v>
+        <v>2.545</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B105">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>806</v>
+        <v>537</v>
       </c>
       <c r="D105">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F105">
-        <v>3.116</v>
+        <v>2.061</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3272,22 +3272,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B106">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>756</v>
+        <v>378</v>
       </c>
       <c r="D106">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>2.812</v>
+        <v>1.448</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3295,22 +3295,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B107">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>681</v>
+        <v>209</v>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>2.704</v>
+        <v>0.827</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3318,22 +3318,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="D108">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E108">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>2.372</v>
+        <v>0.303</v>
       </c>
       <c r="G108" t="s">
         <v>108</v>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B109">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>0.059</v>
       </c>
       <c r="G109" t="s">
         <v>109</v>
@@ -3364,22 +3364,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B110">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
         <v>18</v>
       </c>
-      <c r="C110">
-        <v>300</v>
-      </c>
-      <c r="D110">
-        <v>12</v>
-      </c>
       <c r="E110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F110">
-        <v>1.433</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>110</v>
@@ -3387,22 +3387,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45790</v>
+        <v>45832</v>
       </c>
       <c r="B111">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F111">
-        <v>0.873</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>111</v>
@@ -3410,128 +3410,128 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45790</v>
+        <v>45833</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
         <v>17</v>
       </c>
-      <c r="D112">
-        <v>8</v>
-      </c>
       <c r="E112">
-        <v>13</v>
-      </c>
-      <c r="F112">
-        <v>0.213</v>
-      </c>
-      <c r="G112" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45790</v>
+        <v>45833</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45790</v>
+        <v>45833</v>
       </c>
       <c r="B114">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45790</v>
+        <v>45833</v>
       </c>
       <c r="B115">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>18</v>
+      </c>
+      <c r="E117">
         <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>4</v>
-      </c>
-      <c r="E117">
-        <v>10</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3542,19 +3542,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>82</v>
+      </c>
+      <c r="D118">
+        <v>19</v>
+      </c>
+      <c r="E118">
         <v>2</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>4</v>
-      </c>
-      <c r="E118">
-        <v>10</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="G119" t="s">
         <v>118</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.468</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1.058</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B122">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>37</v>
+        <v>707</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1.876</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>156</v>
+        <v>817</v>
       </c>
       <c r="D123">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.048</v>
+        <v>2.443</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>322</v>
+        <v>886</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0.375</v>
+        <v>2.856</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>496</v>
+        <v>910</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.163</v>
+        <v>3.105</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>648</v>
+        <v>886</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>2.046</v>
+        <v>3.129</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>2.569</v>
+        <v>3.029</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>824</v>
+        <v>701</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>3.084</v>
+        <v>2.766</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B129">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>839</v>
+        <v>555</v>
       </c>
       <c r="D129">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>3.248</v>
+        <v>2.256</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>822</v>
+        <v>390</v>
       </c>
       <c r="D130">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>3.143</v>
+        <v>1.643</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B131">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>722</v>
+        <v>222</v>
       </c>
       <c r="D131">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>3.18</v>
+        <v>0.842</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3864,22 +3864,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>560</v>
+        <v>75</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E132">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>2.606</v>
+        <v>0.232</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B133">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>404</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>2.061</v>
+        <v>0.062</v>
       </c>
       <c r="G133" t="s">
         <v>132</v>
@@ -3910,22 +3910,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B134">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.398</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
         <v>133</v>
@@ -3933,22 +3933,22 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45791</v>
+        <v>45833</v>
       </c>
       <c r="B135">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E135">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.579</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
         <v>134</v>
@@ -3956,128 +3956,128 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45791</v>
+        <v>45834</v>
       </c>
       <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
         <v>20</v>
       </c>
-      <c r="C136">
-        <v>15</v>
-      </c>
-      <c r="D136">
-        <v>9</v>
-      </c>
       <c r="E136">
-        <v>12</v>
-      </c>
-      <c r="F136">
-        <v>0.173</v>
-      </c>
-      <c r="G136" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45791</v>
+        <v>45834</v>
       </c>
       <c r="B137">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E137">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45791</v>
+        <v>45834</v>
       </c>
       <c r="B138">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E138">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45791</v>
+        <v>45834</v>
       </c>
       <c r="B139">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E139">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E140">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4088,19 +4088,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4111,22 +4111,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E143">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="G143" t="s">
         <v>141</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E144">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E145">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1.049</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>28</v>
+        <v>694</v>
       </c>
       <c r="D146">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B147">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>116</v>
+        <v>808</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E147">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.049</v>
+        <v>2.445</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>238</v>
+        <v>882</v>
       </c>
       <c r="D148">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.34</v>
+        <v>2.859</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>357</v>
+        <v>904</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.752</v>
+        <v>3.088</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B150">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>470</v>
+        <v>877</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E150">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.344</v>
+        <v>3.111</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B151">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>567</v>
+        <v>807</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E151">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.814</v>
+        <v>3.022</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B152">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>629</v>
+        <v>694</v>
       </c>
       <c r="D152">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E152">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>2.032</v>
+        <v>2.761</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B153">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>633</v>
+        <v>548</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E153">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>2.198</v>
+        <v>2.271</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4364,22 +4364,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B154">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>593</v>
+        <v>383</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>2.246</v>
+        <v>1.566</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B155">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>529</v>
+        <v>217</v>
       </c>
       <c r="D155">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>2.084</v>
+        <v>0.847</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4410,22 +4410,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B156">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E156">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.877</v>
+        <v>0.23</v>
       </c>
       <c r="G156" t="s">
         <v>154</v>
@@ -4433,22 +4433,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B157">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E157">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.585</v>
+        <v>0.057</v>
       </c>
       <c r="G157" t="s">
         <v>155</v>
@@ -4456,22 +4456,22 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B158">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E158">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.139</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
         <v>156</v>
@@ -4479,22 +4479,22 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="B159">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E159">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.532</v>
+        <v>0</v>
       </c>
       <c r="G159" t="s">
         <v>157</v>
@@ -4502,128 +4502,128 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45792</v>
+        <v>45835</v>
       </c>
       <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
         <v>20</v>
       </c>
-      <c r="C160">
-        <v>15</v>
-      </c>
-      <c r="D160">
-        <v>9</v>
-      </c>
       <c r="E160">
-        <v>28</v>
-      </c>
-      <c r="F160">
-        <v>0.197</v>
-      </c>
-      <c r="G160" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45792</v>
+        <v>45835</v>
       </c>
       <c r="B161">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E161">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45792</v>
+        <v>45835</v>
       </c>
       <c r="B162">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E162">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45792</v>
+        <v>45835</v>
       </c>
       <c r="B163">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E163">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D165">
+        <v>17</v>
+      </c>
+      <c r="E165">
         <v>7</v>
-      </c>
-      <c r="E165">
-        <v>29</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4634,19 +4634,19 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E166">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E167">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="G167" t="s">
         <v>164</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E168">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>0.468</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E169">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45793</v>
+        <v>45835</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>32</v>
+        <v>625</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -956,13 +956,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="D4">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>3.213</v>
+        <v>3.21</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1002,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>3.143</v>
+        <v>2.976</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -1140,13 +1140,13 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0.378</v>
@@ -1502,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D28">
         <v>18</v>
@@ -1525,13 +1525,13 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D29">
         <v>19</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>3.36</v>
@@ -1548,16 +1548,16 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>3.37</v>
+        <v>3.227</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1580,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>3.074</v>
+        <v>3.001</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1594,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D32">
         <v>21</v>
@@ -1617,16 +1617,16 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D33">
         <v>20</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>2.283</v>
+        <v>2.268</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1640,16 +1640,16 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>1.546</v>
+        <v>1.542</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1663,16 +1663,16 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D35">
         <v>19</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>0.849</v>
+        <v>0.846</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1686,16 +1686,16 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>0.363</v>
+        <v>0.323</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1715,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0.074</v>
+        <v>0.063</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -1738,7 +1738,7 @@
         <v>13</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1801,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>18</v>
       </c>
       <c r="C82">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D82">
         <v>27</v>
@@ -2755,16 +2755,16 @@
         <v>19</v>
       </c>
       <c r="C83">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D83">
         <v>26</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>0.822</v>
+        <v>0.826</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2784,10 +2784,10 @@
         <v>23</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>0.327</v>
+        <v>0.286</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -3002,13 +3002,13 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D94">
         <v>16</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3025,16 +3025,16 @@
         <v>7</v>
       </c>
       <c r="C95">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D95">
         <v>18</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>0.096</v>
+        <v>0.101</v>
       </c>
       <c r="G95" t="s">
         <v>95</v>
@@ -3048,16 +3048,16 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D96">
         <v>19</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96">
-        <v>0.479</v>
+        <v>0.468</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3071,16 +3071,16 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D97">
         <v>21</v>
       </c>
       <c r="E97">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F97">
-        <v>1.058</v>
+        <v>1.071</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3094,16 +3094,16 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="D98">
         <v>24</v>
       </c>
       <c r="E98">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F98">
-        <v>1.685</v>
+        <v>1.64</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3117,16 +3117,16 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="D99">
         <v>25</v>
       </c>
       <c r="E99">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F99">
-        <v>2.073</v>
+        <v>1.906</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3140,16 +3140,16 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>746</v>
+        <v>688</v>
       </c>
       <c r="D100">
         <v>26</v>
       </c>
       <c r="E100">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>2.373</v>
+        <v>2.214</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3163,16 +3163,16 @@
         <v>13</v>
       </c>
       <c r="C101">
-        <v>801</v>
+        <v>733</v>
       </c>
       <c r="D101">
         <v>27</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F101">
-        <v>2.669</v>
+        <v>2.4</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3186,16 +3186,16 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>821</v>
+        <v>759</v>
       </c>
       <c r="D102">
         <v>27</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F102">
-        <v>2.738</v>
+        <v>2.485</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3209,16 +3209,16 @@
         <v>15</v>
       </c>
       <c r="C103">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="D103">
         <v>28</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F103">
-        <v>2.789</v>
+        <v>2.647</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3232,16 +3232,16 @@
         <v>16</v>
       </c>
       <c r="C104">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="D104">
         <v>27</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F104">
-        <v>2.545</v>
+        <v>2.464</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3255,13 +3255,13 @@
         <v>17</v>
       </c>
       <c r="C105">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D105">
         <v>27</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F105">
         <v>2.061</v>
@@ -3278,16 +3278,16 @@
         <v>18</v>
       </c>
       <c r="C106">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D106">
         <v>26</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>1.448</v>
+        <v>1.418</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3301,7 +3301,7 @@
         <v>19</v>
       </c>
       <c r="C107">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D107">
         <v>24</v>
@@ -3310,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="F107">
-        <v>0.827</v>
+        <v>0.84</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3330,10 +3330,10 @@
         <v>22</v>
       </c>
       <c r="E108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108">
-        <v>0.303</v>
+        <v>0.311</v>
       </c>
       <c r="G108" t="s">
         <v>108</v>
@@ -3353,10 +3353,10 @@
         <v>19</v>
       </c>
       <c r="E109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F109">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="G109" t="s">
         <v>109</v>
@@ -3376,7 +3376,7 @@
         <v>18</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>17</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>17</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3439,7 +3439,7 @@
         <v>16</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>6</v>
       </c>
       <c r="C118">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D118">
         <v>19</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3571,16 +3571,16 @@
         <v>7</v>
       </c>
       <c r="C119">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D119">
         <v>20</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.113</v>
+        <v>0.109</v>
       </c>
       <c r="G119" t="s">
         <v>118</v>
@@ -3594,16 +3594,16 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D120">
         <v>22</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.468</v>
+        <v>0.442</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3617,16 +3617,16 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D121">
         <v>24</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.058</v>
+        <v>1.134</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3640,16 +3640,16 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D122">
         <v>25</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.876</v>
+        <v>1.836</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3663,7 +3663,7 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D123">
         <v>27</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.443</v>
+        <v>2.394</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3686,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D124">
         <v>28</v>
@@ -3709,16 +3709,16 @@
         <v>13</v>
       </c>
       <c r="C125">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="D125">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>3.105</v>
+        <v>3.085</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3732,16 +3732,16 @@
         <v>14</v>
       </c>
       <c r="C126">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="D126">
         <v>30</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>3.129</v>
+        <v>2.945</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3755,16 +3755,16 @@
         <v>15</v>
       </c>
       <c r="C127">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D127">
         <v>30</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>3.029</v>
+        <v>2.859</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3778,7 +3778,7 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D128">
         <v>30</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2.766</v>
+        <v>2.586</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>2.256</v>
+        <v>2.263</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -4232,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="C148">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D148">
         <v>28</v>
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="C149">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="D149">
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149">
         <v>3.088</v>
@@ -4278,16 +4278,16 @@
         <v>14</v>
       </c>
       <c r="C150">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="D150">
         <v>29</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F150">
-        <v>3.111</v>
+        <v>2.914</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4301,16 +4301,16 @@
         <v>15</v>
       </c>
       <c r="C151">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="D151">
         <v>30</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F151">
-        <v>3.022</v>
+        <v>2.722</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4324,16 +4324,16 @@
         <v>16</v>
       </c>
       <c r="C152">
-        <v>694</v>
+        <v>648</v>
       </c>
       <c r="D152">
         <v>30</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F152">
-        <v>2.761</v>
+        <v>2.501</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4347,16 +4347,16 @@
         <v>17</v>
       </c>
       <c r="C153">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="D153">
         <v>30</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F153">
-        <v>2.271</v>
+        <v>2.025</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4370,16 +4370,16 @@
         <v>18</v>
       </c>
       <c r="C154">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D154">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F154">
-        <v>1.566</v>
+        <v>1.311</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4393,16 +4393,16 @@
         <v>19</v>
       </c>
       <c r="C155">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D155">
         <v>26</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F155">
-        <v>0.847</v>
+        <v>0.84</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4416,16 +4416,16 @@
         <v>20</v>
       </c>
       <c r="C156">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D156">
         <v>24</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>0.23</v>
+        <v>0.262</v>
       </c>
       <c r="G156" t="s">
         <v>154</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="G157" t="s">
         <v>155</v>
@@ -4491,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4531,7 +4531,7 @@
         <v>19</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>19</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4617,13 +4617,13 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165">
         <v>17</v>
       </c>
       <c r="E165">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4640,13 +4640,13 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D166">
         <v>18</v>
       </c>
       <c r="E166">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>7</v>
       </c>
       <c r="C167">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D167">
         <v>20</v>
       </c>
       <c r="E167">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F167">
-        <v>0.109</v>
+        <v>0.152</v>
       </c>
       <c r="G167" t="s">
         <v>164</v>
@@ -4686,16 +4686,16 @@
         <v>8</v>
       </c>
       <c r="C168">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D168">
         <v>22</v>
       </c>
       <c r="E168">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F168">
-        <v>0.468</v>
+        <v>0.461</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4709,16 +4709,16 @@
         <v>9</v>
       </c>
       <c r="C169">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="D169">
         <v>25</v>
       </c>
       <c r="E169">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F169">
-        <v>0.99</v>
+        <v>0.917</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4732,16 +4732,16 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="D170">
         <v>27</v>
       </c>
       <c r="E170">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F170">
-        <v>1.67</v>
+        <v>1.617</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Data</t>
   </si>
@@ -37,487 +37,484 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.06.202511</t>
-  </si>
-  <si>
-    <t>20.06.202512</t>
-  </si>
-  <si>
-    <t>20.06.202513</t>
-  </si>
-  <si>
-    <t>20.06.202514</t>
-  </si>
-  <si>
-    <t>20.06.202515</t>
-  </si>
-  <si>
-    <t>20.06.202516</t>
-  </si>
-  <si>
-    <t>20.06.202517</t>
-  </si>
-  <si>
-    <t>20.06.202518</t>
-  </si>
-  <si>
-    <t>20.06.202519</t>
-  </si>
-  <si>
-    <t>20.06.202520</t>
-  </si>
-  <si>
-    <t>20.06.202521</t>
-  </si>
-  <si>
-    <t>20.06.202522</t>
-  </si>
-  <si>
-    <t>20.06.202523</t>
-  </si>
-  <si>
-    <t>21.06.20251</t>
-  </si>
-  <si>
-    <t>21.06.20252</t>
-  </si>
-  <si>
-    <t>21.06.20253</t>
-  </si>
-  <si>
-    <t>21.06.20254</t>
-  </si>
-  <si>
-    <t>21.06.20255</t>
-  </si>
-  <si>
-    <t>21.06.20256</t>
-  </si>
-  <si>
-    <t>21.06.20257</t>
-  </si>
-  <si>
-    <t>21.06.20258</t>
-  </si>
-  <si>
-    <t>21.06.20259</t>
-  </si>
-  <si>
-    <t>21.06.202510</t>
-  </si>
-  <si>
-    <t>21.06.202511</t>
-  </si>
-  <si>
-    <t>21.06.202512</t>
-  </si>
-  <si>
-    <t>21.06.202513</t>
-  </si>
-  <si>
-    <t>21.06.202514</t>
-  </si>
-  <si>
-    <t>21.06.202515</t>
-  </si>
-  <si>
-    <t>21.06.202516</t>
-  </si>
-  <si>
-    <t>21.06.202517</t>
-  </si>
-  <si>
-    <t>21.06.202518</t>
-  </si>
-  <si>
-    <t>21.06.202519</t>
-  </si>
-  <si>
-    <t>21.06.202520</t>
-  </si>
-  <si>
-    <t>21.06.202521</t>
-  </si>
-  <si>
-    <t>21.06.202522</t>
-  </si>
-  <si>
-    <t>21.06.202523</t>
-  </si>
-  <si>
-    <t>22.06.20251</t>
-  </si>
-  <si>
-    <t>22.06.20252</t>
-  </si>
-  <si>
-    <t>22.06.20253</t>
-  </si>
-  <si>
-    <t>22.06.20254</t>
-  </si>
-  <si>
-    <t>22.06.20255</t>
-  </si>
-  <si>
-    <t>22.06.20256</t>
-  </si>
-  <si>
-    <t>22.06.20257</t>
-  </si>
-  <si>
-    <t>22.06.20258</t>
-  </si>
-  <si>
-    <t>22.06.20259</t>
-  </si>
-  <si>
-    <t>22.06.202510</t>
-  </si>
-  <si>
-    <t>22.06.202511</t>
-  </si>
-  <si>
-    <t>22.06.202512</t>
-  </si>
-  <si>
-    <t>22.06.202513</t>
-  </si>
-  <si>
-    <t>22.06.202514</t>
-  </si>
-  <si>
-    <t>22.06.202515</t>
-  </si>
-  <si>
-    <t>22.06.202516</t>
-  </si>
-  <si>
-    <t>22.06.202517</t>
-  </si>
-  <si>
-    <t>22.06.202518</t>
-  </si>
-  <si>
-    <t>22.06.202519</t>
-  </si>
-  <si>
-    <t>22.06.202520</t>
-  </si>
-  <si>
-    <t>22.06.202521</t>
-  </si>
-  <si>
-    <t>22.06.202522</t>
-  </si>
-  <si>
-    <t>22.06.202523</t>
-  </si>
-  <si>
-    <t>23.06.20251</t>
-  </si>
-  <si>
-    <t>23.06.20252</t>
-  </si>
-  <si>
-    <t>23.06.20253</t>
-  </si>
-  <si>
-    <t>23.06.20254</t>
-  </si>
-  <si>
-    <t>23.06.20255</t>
-  </si>
-  <si>
-    <t>23.06.20256</t>
-  </si>
-  <si>
-    <t>23.06.20257</t>
-  </si>
-  <si>
-    <t>23.06.20258</t>
-  </si>
-  <si>
-    <t>23.06.20259</t>
-  </si>
-  <si>
-    <t>23.06.202510</t>
-  </si>
-  <si>
-    <t>23.06.202511</t>
-  </si>
-  <si>
-    <t>23.06.202512</t>
-  </si>
-  <si>
-    <t>23.06.202513</t>
-  </si>
-  <si>
-    <t>23.06.202514</t>
-  </si>
-  <si>
-    <t>23.06.202515</t>
-  </si>
-  <si>
-    <t>23.06.202516</t>
-  </si>
-  <si>
-    <t>23.06.202517</t>
-  </si>
-  <si>
-    <t>23.06.202518</t>
-  </si>
-  <si>
-    <t>23.06.202519</t>
-  </si>
-  <si>
-    <t>23.06.202520</t>
-  </si>
-  <si>
-    <t>23.06.202521</t>
-  </si>
-  <si>
-    <t>23.06.202522</t>
-  </si>
-  <si>
-    <t>23.06.202523</t>
-  </si>
-  <si>
-    <t>24.06.20251</t>
-  </si>
-  <si>
-    <t>24.06.20252</t>
-  </si>
-  <si>
-    <t>24.06.20253</t>
-  </si>
-  <si>
-    <t>24.06.20254</t>
-  </si>
-  <si>
-    <t>24.06.20255</t>
-  </si>
-  <si>
-    <t>24.06.20256</t>
-  </si>
-  <si>
-    <t>24.06.20257</t>
-  </si>
-  <si>
-    <t>24.06.20258</t>
-  </si>
-  <si>
-    <t>24.06.20259</t>
-  </si>
-  <si>
-    <t>24.06.202510</t>
-  </si>
-  <si>
-    <t>24.06.202511</t>
-  </si>
-  <si>
-    <t>24.06.202512</t>
-  </si>
-  <si>
-    <t>24.06.202513</t>
-  </si>
-  <si>
-    <t>24.06.202514</t>
-  </si>
-  <si>
-    <t>24.06.202515</t>
-  </si>
-  <si>
-    <t>24.06.202516</t>
-  </si>
-  <si>
-    <t>24.06.202517</t>
-  </si>
-  <si>
-    <t>24.06.202518</t>
-  </si>
-  <si>
-    <t>24.06.202519</t>
-  </si>
-  <si>
-    <t>24.06.202520</t>
-  </si>
-  <si>
-    <t>24.06.202521</t>
-  </si>
-  <si>
-    <t>24.06.202522</t>
-  </si>
-  <si>
-    <t>24.06.202523</t>
-  </si>
-  <si>
-    <t>25.06.20251</t>
-  </si>
-  <si>
-    <t>25.06.20252</t>
-  </si>
-  <si>
-    <t>25.06.20253</t>
-  </si>
-  <si>
-    <t>25.06.20254</t>
-  </si>
-  <si>
-    <t>25.06.20255</t>
-  </si>
-  <si>
-    <t>25.06.20256</t>
-  </si>
-  <si>
-    <t>25.06.20257</t>
-  </si>
-  <si>
-    <t>25.06.20258</t>
-  </si>
-  <si>
-    <t>25.06.20259</t>
-  </si>
-  <si>
-    <t>25.06.202510</t>
-  </si>
-  <si>
-    <t>25.06.202511</t>
-  </si>
-  <si>
-    <t>25.06.202512</t>
-  </si>
-  <si>
-    <t>25.06.202513</t>
-  </si>
-  <si>
-    <t>25.06.202514</t>
-  </si>
-  <si>
-    <t>25.06.202515</t>
-  </si>
-  <si>
-    <t>25.06.202516</t>
-  </si>
-  <si>
-    <t>25.06.202517</t>
-  </si>
-  <si>
-    <t>25.06.202518</t>
-  </si>
-  <si>
-    <t>25.06.202519</t>
-  </si>
-  <si>
-    <t>25.06.202520</t>
-  </si>
-  <si>
-    <t>25.06.202521</t>
-  </si>
-  <si>
-    <t>25.06.202522</t>
-  </si>
-  <si>
-    <t>25.06.202523</t>
-  </si>
-  <si>
-    <t>26.06.20251</t>
-  </si>
-  <si>
-    <t>26.06.20252</t>
-  </si>
-  <si>
-    <t>26.06.20253</t>
-  </si>
-  <si>
-    <t>26.06.20254</t>
-  </si>
-  <si>
-    <t>26.06.20255</t>
-  </si>
-  <si>
-    <t>26.06.20256</t>
-  </si>
-  <si>
-    <t>26.06.20257</t>
-  </si>
-  <si>
-    <t>26.06.20258</t>
-  </si>
-  <si>
-    <t>26.06.20259</t>
-  </si>
-  <si>
-    <t>26.06.202510</t>
-  </si>
-  <si>
-    <t>26.06.202511</t>
-  </si>
-  <si>
-    <t>26.06.202512</t>
-  </si>
-  <si>
-    <t>26.06.202513</t>
-  </si>
-  <si>
-    <t>26.06.202514</t>
-  </si>
-  <si>
-    <t>26.06.202515</t>
-  </si>
-  <si>
-    <t>26.06.202516</t>
-  </si>
-  <si>
-    <t>26.06.202517</t>
-  </si>
-  <si>
-    <t>26.06.202518</t>
-  </si>
-  <si>
-    <t>26.06.202519</t>
-  </si>
-  <si>
-    <t>26.06.202520</t>
-  </si>
-  <si>
-    <t>26.06.202521</t>
-  </si>
-  <si>
-    <t>26.06.202522</t>
-  </si>
-  <si>
-    <t>26.06.202523</t>
-  </si>
-  <si>
-    <t>27.06.20251</t>
-  </si>
-  <si>
-    <t>27.06.20252</t>
-  </si>
-  <si>
-    <t>27.06.20253</t>
-  </si>
-  <si>
-    <t>27.06.20254</t>
-  </si>
-  <si>
-    <t>27.06.20255</t>
-  </si>
-  <si>
-    <t>27.06.20256</t>
-  </si>
-  <si>
-    <t>27.06.20257</t>
-  </si>
-  <si>
-    <t>27.06.20258</t>
-  </si>
-  <si>
-    <t>27.06.20259</t>
-  </si>
-  <si>
-    <t>27.06.202510</t>
+    <t>25.10.202512</t>
+  </si>
+  <si>
+    <t>25.10.202513</t>
+  </si>
+  <si>
+    <t>25.10.202514</t>
+  </si>
+  <si>
+    <t>25.10.202515</t>
+  </si>
+  <si>
+    <t>25.10.202516</t>
+  </si>
+  <si>
+    <t>25.10.202517</t>
+  </si>
+  <si>
+    <t>25.10.202518</t>
+  </si>
+  <si>
+    <t>25.10.202519</t>
+  </si>
+  <si>
+    <t>25.10.202520</t>
+  </si>
+  <si>
+    <t>25.10.202521</t>
+  </si>
+  <si>
+    <t>25.10.202522</t>
+  </si>
+  <si>
+    <t>25.10.202523</t>
+  </si>
+  <si>
+    <t>26.10.20251</t>
+  </si>
+  <si>
+    <t>26.10.20252</t>
+  </si>
+  <si>
+    <t>26.10.20253</t>
+  </si>
+  <si>
+    <t>26.10.20254</t>
+  </si>
+  <si>
+    <t>26.10.20255</t>
+  </si>
+  <si>
+    <t>26.10.20256</t>
+  </si>
+  <si>
+    <t>26.10.20257</t>
+  </si>
+  <si>
+    <t>26.10.20258</t>
+  </si>
+  <si>
+    <t>26.10.20259</t>
+  </si>
+  <si>
+    <t>26.10.202510</t>
+  </si>
+  <si>
+    <t>26.10.202511</t>
+  </si>
+  <si>
+    <t>26.10.202512</t>
+  </si>
+  <si>
+    <t>26.10.202513</t>
+  </si>
+  <si>
+    <t>26.10.202514</t>
+  </si>
+  <si>
+    <t>26.10.202515</t>
+  </si>
+  <si>
+    <t>26.10.202516</t>
+  </si>
+  <si>
+    <t>26.10.202517</t>
+  </si>
+  <si>
+    <t>26.10.202518</t>
+  </si>
+  <si>
+    <t>26.10.202519</t>
+  </si>
+  <si>
+    <t>26.10.202520</t>
+  </si>
+  <si>
+    <t>26.10.202521</t>
+  </si>
+  <si>
+    <t>26.10.202522</t>
+  </si>
+  <si>
+    <t>26.10.202523</t>
+  </si>
+  <si>
+    <t>27.10.20251</t>
+  </si>
+  <si>
+    <t>27.10.20252</t>
+  </si>
+  <si>
+    <t>27.10.20253</t>
+  </si>
+  <si>
+    <t>27.10.20254</t>
+  </si>
+  <si>
+    <t>27.10.20255</t>
+  </si>
+  <si>
+    <t>27.10.20256</t>
+  </si>
+  <si>
+    <t>27.10.20257</t>
+  </si>
+  <si>
+    <t>27.10.20258</t>
+  </si>
+  <si>
+    <t>27.10.20259</t>
+  </si>
+  <si>
+    <t>27.10.202510</t>
+  </si>
+  <si>
+    <t>27.10.202511</t>
+  </si>
+  <si>
+    <t>27.10.202512</t>
+  </si>
+  <si>
+    <t>27.10.202513</t>
+  </si>
+  <si>
+    <t>27.10.202514</t>
+  </si>
+  <si>
+    <t>27.10.202515</t>
+  </si>
+  <si>
+    <t>27.10.202516</t>
+  </si>
+  <si>
+    <t>27.10.202517</t>
+  </si>
+  <si>
+    <t>27.10.202518</t>
+  </si>
+  <si>
+    <t>27.10.202519</t>
+  </si>
+  <si>
+    <t>27.10.202520</t>
+  </si>
+  <si>
+    <t>27.10.202521</t>
+  </si>
+  <si>
+    <t>27.10.202522</t>
+  </si>
+  <si>
+    <t>27.10.202523</t>
+  </si>
+  <si>
+    <t>28.10.20251</t>
+  </si>
+  <si>
+    <t>28.10.20252</t>
+  </si>
+  <si>
+    <t>28.10.20253</t>
+  </si>
+  <si>
+    <t>28.10.20254</t>
+  </si>
+  <si>
+    <t>28.10.20255</t>
+  </si>
+  <si>
+    <t>28.10.20256</t>
+  </si>
+  <si>
+    <t>28.10.20257</t>
+  </si>
+  <si>
+    <t>28.10.20258</t>
+  </si>
+  <si>
+    <t>28.10.20259</t>
+  </si>
+  <si>
+    <t>28.10.202510</t>
+  </si>
+  <si>
+    <t>28.10.202511</t>
+  </si>
+  <si>
+    <t>28.10.202512</t>
+  </si>
+  <si>
+    <t>28.10.202513</t>
+  </si>
+  <si>
+    <t>28.10.202514</t>
+  </si>
+  <si>
+    <t>28.10.202515</t>
+  </si>
+  <si>
+    <t>28.10.202516</t>
+  </si>
+  <si>
+    <t>28.10.202517</t>
+  </si>
+  <si>
+    <t>28.10.202518</t>
+  </si>
+  <si>
+    <t>28.10.202519</t>
+  </si>
+  <si>
+    <t>28.10.202520</t>
+  </si>
+  <si>
+    <t>28.10.202521</t>
+  </si>
+  <si>
+    <t>28.10.202522</t>
+  </si>
+  <si>
+    <t>28.10.202523</t>
+  </si>
+  <si>
+    <t>29.10.20251</t>
+  </si>
+  <si>
+    <t>29.10.20252</t>
+  </si>
+  <si>
+    <t>29.10.20253</t>
+  </si>
+  <si>
+    <t>29.10.20254</t>
+  </si>
+  <si>
+    <t>29.10.20255</t>
+  </si>
+  <si>
+    <t>29.10.20256</t>
+  </si>
+  <si>
+    <t>29.10.20257</t>
+  </si>
+  <si>
+    <t>29.10.20258</t>
+  </si>
+  <si>
+    <t>29.10.20259</t>
+  </si>
+  <si>
+    <t>29.10.202510</t>
+  </si>
+  <si>
+    <t>29.10.202511</t>
+  </si>
+  <si>
+    <t>29.10.202512</t>
+  </si>
+  <si>
+    <t>29.10.202513</t>
+  </si>
+  <si>
+    <t>29.10.202514</t>
+  </si>
+  <si>
+    <t>29.10.202515</t>
+  </si>
+  <si>
+    <t>29.10.202516</t>
+  </si>
+  <si>
+    <t>29.10.202517</t>
+  </si>
+  <si>
+    <t>29.10.202518</t>
+  </si>
+  <si>
+    <t>29.10.202519</t>
+  </si>
+  <si>
+    <t>29.10.202520</t>
+  </si>
+  <si>
+    <t>29.10.202521</t>
+  </si>
+  <si>
+    <t>29.10.202522</t>
+  </si>
+  <si>
+    <t>29.10.202523</t>
+  </si>
+  <si>
+    <t>30.10.20251</t>
+  </si>
+  <si>
+    <t>30.10.20252</t>
+  </si>
+  <si>
+    <t>30.10.20253</t>
+  </si>
+  <si>
+    <t>30.10.20254</t>
+  </si>
+  <si>
+    <t>30.10.20255</t>
+  </si>
+  <si>
+    <t>30.10.20256</t>
+  </si>
+  <si>
+    <t>30.10.20257</t>
+  </si>
+  <si>
+    <t>30.10.20258</t>
+  </si>
+  <si>
+    <t>30.10.20259</t>
+  </si>
+  <si>
+    <t>30.10.202510</t>
+  </si>
+  <si>
+    <t>30.10.202511</t>
+  </si>
+  <si>
+    <t>30.10.202512</t>
+  </si>
+  <si>
+    <t>30.10.202513</t>
+  </si>
+  <si>
+    <t>30.10.202514</t>
+  </si>
+  <si>
+    <t>30.10.202515</t>
+  </si>
+  <si>
+    <t>30.10.202516</t>
+  </si>
+  <si>
+    <t>30.10.202517</t>
+  </si>
+  <si>
+    <t>30.10.202518</t>
+  </si>
+  <si>
+    <t>30.10.202519</t>
+  </si>
+  <si>
+    <t>30.10.202520</t>
+  </si>
+  <si>
+    <t>30.10.202521</t>
+  </si>
+  <si>
+    <t>30.10.202522</t>
+  </si>
+  <si>
+    <t>30.10.202523</t>
+  </si>
+  <si>
+    <t>31.10.20251</t>
+  </si>
+  <si>
+    <t>31.10.20252</t>
+  </si>
+  <si>
+    <t>31.10.20253</t>
+  </si>
+  <si>
+    <t>31.10.20254</t>
+  </si>
+  <si>
+    <t>31.10.20255</t>
+  </si>
+  <si>
+    <t>31.10.20256</t>
+  </si>
+  <si>
+    <t>31.10.20257</t>
+  </si>
+  <si>
+    <t>31.10.20258</t>
+  </si>
+  <si>
+    <t>31.10.20259</t>
+  </si>
+  <si>
+    <t>31.10.202510</t>
+  </si>
+  <si>
+    <t>31.10.202511</t>
+  </si>
+  <si>
+    <t>31.10.202512</t>
+  </si>
+  <si>
+    <t>31.10.202513</t>
+  </si>
+  <si>
+    <t>31.10.202514</t>
+  </si>
+  <si>
+    <t>31.10.202515</t>
+  </si>
+  <si>
+    <t>31.10.202516</t>
+  </si>
+  <si>
+    <t>31.10.202517</t>
+  </si>
+  <si>
+    <t>31.10.202518</t>
+  </si>
+  <si>
+    <t>31.10.202519</t>
+  </si>
+  <si>
+    <t>31.10.202520</t>
+  </si>
+  <si>
+    <t>31.10.202521</t>
+  </si>
+  <si>
+    <t>31.10.202522</t>
+  </si>
+  <si>
+    <t>31.10.202523</t>
+  </si>
+  <si>
+    <t>01.11.20251</t>
+  </si>
+  <si>
+    <t>01.11.20252</t>
+  </si>
+  <si>
+    <t>01.11.20253</t>
+  </si>
+  <si>
+    <t>01.11.20254</t>
+  </si>
+  <si>
+    <t>01.11.20255</t>
+  </si>
+  <si>
+    <t>01.11.20256</t>
+  </si>
+  <si>
+    <t>01.11.20257</t>
+  </si>
+  <si>
+    <t>01.11.20258</t>
+  </si>
+  <si>
+    <t>01.11.20259</t>
+  </si>
+  <si>
+    <t>01.11.202510</t>
   </si>
 </sst>
 </file>
@@ -879,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,10 +907,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -927,10 +924,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -950,19 +947,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>485</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>925</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +970,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>867</v>
+        <v>443</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="F5">
-        <v>3.21</v>
+        <v>2.135</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +993,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>921</v>
+        <v>378</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="F6">
-        <v>2.976</v>
+        <v>2.018</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1016,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>855</v>
+        <v>247</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F7">
-        <v>3.188</v>
+        <v>1.821</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1039,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>735</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F8">
-        <v>3.015</v>
+        <v>0.978</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,22 +1062,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>579</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F9">
-        <v>2.688</v>
+        <v>0.206</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1088,22 +1085,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="F10">
-        <v>1.876</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1111,22 +1108,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="F11">
-        <v>0.964</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1134,22 +1131,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F12">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1157,22 +1154,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1180,19 +1177,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45828</v>
+        <v>45955</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1203,59 +1200,59 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45828</v>
+        <v>45956</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>38.3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,19 +1263,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1289,19 +1286,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>51.4</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1312,19 +1309,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>53.3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1335,19 +1332,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
       <c r="E21">
-        <v>0</v>
+        <v>55.1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1358,22 +1355,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>56.4</v>
       </c>
       <c r="F22">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -1381,22 +1378,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>57.4</v>
       </c>
       <c r="F23">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1404,22 +1401,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>427</v>
+        <v>88</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>53.9</v>
       </c>
       <c r="F24">
-        <v>0.627</v>
+        <v>0.044</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1424,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>594</v>
+        <v>163</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="F25">
-        <v>1.422</v>
+        <v>0.266</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1447,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>739</v>
+        <v>247</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>2.121</v>
+        <v>0.541</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1470,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>851</v>
+        <v>282</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>42.7</v>
       </c>
       <c r="F27">
-        <v>2.762</v>
+        <v>0.9</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1493,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>915</v>
+        <v>262</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="F28">
-        <v>3.069</v>
+        <v>1.089</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1516,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>932</v>
+        <v>227</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>50.2</v>
       </c>
       <c r="F29">
-        <v>3.36</v>
+        <v>0.82</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1539,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>899</v>
+        <v>176</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>51.8</v>
       </c>
       <c r="F30">
-        <v>3.227</v>
+        <v>0.696</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1562,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>821</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>55.3</v>
       </c>
       <c r="F31">
-        <v>3.001</v>
+        <v>0.513</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1585,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>693</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>53.9</v>
       </c>
       <c r="F32">
-        <v>2.731</v>
+        <v>0.214</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,22 +1608,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>548</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>53.1</v>
       </c>
       <c r="F33">
-        <v>2.268</v>
+        <v>0.06</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1634,22 +1631,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>63.3</v>
       </c>
       <c r="F34">
-        <v>1.542</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1657,22 +1654,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F35">
-        <v>0.846</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1680,22 +1677,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F36">
-        <v>0.323</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1703,22 +1700,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>61.7</v>
       </c>
       <c r="F37">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -1726,19 +1723,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45829</v>
+        <v>45956</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>47.2</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1749,59 +1746,59 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45829</v>
+        <v>45957</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>47.4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>36.8</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1812,19 +1809,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>19.4</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1835,19 +1832,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1858,19 +1855,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1881,19 +1878,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1904,22 +1901,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>6</v>
       </c>
-      <c r="C46">
-        <v>97</v>
-      </c>
-      <c r="D46">
-        <v>10</v>
-      </c>
       <c r="E46">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F46">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -1927,22 +1924,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F47">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -1950,22 +1947,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>429</v>
+        <v>182</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="F48">
-        <v>0.581</v>
+        <v>0.103</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1970,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>597</v>
+        <v>321</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F49">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1993,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>742</v>
+        <v>418</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F50">
-        <v>2.071</v>
+        <v>1.45</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2016,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>853</v>
+        <v>470</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>2.76</v>
+        <v>2.041</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2039,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>920</v>
+        <v>472</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>3.048</v>
+        <v>2.321</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2062,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>938</v>
+        <v>420</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F53">
-        <v>3.362</v>
+        <v>2.336</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2085,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>907</v>
+        <v>331</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="F54">
-        <v>3.361</v>
+        <v>1.985</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2108,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>830</v>
+        <v>204</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="F55">
-        <v>3.145</v>
+        <v>1.613</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2131,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>712</v>
+        <v>72</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="F56">
-        <v>2.913</v>
+        <v>0.681</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,22 +2154,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="F57">
-        <v>2.42</v>
+        <v>0.156</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2180,22 +2177,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="F58">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2203,22 +2200,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F59">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2226,22 +2223,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F60">
-        <v>0.272</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2249,22 +2246,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="F61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>63</v>
@@ -2272,19 +2269,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45830</v>
+        <v>45957</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2295,59 +2292,59 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45830</v>
+        <v>45958</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>43.3</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2358,19 +2355,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2381,19 +2378,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>58.2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2404,19 +2401,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>4</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
       <c r="E68">
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2427,19 +2424,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2450,19 +2447,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2473,22 +2470,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>59.3</v>
       </c>
       <c r="F71">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -2496,22 +2493,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>414</v>
+        <v>86</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="F72">
-        <v>0.48</v>
+        <v>0.032</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2516,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>581</v>
+        <v>170</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="F73">
-        <v>1.255</v>
+        <v>0.268</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2539,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>727</v>
+        <v>240</v>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="F74">
-        <v>2.006</v>
+        <v>0.58</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2562,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>840</v>
+        <v>277</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="F75">
-        <v>2.656</v>
+        <v>0.881</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2585,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>908</v>
+        <v>272</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>45.3</v>
       </c>
       <c r="F76">
-        <v>2.957</v>
+        <v>1.095</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2608,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>930</v>
+        <v>236</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="F77">
-        <v>3.177</v>
+        <v>1.003</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2631,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>903</v>
+        <v>188</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="F78">
-        <v>3.183</v>
+        <v>0.84</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2654,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>828</v>
+        <v>125</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="F79">
-        <v>3.068</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2677,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>710</v>
+        <v>49</v>
       </c>
       <c r="D80">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>41.4</v>
       </c>
       <c r="F80">
-        <v>2.848</v>
+        <v>0.318</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,22 +2700,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>557</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F81">
-        <v>2.354</v>
+        <v>0.093</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2726,22 +2723,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>29.2</v>
       </c>
       <c r="F82">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2749,22 +2746,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>29.2</v>
       </c>
       <c r="F83">
-        <v>0.826</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2772,22 +2769,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>28.5</v>
       </c>
       <c r="F84">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2795,22 +2792,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>27.7</v>
       </c>
       <c r="F85">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
         <v>86</v>
@@ -2818,19 +2815,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45831</v>
+        <v>45958</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2841,59 +2838,59 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45831</v>
+        <v>45959</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>88</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2904,19 +2901,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2927,19 +2924,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>3</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>15</v>
-      </c>
       <c r="E91">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2950,19 +2947,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2973,19 +2970,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2996,19 +2993,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3019,22 +3016,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="D95">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>28.4</v>
       </c>
       <c r="F95">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>95</v>
@@ -3042,22 +3039,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>23.9</v>
       </c>
       <c r="F96">
-        <v>0.468</v>
+        <v>0.074</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3062,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>479</v>
+        <v>248</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="F97">
-        <v>1.071</v>
+        <v>0.38</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3085,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C98">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>21</v>
+        <v>18.6</v>
       </c>
       <c r="F98">
-        <v>1.64</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3108,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99">
-        <v>635</v>
+        <v>395</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>22</v>
+        <v>17.1</v>
       </c>
       <c r="F99">
-        <v>1.906</v>
+        <v>1.612</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3131,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C100">
-        <v>688</v>
+        <v>403</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F100">
-        <v>2.214</v>
+        <v>1.795</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3154,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>733</v>
+        <v>369</v>
       </c>
       <c r="D101">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>19</v>
+        <v>16.3</v>
       </c>
       <c r="F101">
-        <v>2.4</v>
+        <v>1.845</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3177,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>759</v>
+        <v>302</v>
       </c>
       <c r="D102">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F102">
-        <v>2.485</v>
+        <v>1.828</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3200,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>738</v>
+        <v>197</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="F103">
-        <v>2.647</v>
+        <v>1.386</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3223,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>653</v>
+        <v>71</v>
       </c>
       <c r="D104">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="F104">
-        <v>2.464</v>
+        <v>0.644</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,22 +3246,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>528</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="F105">
-        <v>2.061</v>
+        <v>0.134</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3272,22 +3269,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F106">
-        <v>1.418</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3295,22 +3292,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="F107">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3318,22 +3315,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="F108">
-        <v>0.311</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>108</v>
@@ -3341,22 +3338,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="F109">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>109</v>
@@ -3364,19 +3361,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45832</v>
+        <v>45959</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3387,59 +3384,59 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45832</v>
+        <v>45960</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>7</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>111</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>4.6</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3450,19 +3447,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3473,19 +3470,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3496,19 +3493,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3519,19 +3516,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3542,19 +3539,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
         <v>6</v>
       </c>
-      <c r="C118">
-        <v>83</v>
-      </c>
-      <c r="D118">
-        <v>19</v>
-      </c>
       <c r="E118">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3565,22 +3562,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>118</v>
@@ -3588,22 +3585,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>396</v>
+        <v>156</v>
       </c>
       <c r="D120">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F120">
-        <v>0.442</v>
+        <v>0.073</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3608,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>279</v>
+      </c>
+      <c r="D121">
         <v>9</v>
       </c>
-      <c r="C121">
-        <v>557</v>
-      </c>
-      <c r="D121">
-        <v>24</v>
-      </c>
       <c r="E121">
-        <v>1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F121">
-        <v>1.134</v>
+        <v>0.49</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3631,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B122">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>378</v>
+      </c>
+      <c r="D122">
         <v>10</v>
       </c>
-      <c r="C122">
-        <v>700</v>
-      </c>
-      <c r="D122">
-        <v>25</v>
-      </c>
       <c r="E122">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="F122">
-        <v>1.836</v>
+        <v>1.21</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3654,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>813</v>
+        <v>432</v>
       </c>
       <c r="D123">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="F123">
-        <v>2.394</v>
+        <v>1.874</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3677,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>881</v>
+        <v>426</v>
       </c>
       <c r="D124">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="F124">
-        <v>2.856</v>
+        <v>2.111</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3700,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125">
-        <v>901</v>
+        <v>377</v>
       </c>
       <c r="D125">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>14.2</v>
       </c>
       <c r="F125">
-        <v>3.085</v>
+        <v>2.062</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3723,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>294</v>
+      </c>
+      <c r="D126">
         <v>14</v>
       </c>
-      <c r="C126">
-        <v>877</v>
-      </c>
-      <c r="D126">
-        <v>30</v>
-      </c>
       <c r="E126">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="F126">
-        <v>2.945</v>
+        <v>1.845</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3746,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>806</v>
+        <v>178</v>
       </c>
       <c r="D127">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>18.6</v>
       </c>
       <c r="F127">
-        <v>2.859</v>
+        <v>1.385</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3769,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>697</v>
+        <v>59</v>
       </c>
       <c r="D128">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="F128">
-        <v>2.586</v>
+        <v>0.512</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,22 +3792,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F129">
-        <v>2.263</v>
+        <v>0.11</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3818,22 +3815,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F130">
-        <v>1.643</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3841,22 +3838,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C131">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F131">
-        <v>0.842</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3864,22 +3861,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C132">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="F132">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3887,22 +3884,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F133">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>132</v>
@@ -3910,19 +3907,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45833</v>
+        <v>45960</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3933,59 +3930,59 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45833</v>
+        <v>45961</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>134</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>23.6</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3996,19 +3993,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4019,19 +4016,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4042,19 +4039,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4065,19 +4062,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4088,19 +4085,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4111,22 +4108,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="F143">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>141</v>
@@ -4134,22 +4131,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>383</v>
+        <v>86</v>
       </c>
       <c r="D144">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>46.1</v>
       </c>
       <c r="F144">
-        <v>0.444</v>
+        <v>0.03</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4154,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>170</v>
+      </c>
+      <c r="D145">
         <v>9</v>
       </c>
-      <c r="C145">
-        <v>548</v>
-      </c>
-      <c r="D145">
-        <v>24</v>
-      </c>
       <c r="E145">
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c r="F145">
-        <v>1.049</v>
+        <v>0.313</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4177,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>236</v>
+      </c>
+      <c r="D146">
         <v>10</v>
       </c>
-      <c r="C146">
-        <v>694</v>
-      </c>
-      <c r="D146">
-        <v>25</v>
-      </c>
       <c r="E146">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="F146">
-        <v>1.84</v>
+        <v>0.549</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4200,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147">
-        <v>808</v>
+        <v>270</v>
       </c>
       <c r="D147">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="F147">
-        <v>2.445</v>
+        <v>0.89</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4223,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C148">
-        <v>878</v>
+        <v>260</v>
       </c>
       <c r="D148">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F148">
-        <v>2.859</v>
+        <v>0.973</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4246,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>890</v>
+        <v>214</v>
       </c>
       <c r="D149">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>48.1</v>
       </c>
       <c r="F149">
-        <v>3.088</v>
+        <v>0.944</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4269,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C150">
-        <v>838</v>
+        <v>156</v>
       </c>
       <c r="D150">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>4</v>
+        <v>51.7</v>
       </c>
       <c r="F150">
-        <v>2.914</v>
+        <v>0.777</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4292,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C151">
-        <v>751</v>
+        <v>86</v>
       </c>
       <c r="D151">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>7</v>
+        <v>56.9</v>
       </c>
       <c r="F151">
-        <v>2.722</v>
+        <v>0.513</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4315,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C152">
-        <v>648</v>
+        <v>23</v>
       </c>
       <c r="D152">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E152">
-        <v>7</v>
+        <v>63.1</v>
       </c>
       <c r="F152">
-        <v>2.501</v>
+        <v>0.223</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,22 +4338,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C153">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>60.5</v>
       </c>
       <c r="F153">
-        <v>2.025</v>
+        <v>0.037</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4364,22 +4361,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C154">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>4</v>
+        <v>59.9</v>
       </c>
       <c r="F154">
-        <v>1.311</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4387,22 +4384,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C155">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>58.2</v>
       </c>
       <c r="F155">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4410,22 +4407,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C156">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>56.4</v>
       </c>
       <c r="F156">
-        <v>0.262</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>154</v>
@@ -4433,22 +4430,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="F157">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>155</v>
@@ -4456,19 +4453,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45834</v>
+        <v>45961</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4479,59 +4476,59 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45834</v>
+        <v>45962</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>2</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159" t="s">
-        <v>157</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>48.1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>11</v>
+        <v>46.7</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4542,19 +4539,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>11</v>
+        <v>45.4</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4565,19 +4562,19 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>12</v>
+        <v>42.6</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4588,19 +4585,19 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>16</v>
+        <v>40.5</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4611,19 +4608,19 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>18</v>
+        <v>38.3</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4634,19 +4631,19 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>16</v>
+        <v>36.1</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4657,22 +4654,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>16</v>
+        <v>34.6</v>
       </c>
       <c r="F167">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>164</v>
@@ -4680,22 +4677,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168">
-        <v>322</v>
+        <v>107</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>18</v>
+        <v>29.4</v>
       </c>
       <c r="F168">
-        <v>0.461</v>
+        <v>0.035</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,48 +4700,25 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45835</v>
+        <v>45962</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>481</v>
+        <v>212</v>
       </c>
       <c r="D169">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>14</v>
+        <v>24.3</v>
       </c>
       <c r="F169">
-        <v>0.917</v>
+        <v>0.382</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="2">
-        <v>45835</v>
-      </c>
-      <c r="B170">
-        <v>10</v>
-      </c>
-      <c r="C170">
-        <v>636</v>
-      </c>
-      <c r="D170">
-        <v>27</v>
-      </c>
-      <c r="E170">
-        <v>9</v>
-      </c>
-      <c r="F170">
-        <v>1.617</v>
-      </c>
-      <c r="G170" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Data</t>
   </si>
@@ -37,484 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>25.10.202512</t>
-  </si>
-  <si>
-    <t>25.10.202513</t>
-  </si>
-  <si>
-    <t>25.10.202514</t>
-  </si>
-  <si>
-    <t>25.10.202515</t>
-  </si>
-  <si>
-    <t>25.10.202516</t>
-  </si>
-  <si>
-    <t>25.10.202517</t>
-  </si>
-  <si>
-    <t>25.10.202518</t>
-  </si>
-  <si>
-    <t>25.10.202519</t>
-  </si>
-  <si>
-    <t>25.10.202520</t>
-  </si>
-  <si>
-    <t>25.10.202521</t>
-  </si>
-  <si>
-    <t>25.10.202522</t>
-  </si>
-  <si>
-    <t>25.10.202523</t>
-  </si>
-  <si>
-    <t>26.10.20251</t>
-  </si>
-  <si>
-    <t>26.10.20252</t>
-  </si>
-  <si>
-    <t>26.10.20253</t>
-  </si>
-  <si>
-    <t>26.10.20254</t>
-  </si>
-  <si>
-    <t>26.10.20255</t>
-  </si>
-  <si>
-    <t>26.10.20256</t>
-  </si>
-  <si>
-    <t>26.10.20257</t>
-  </si>
-  <si>
-    <t>26.10.20258</t>
-  </si>
-  <si>
-    <t>26.10.20259</t>
-  </si>
-  <si>
-    <t>26.10.202510</t>
-  </si>
-  <si>
-    <t>26.10.202511</t>
-  </si>
-  <si>
-    <t>26.10.202512</t>
-  </si>
-  <si>
-    <t>26.10.202513</t>
-  </si>
-  <si>
-    <t>26.10.202514</t>
-  </si>
-  <si>
-    <t>26.10.202515</t>
-  </si>
-  <si>
-    <t>26.10.202516</t>
-  </si>
-  <si>
-    <t>26.10.202517</t>
-  </si>
-  <si>
-    <t>26.10.202518</t>
-  </si>
-  <si>
-    <t>26.10.202519</t>
-  </si>
-  <si>
-    <t>26.10.202520</t>
-  </si>
-  <si>
-    <t>26.10.202521</t>
-  </si>
-  <si>
-    <t>26.10.202522</t>
-  </si>
-  <si>
-    <t>26.10.202523</t>
-  </si>
-  <si>
-    <t>27.10.20251</t>
-  </si>
-  <si>
-    <t>27.10.20252</t>
-  </si>
-  <si>
-    <t>27.10.20253</t>
-  </si>
-  <si>
-    <t>27.10.20254</t>
-  </si>
-  <si>
-    <t>27.10.20255</t>
-  </si>
-  <si>
-    <t>27.10.20256</t>
-  </si>
-  <si>
-    <t>27.10.20257</t>
-  </si>
-  <si>
-    <t>27.10.20258</t>
-  </si>
-  <si>
-    <t>27.10.20259</t>
-  </si>
-  <si>
-    <t>27.10.202510</t>
-  </si>
-  <si>
-    <t>27.10.202511</t>
-  </si>
-  <si>
-    <t>27.10.202512</t>
-  </si>
-  <si>
-    <t>27.10.202513</t>
-  </si>
-  <si>
-    <t>27.10.202514</t>
-  </si>
-  <si>
-    <t>27.10.202515</t>
-  </si>
-  <si>
-    <t>27.10.202516</t>
-  </si>
-  <si>
-    <t>27.10.202517</t>
-  </si>
-  <si>
-    <t>27.10.202518</t>
-  </si>
-  <si>
-    <t>27.10.202519</t>
-  </si>
-  <si>
-    <t>27.10.202520</t>
-  </si>
-  <si>
-    <t>27.10.202521</t>
-  </si>
-  <si>
-    <t>27.10.202522</t>
-  </si>
-  <si>
-    <t>27.10.202523</t>
-  </si>
-  <si>
-    <t>28.10.20251</t>
-  </si>
-  <si>
-    <t>28.10.20252</t>
-  </si>
-  <si>
-    <t>28.10.20253</t>
-  </si>
-  <si>
-    <t>28.10.20254</t>
-  </si>
-  <si>
-    <t>28.10.20255</t>
-  </si>
-  <si>
-    <t>28.10.20256</t>
-  </si>
-  <si>
-    <t>28.10.20257</t>
-  </si>
-  <si>
-    <t>28.10.20258</t>
-  </si>
-  <si>
-    <t>28.10.20259</t>
-  </si>
-  <si>
-    <t>28.10.202510</t>
-  </si>
-  <si>
-    <t>28.10.202511</t>
-  </si>
-  <si>
-    <t>28.10.202512</t>
-  </si>
-  <si>
-    <t>28.10.202513</t>
-  </si>
-  <si>
-    <t>28.10.202514</t>
-  </si>
-  <si>
-    <t>28.10.202515</t>
-  </si>
-  <si>
-    <t>28.10.202516</t>
-  </si>
-  <si>
-    <t>28.10.202517</t>
-  </si>
-  <si>
-    <t>28.10.202518</t>
-  </si>
-  <si>
-    <t>28.10.202519</t>
-  </si>
-  <si>
-    <t>28.10.202520</t>
-  </si>
-  <si>
-    <t>28.10.202521</t>
-  </si>
-  <si>
-    <t>28.10.202522</t>
-  </si>
-  <si>
-    <t>28.10.202523</t>
-  </si>
-  <si>
-    <t>29.10.20251</t>
-  </si>
-  <si>
-    <t>29.10.20252</t>
-  </si>
-  <si>
-    <t>29.10.20253</t>
-  </si>
-  <si>
-    <t>29.10.20254</t>
-  </si>
-  <si>
-    <t>29.10.20255</t>
-  </si>
-  <si>
-    <t>29.10.20256</t>
-  </si>
-  <si>
-    <t>29.10.20257</t>
-  </si>
-  <si>
-    <t>29.10.20258</t>
-  </si>
-  <si>
-    <t>29.10.20259</t>
-  </si>
-  <si>
-    <t>29.10.202510</t>
-  </si>
-  <si>
-    <t>29.10.202511</t>
-  </si>
-  <si>
-    <t>29.10.202512</t>
-  </si>
-  <si>
-    <t>29.10.202513</t>
-  </si>
-  <si>
-    <t>29.10.202514</t>
-  </si>
-  <si>
-    <t>29.10.202515</t>
-  </si>
-  <si>
-    <t>29.10.202516</t>
-  </si>
-  <si>
-    <t>29.10.202517</t>
-  </si>
-  <si>
-    <t>29.10.202518</t>
-  </si>
-  <si>
-    <t>29.10.202519</t>
-  </si>
-  <si>
-    <t>29.10.202520</t>
-  </si>
-  <si>
-    <t>29.10.202521</t>
-  </si>
-  <si>
-    <t>29.10.202522</t>
-  </si>
-  <si>
-    <t>29.10.202523</t>
-  </si>
-  <si>
-    <t>30.10.20251</t>
-  </si>
-  <si>
-    <t>30.10.20252</t>
-  </si>
-  <si>
-    <t>30.10.20253</t>
-  </si>
-  <si>
-    <t>30.10.20254</t>
-  </si>
-  <si>
-    <t>30.10.20255</t>
-  </si>
-  <si>
-    <t>30.10.20256</t>
-  </si>
-  <si>
-    <t>30.10.20257</t>
-  </si>
-  <si>
-    <t>30.10.20258</t>
-  </si>
-  <si>
-    <t>30.10.20259</t>
-  </si>
-  <si>
-    <t>30.10.202510</t>
-  </si>
-  <si>
-    <t>30.10.202511</t>
-  </si>
-  <si>
-    <t>30.10.202512</t>
-  </si>
-  <si>
-    <t>30.10.202513</t>
-  </si>
-  <si>
-    <t>30.10.202514</t>
-  </si>
-  <si>
-    <t>30.10.202515</t>
-  </si>
-  <si>
-    <t>30.10.202516</t>
-  </si>
-  <si>
-    <t>30.10.202517</t>
-  </si>
-  <si>
-    <t>30.10.202518</t>
-  </si>
-  <si>
-    <t>30.10.202519</t>
-  </si>
-  <si>
-    <t>30.10.202520</t>
-  </si>
-  <si>
-    <t>30.10.202521</t>
-  </si>
-  <si>
-    <t>30.10.202522</t>
-  </si>
-  <si>
-    <t>30.10.202523</t>
-  </si>
-  <si>
-    <t>31.10.20251</t>
-  </si>
-  <si>
-    <t>31.10.20252</t>
-  </si>
-  <si>
-    <t>31.10.20253</t>
-  </si>
-  <si>
-    <t>31.10.20254</t>
-  </si>
-  <si>
-    <t>31.10.20255</t>
-  </si>
-  <si>
-    <t>31.10.20256</t>
-  </si>
-  <si>
-    <t>31.10.20257</t>
-  </si>
-  <si>
-    <t>31.10.20258</t>
-  </si>
-  <si>
-    <t>31.10.20259</t>
-  </si>
-  <si>
-    <t>31.10.202510</t>
-  </si>
-  <si>
-    <t>31.10.202511</t>
-  </si>
-  <si>
-    <t>31.10.202512</t>
-  </si>
-  <si>
-    <t>31.10.202513</t>
-  </si>
-  <si>
-    <t>31.10.202514</t>
-  </si>
-  <si>
-    <t>31.10.202515</t>
-  </si>
-  <si>
-    <t>31.10.202516</t>
-  </si>
-  <si>
-    <t>31.10.202517</t>
-  </si>
-  <si>
-    <t>31.10.202518</t>
-  </si>
-  <si>
-    <t>31.10.202519</t>
-  </si>
-  <si>
-    <t>31.10.202520</t>
-  </si>
-  <si>
-    <t>31.10.202521</t>
-  </si>
-  <si>
-    <t>31.10.202522</t>
-  </si>
-  <si>
-    <t>31.10.202523</t>
-  </si>
-  <si>
-    <t>01.11.20251</t>
-  </si>
-  <si>
-    <t>01.11.20252</t>
-  </si>
-  <si>
-    <t>01.11.20253</t>
-  </si>
-  <si>
-    <t>01.11.20254</t>
-  </si>
-  <si>
-    <t>01.11.20255</t>
-  </si>
-  <si>
-    <t>01.11.20256</t>
-  </si>
-  <si>
-    <t>01.11.20257</t>
-  </si>
-  <si>
-    <t>01.11.20258</t>
-  </si>
-  <si>
-    <t>01.11.20259</t>
-  </si>
-  <si>
-    <t>01.11.202510</t>
+    <t>24.01.20269</t>
+  </si>
+  <si>
+    <t>24.01.202610</t>
+  </si>
+  <si>
+    <t>24.01.202611</t>
+  </si>
+  <si>
+    <t>24.01.202612</t>
+  </si>
+  <si>
+    <t>24.01.202613</t>
+  </si>
+  <si>
+    <t>24.01.202614</t>
+  </si>
+  <si>
+    <t>24.01.202615</t>
+  </si>
+  <si>
+    <t>24.01.202616</t>
+  </si>
+  <si>
+    <t>24.01.202617</t>
+  </si>
+  <si>
+    <t>24.01.202618</t>
+  </si>
+  <si>
+    <t>24.01.202619</t>
+  </si>
+  <si>
+    <t>24.01.202620</t>
+  </si>
+  <si>
+    <t>24.01.202621</t>
+  </si>
+  <si>
+    <t>24.01.202622</t>
+  </si>
+  <si>
+    <t>24.01.202623</t>
+  </si>
+  <si>
+    <t>25.01.20261</t>
+  </si>
+  <si>
+    <t>25.01.20262</t>
+  </si>
+  <si>
+    <t>25.01.20263</t>
+  </si>
+  <si>
+    <t>25.01.20264</t>
+  </si>
+  <si>
+    <t>25.01.20265</t>
+  </si>
+  <si>
+    <t>25.01.20266</t>
+  </si>
+  <si>
+    <t>25.01.20267</t>
+  </si>
+  <si>
+    <t>25.01.20268</t>
+  </si>
+  <si>
+    <t>25.01.20269</t>
+  </si>
+  <si>
+    <t>25.01.202610</t>
+  </si>
+  <si>
+    <t>25.01.202611</t>
+  </si>
+  <si>
+    <t>25.01.202612</t>
+  </si>
+  <si>
+    <t>25.01.202613</t>
+  </si>
+  <si>
+    <t>25.01.202614</t>
+  </si>
+  <si>
+    <t>25.01.202615</t>
+  </si>
+  <si>
+    <t>25.01.202616</t>
+  </si>
+  <si>
+    <t>25.01.202617</t>
+  </si>
+  <si>
+    <t>25.01.202618</t>
+  </si>
+  <si>
+    <t>25.01.202619</t>
+  </si>
+  <si>
+    <t>25.01.202620</t>
+  </si>
+  <si>
+    <t>25.01.202621</t>
+  </si>
+  <si>
+    <t>25.01.202622</t>
+  </si>
+  <si>
+    <t>25.01.202623</t>
+  </si>
+  <si>
+    <t>26.01.20261</t>
+  </si>
+  <si>
+    <t>26.01.20262</t>
+  </si>
+  <si>
+    <t>26.01.20263</t>
+  </si>
+  <si>
+    <t>26.01.20264</t>
+  </si>
+  <si>
+    <t>26.01.20265</t>
+  </si>
+  <si>
+    <t>26.01.20266</t>
+  </si>
+  <si>
+    <t>26.01.20267</t>
+  </si>
+  <si>
+    <t>26.01.20268</t>
+  </si>
+  <si>
+    <t>26.01.20269</t>
+  </si>
+  <si>
+    <t>26.01.202610</t>
+  </si>
+  <si>
+    <t>26.01.202611</t>
+  </si>
+  <si>
+    <t>26.01.202612</t>
+  </si>
+  <si>
+    <t>26.01.202613</t>
+  </si>
+  <si>
+    <t>26.01.202614</t>
+  </si>
+  <si>
+    <t>26.01.202615</t>
+  </si>
+  <si>
+    <t>26.01.202616</t>
+  </si>
+  <si>
+    <t>26.01.202617</t>
+  </si>
+  <si>
+    <t>26.01.202618</t>
+  </si>
+  <si>
+    <t>26.01.202619</t>
+  </si>
+  <si>
+    <t>26.01.202620</t>
+  </si>
+  <si>
+    <t>26.01.202621</t>
+  </si>
+  <si>
+    <t>26.01.202622</t>
+  </si>
+  <si>
+    <t>26.01.202623</t>
+  </si>
+  <si>
+    <t>27.01.20261</t>
+  </si>
+  <si>
+    <t>27.01.20262</t>
+  </si>
+  <si>
+    <t>27.01.20263</t>
+  </si>
+  <si>
+    <t>27.01.20264</t>
+  </si>
+  <si>
+    <t>27.01.20265</t>
+  </si>
+  <si>
+    <t>27.01.20266</t>
+  </si>
+  <si>
+    <t>27.01.20267</t>
+  </si>
+  <si>
+    <t>27.01.20268</t>
+  </si>
+  <si>
+    <t>27.01.20269</t>
+  </si>
+  <si>
+    <t>27.01.202610</t>
+  </si>
+  <si>
+    <t>27.01.202611</t>
+  </si>
+  <si>
+    <t>27.01.202612</t>
+  </si>
+  <si>
+    <t>27.01.202613</t>
+  </si>
+  <si>
+    <t>27.01.202614</t>
+  </si>
+  <si>
+    <t>27.01.202615</t>
+  </si>
+  <si>
+    <t>27.01.202616</t>
+  </si>
+  <si>
+    <t>27.01.202617</t>
+  </si>
+  <si>
+    <t>27.01.202618</t>
+  </si>
+  <si>
+    <t>27.01.202619</t>
+  </si>
+  <si>
+    <t>27.01.202620</t>
+  </si>
+  <si>
+    <t>27.01.202621</t>
+  </si>
+  <si>
+    <t>27.01.202622</t>
+  </si>
+  <si>
+    <t>27.01.202623</t>
+  </si>
+  <si>
+    <t>28.01.20261</t>
+  </si>
+  <si>
+    <t>28.01.20262</t>
+  </si>
+  <si>
+    <t>28.01.20263</t>
+  </si>
+  <si>
+    <t>28.01.20264</t>
+  </si>
+  <si>
+    <t>28.01.20265</t>
+  </si>
+  <si>
+    <t>28.01.20266</t>
+  </si>
+  <si>
+    <t>28.01.20267</t>
+  </si>
+  <si>
+    <t>28.01.20268</t>
+  </si>
+  <si>
+    <t>28.01.20269</t>
+  </si>
+  <si>
+    <t>28.01.202610</t>
+  </si>
+  <si>
+    <t>28.01.202611</t>
+  </si>
+  <si>
+    <t>28.01.202612</t>
+  </si>
+  <si>
+    <t>28.01.202613</t>
+  </si>
+  <si>
+    <t>28.01.202614</t>
+  </si>
+  <si>
+    <t>28.01.202615</t>
+  </si>
+  <si>
+    <t>28.01.202616</t>
+  </si>
+  <si>
+    <t>28.01.202617</t>
+  </si>
+  <si>
+    <t>28.01.202618</t>
+  </si>
+  <si>
+    <t>28.01.202619</t>
+  </si>
+  <si>
+    <t>28.01.202620</t>
+  </si>
+  <si>
+    <t>28.01.202621</t>
+  </si>
+  <si>
+    <t>28.01.202622</t>
+  </si>
+  <si>
+    <t>28.01.202623</t>
+  </si>
+  <si>
+    <t>29.01.20261</t>
+  </si>
+  <si>
+    <t>29.01.20262</t>
+  </si>
+  <si>
+    <t>29.01.20263</t>
+  </si>
+  <si>
+    <t>29.01.20264</t>
+  </si>
+  <si>
+    <t>29.01.20265</t>
+  </si>
+  <si>
+    <t>29.01.20266</t>
+  </si>
+  <si>
+    <t>29.01.20267</t>
+  </si>
+  <si>
+    <t>29.01.20268</t>
+  </si>
+  <si>
+    <t>29.01.20269</t>
+  </si>
+  <si>
+    <t>29.01.202610</t>
+  </si>
+  <si>
+    <t>29.01.202611</t>
+  </si>
+  <si>
+    <t>29.01.202612</t>
+  </si>
+  <si>
+    <t>29.01.202613</t>
+  </si>
+  <si>
+    <t>29.01.202614</t>
+  </si>
+  <si>
+    <t>29.01.202615</t>
+  </si>
+  <si>
+    <t>29.01.202616</t>
+  </si>
+  <si>
+    <t>29.01.202617</t>
+  </si>
+  <si>
+    <t>29.01.202618</t>
+  </si>
+  <si>
+    <t>29.01.202619</t>
+  </si>
+  <si>
+    <t>29.01.202620</t>
+  </si>
+  <si>
+    <t>29.01.202621</t>
+  </si>
+  <si>
+    <t>29.01.202622</t>
+  </si>
+  <si>
+    <t>29.01.202623</t>
+  </si>
+  <si>
+    <t>30.01.20261</t>
+  </si>
+  <si>
+    <t>30.01.20262</t>
+  </si>
+  <si>
+    <t>30.01.20263</t>
+  </si>
+  <si>
+    <t>30.01.20264</t>
+  </si>
+  <si>
+    <t>30.01.20265</t>
+  </si>
+  <si>
+    <t>30.01.20266</t>
+  </si>
+  <si>
+    <t>30.01.20267</t>
+  </si>
+  <si>
+    <t>30.01.20268</t>
+  </si>
+  <si>
+    <t>30.01.20269</t>
+  </si>
+  <si>
+    <t>30.01.202610</t>
+  </si>
+  <si>
+    <t>30.01.202611</t>
+  </si>
+  <si>
+    <t>30.01.202612</t>
+  </si>
+  <si>
+    <t>30.01.202613</t>
+  </si>
+  <si>
+    <t>30.01.202614</t>
+  </si>
+  <si>
+    <t>30.01.202615</t>
+  </si>
+  <si>
+    <t>30.01.202616</t>
+  </si>
+  <si>
+    <t>30.01.202617</t>
+  </si>
+  <si>
+    <t>30.01.202618</t>
+  </si>
+  <si>
+    <t>30.01.202619</t>
+  </si>
+  <si>
+    <t>30.01.202620</t>
+  </si>
+  <si>
+    <t>30.01.202621</t>
+  </si>
+  <si>
+    <t>30.01.202622</t>
+  </si>
+  <si>
+    <t>30.01.202623</t>
+  </si>
+  <si>
+    <t>31.01.20261</t>
+  </si>
+  <si>
+    <t>31.01.20262</t>
+  </si>
+  <si>
+    <t>31.01.20263</t>
+  </si>
+  <si>
+    <t>31.01.20264</t>
+  </si>
+  <si>
+    <t>31.01.20265</t>
+  </si>
+  <si>
+    <t>31.01.20266</t>
+  </si>
+  <si>
+    <t>31.01.20267</t>
+  </si>
+  <si>
+    <t>31.01.20268</t>
   </si>
 </sst>
 </file>
@@ -876,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,10 +910,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -924,10 +927,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -947,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>485</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.199999999999999</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -970,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>7.7</v>
+        <v>49.5</v>
       </c>
       <c r="F5">
-        <v>2.135</v>
+        <v>0.098</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -993,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>378</v>
+        <v>185</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2.2</v>
+        <v>46.7</v>
       </c>
       <c r="F6">
-        <v>2.018</v>
+        <v>0.372</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1016,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2.8</v>
+        <v>45.5</v>
       </c>
       <c r="F7">
-        <v>1.821</v>
+        <v>0.513</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1039,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2.7</v>
+        <v>43.5</v>
       </c>
       <c r="F8">
-        <v>0.978</v>
+        <v>0.53</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1062,22 +1065,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>3.7</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0.206</v>
+        <v>0.54</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1085,22 +1088,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>3.7</v>
+        <v>37.1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1108,22 +1111,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>5.5</v>
+        <v>28.9</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1131,22 +1134,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>8.199999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1154,19 +1157,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>21.2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1177,19 +1180,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45955</v>
+        <v>46046</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>18.6</v>
+        <v>21.2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1200,105 +1203,105 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45956</v>
+        <v>46046</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>30.8</v>
+        <v>21.2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45956</v>
+        <v>46046</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>38.3</v>
+        <v>21.2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45956</v>
+        <v>46046</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>21.2</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>48.7</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>51.4</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1309,19 +1312,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>53.3</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1332,19 +1335,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>55.1</v>
+        <v>23.6</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1355,19 +1358,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>56.4</v>
+        <v>26.9</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1378,19 +1381,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>57.4</v>
+        <v>29.2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1401,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>53.9</v>
+        <v>30.8</v>
       </c>
       <c r="F24">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1424,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>50.4</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1447,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>43</v>
+        <v>28.5</v>
       </c>
       <c r="F26">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1470,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>42.7</v>
+        <v>28.5</v>
       </c>
       <c r="F27">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1493,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>47.6</v>
+        <v>29.7</v>
       </c>
       <c r="F28">
-        <v>1.089</v>
+        <v>0.05</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1516,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>50.2</v>
+        <v>29.7</v>
       </c>
       <c r="F29">
-        <v>0.82</v>
+        <v>0.28</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1539,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>51.8</v>
+        <v>24.9</v>
       </c>
       <c r="F30">
-        <v>0.696</v>
+        <v>0.405</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1562,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>55.3</v>
+        <v>19.3</v>
       </c>
       <c r="F31">
-        <v>0.513</v>
+        <v>0.874</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1585,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>53.9</v>
+        <v>20.8</v>
       </c>
       <c r="F32">
-        <v>0.214</v>
+        <v>1.047</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1608,22 +1611,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33">
+        <v>212</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
       <c r="E33">
-        <v>53.1</v>
+        <v>27.4</v>
       </c>
       <c r="F33">
-        <v>0.06</v>
+        <v>1.006</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1631,22 +1634,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>63.3</v>
+        <v>38.3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1654,22 +1657,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>64.40000000000001</v>
+        <v>47</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1677,22 +1680,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>64.40000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1700,19 +1703,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>61.7</v>
+        <v>17.8</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1723,19 +1726,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45956</v>
+        <v>46047</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>47.2</v>
+        <v>17.8</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1746,105 +1749,105 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45957</v>
+        <v>46047</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>42.5</v>
+        <v>17.8</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45957</v>
+        <v>46047</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>47.4</v>
+        <v>17.8</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45957</v>
+        <v>46047</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>36.8</v>
+        <v>17.8</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>19.4</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>9.1</v>
+        <v>19.5</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1855,19 +1858,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>6.4</v>
+        <v>21.2</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1878,19 +1881,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>6.4</v>
+        <v>35.1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1901,19 +1904,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>9.1</v>
+        <v>50.7</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1924,19 +1927,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>8.199999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1947,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>5.3</v>
+        <v>54.5</v>
       </c>
       <c r="F48">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1970,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3.7</v>
+        <v>54.5</v>
       </c>
       <c r="F49">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1993,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>5.5</v>
+        <v>55.1</v>
       </c>
       <c r="F50">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2016,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>470</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>57.6</v>
       </c>
       <c r="F51">
-        <v>2.041</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2039,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>472</v>
+        <v>57</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F52">
-        <v>2.321</v>
+        <v>0.017</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2062,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>10.3</v>
+        <v>58.5</v>
       </c>
       <c r="F53">
-        <v>2.336</v>
+        <v>0.109</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2085,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>11.6</v>
+        <v>58.3</v>
       </c>
       <c r="F54">
-        <v>1.985</v>
+        <v>0.269</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2108,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>15.6</v>
+        <v>58.7</v>
       </c>
       <c r="F55">
-        <v>1.613</v>
+        <v>0.405</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2131,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>19.7</v>
+        <v>59.8</v>
       </c>
       <c r="F56">
-        <v>0.681</v>
+        <v>0.411</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2154,22 +2157,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>17.8</v>
+        <v>62.5</v>
       </c>
       <c r="F57">
-        <v>0.156</v>
+        <v>0.413</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2177,22 +2180,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>13.5</v>
+        <v>66</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2200,22 +2203,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>9.1</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2223,22 +2226,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>14.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2246,19 +2249,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>17.8</v>
+        <v>61.7</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2269,19 +2272,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45957</v>
+        <v>46048</v>
       </c>
       <c r="B62">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>18.7</v>
+        <v>59.4</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2292,105 +2295,105 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45958</v>
+        <v>46048</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>29.9</v>
+        <v>57.6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45958</v>
+        <v>46048</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>43.3</v>
+        <v>57</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45958</v>
+        <v>46048</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>52.6</v>
+        <v>56.4</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>57.6</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>67</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>58.2</v>
+        <v>57</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2401,19 +2404,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>59.4</v>
+        <v>56.4</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2424,19 +2427,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>61.1</v>
+        <v>57</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2447,19 +2450,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>60.5</v>
+        <v>58.2</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2470,19 +2473,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>59.3</v>
+        <v>59.9</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2493,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>52.5</v>
+        <v>61.1</v>
       </c>
       <c r="F72">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2516,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>47.2</v>
+        <v>60.5</v>
       </c>
       <c r="F73">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2539,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>44.2</v>
+        <v>60.5</v>
       </c>
       <c r="F74">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2562,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>43.4</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F75">
-        <v>0.881</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2585,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>45.3</v>
+        <v>68.7</v>
       </c>
       <c r="F76">
-        <v>1.095</v>
+        <v>0.02</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2608,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>47.9</v>
+        <v>69.7</v>
       </c>
       <c r="F77">
-        <v>1.003</v>
+        <v>0.107</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2631,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>48.1</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F78">
-        <v>0.84</v>
+        <v>0.181</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2654,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C79">
         <v>125</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>46.3</v>
+        <v>67.2</v>
       </c>
       <c r="F79">
-        <v>0.6820000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2677,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>41.4</v>
+        <v>68.3</v>
       </c>
       <c r="F80">
-        <v>0.318</v>
+        <v>0.394</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2700,22 +2703,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F81">
-        <v>0.093</v>
+        <v>0.366</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2723,22 +2726,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>29.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.231</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2746,22 +2749,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>29.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2769,22 +2772,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B84">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>28.5</v>
+        <v>63.3</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2792,19 +2795,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B85">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>27.7</v>
+        <v>59.3</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2815,19 +2818,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45958</v>
+        <v>46049</v>
       </c>
       <c r="B86">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>55.1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2838,27 +2841,33 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45959</v>
+        <v>46049</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>33.1</v>
+        <v>52.6</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45959</v>
+        <v>46049</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2867,21 +2876,21 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>51.4</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45959</v>
+        <v>46049</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2890,44 +2899,38 @@
         <v>3</v>
       </c>
       <c r="E89">
-        <v>26.9</v>
+        <v>50.7</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>25.3</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>90</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2936,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>24.5</v>
+        <v>51.4</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2947,19 +2950,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>26.9</v>
+        <v>52</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2970,19 +2973,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2993,19 +2996,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>51.4</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3016,19 +3019,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>28.4</v>
+        <v>50.7</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3039,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>23.9</v>
+        <v>50.7</v>
       </c>
       <c r="F96">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3062,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C97">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>20.5</v>
+        <v>50.1</v>
       </c>
       <c r="F97">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3085,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>18.6</v>
+        <v>50.1</v>
       </c>
       <c r="F98">
-        <v>0.9429999999999999</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3108,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B99">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>17.1</v>
+        <v>52.6</v>
       </c>
       <c r="F99">
-        <v>1.612</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3131,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>403</v>
+        <v>84</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>17</v>
+        <v>50.9</v>
       </c>
       <c r="F100">
-        <v>1.795</v>
+        <v>0.028</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3154,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C101">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>16.3</v>
+        <v>48.1</v>
       </c>
       <c r="F101">
-        <v>1.845</v>
+        <v>0.132</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3177,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C102">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>13.5</v>
+        <v>44.9</v>
       </c>
       <c r="F102">
-        <v>1.828</v>
+        <v>0.424</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3200,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B103">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>9.6</v>
+        <v>41.8</v>
       </c>
       <c r="F103">
-        <v>1.386</v>
+        <v>0.6</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3223,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B104">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>5.4</v>
+        <v>41.4</v>
       </c>
       <c r="F104">
-        <v>0.644</v>
+        <v>0.84</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3246,22 +3249,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B105">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>3.7</v>
+        <v>42.5</v>
       </c>
       <c r="F105">
-        <v>0.134</v>
+        <v>0.769</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3269,22 +3272,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B106">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>2.8</v>
+        <v>46.2</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3292,22 +3295,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <v>1.9</v>
+        <v>51.3</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3315,22 +3318,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B108">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>1.9</v>
+        <v>49.4</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="G108" t="s">
         <v>108</v>
@@ -3338,19 +3341,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B109">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>1.9</v>
+        <v>48.8</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3361,19 +3364,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45959</v>
+        <v>46050</v>
       </c>
       <c r="B110">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>2.8</v>
+        <v>47.4</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3384,105 +3387,105 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45960</v>
+        <v>46050</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>3.7</v>
+        <v>46.7</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45960</v>
+        <v>46050</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>4.6</v>
+        <v>46.7</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45960</v>
+        <v>46050</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>8.199999999999999</v>
+        <v>46.7</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>10</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>113</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
         <v>4</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>6</v>
-      </c>
       <c r="E115">
-        <v>9.1</v>
+        <v>50.7</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3493,19 +3496,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>10.9</v>
+        <v>53.9</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3516,19 +3519,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>12.7</v>
+        <v>51.3</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3539,19 +3542,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>11.8</v>
+        <v>41.9</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3562,19 +3565,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>32.3</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3585,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>9.1</v>
+        <v>28.5</v>
       </c>
       <c r="F120">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3608,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>9.300000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="F121">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3631,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>8.4</v>
+        <v>29.2</v>
       </c>
       <c r="F122">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3654,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>8.6</v>
+        <v>30.7</v>
       </c>
       <c r="F123">
-        <v>1.874</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3677,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>426</v>
+        <v>125</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>11.8</v>
+        <v>28.4</v>
       </c>
       <c r="F124">
-        <v>2.111</v>
+        <v>0.068</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3700,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C125">
-        <v>377</v>
+        <v>219</v>
       </c>
       <c r="D125">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>14.2</v>
+        <v>25.2</v>
       </c>
       <c r="F125">
-        <v>2.062</v>
+        <v>0.382</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3723,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D126">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>15.3</v>
+        <v>28.8</v>
       </c>
       <c r="F126">
-        <v>1.845</v>
+        <v>0.576</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3746,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="D127">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E127">
-        <v>18.6</v>
+        <v>38</v>
       </c>
       <c r="F127">
-        <v>1.385</v>
+        <v>0.878</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3769,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C128">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="D128">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>19.1</v>
+        <v>48.9</v>
       </c>
       <c r="F128">
-        <v>0.512</v>
+        <v>0.872</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3792,22 +3795,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>10</v>
+        <v>53.7</v>
       </c>
       <c r="F129">
-        <v>0.11</v>
+        <v>0.603</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3815,22 +3818,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>5.5</v>
+        <v>54</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.391</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3838,22 +3841,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B131">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>8.199999999999999</v>
+        <v>58.4</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3861,22 +3864,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B132">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>12.7</v>
+        <v>54.5</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3884,19 +3887,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B133">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>17</v>
+        <v>50.7</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3907,19 +3910,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45960</v>
+        <v>46051</v>
       </c>
       <c r="B134">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>19.5</v>
+        <v>47.4</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3930,105 +3933,105 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45961</v>
+        <v>46051</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>21.2</v>
+        <v>45.4</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45961</v>
+        <v>46051</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>23.6</v>
+        <v>45.4</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45961</v>
+        <v>46051</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>25.3</v>
+        <v>45.4</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>30</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138" t="s">
-        <v>136</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>36.1</v>
+        <v>49.4</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4039,19 +4042,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>40.5</v>
+        <v>51.4</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4062,19 +4065,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4085,19 +4088,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>46.7</v>
+        <v>51.4</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4108,19 +4111,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>50.1</v>
+        <v>50.7</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4131,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>46.1</v>
+        <v>49.4</v>
       </c>
       <c r="F144">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4154,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C145">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>40.9</v>
+        <v>46.7</v>
       </c>
       <c r="F145">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4177,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>39.4</v>
+        <v>44.7</v>
       </c>
       <c r="F146">
-        <v>0.549</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4200,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B147">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>39.5</v>
+        <v>44.6</v>
       </c>
       <c r="F147">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4223,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B148">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>43</v>
+        <v>40.3</v>
       </c>
       <c r="F148">
-        <v>0.973</v>
+        <v>0.048</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4246,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B149">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C149">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>48.1</v>
+        <v>36.5</v>
       </c>
       <c r="F149">
-        <v>0.944</v>
+        <v>0.261</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4269,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B150">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C150">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="D150">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>51.7</v>
+        <v>34.7</v>
       </c>
       <c r="F150">
-        <v>0.777</v>
+        <v>0.498</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4292,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B151">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C151">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>56.9</v>
+        <v>33.7</v>
       </c>
       <c r="F151">
-        <v>0.513</v>
+        <v>0.885</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4315,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B152">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C152">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>63.1</v>
+        <v>34.2</v>
       </c>
       <c r="F152">
-        <v>0.223</v>
+        <v>0.972</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4338,22 +4341,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B153">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>60.5</v>
+        <v>35.7</v>
       </c>
       <c r="F153">
-        <v>0.037</v>
+        <v>0.906</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4361,22 +4364,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B154">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D154">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>59.9</v>
+        <v>38.1</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.528</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4384,22 +4387,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B155">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>58.2</v>
+        <v>43.1</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4407,22 +4410,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B156">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>56.4</v>
+        <v>41.9</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="G156" t="s">
         <v>154</v>
@@ -4430,19 +4433,19 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B157">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>54.5</v>
+        <v>40.5</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4453,19 +4456,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="B158">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>52.6</v>
+        <v>39</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4476,105 +4479,105 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45962</v>
+        <v>46052</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>50.7</v>
+        <v>38.3</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45962</v>
+        <v>46052</v>
       </c>
       <c r="B160">
+        <v>22</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
         <v>1</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>10</v>
-      </c>
       <c r="E160">
-        <v>48.1</v>
+        <v>38.3</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45962</v>
+        <v>46052</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>46.7</v>
+        <v>38.3</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>45.4</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162" t="s">
-        <v>159</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>42.6</v>
+        <v>38.3</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4585,19 +4588,19 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>40.5</v>
+        <v>37.6</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4608,19 +4611,19 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>38.3</v>
+        <v>36.1</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4631,19 +4634,19 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>36.1</v>
+        <v>34.6</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4654,19 +4657,19 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>34.6</v>
+        <v>33.1</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4677,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>29.4</v>
+        <v>31.6</v>
       </c>
       <c r="F168">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4700,25 +4703,48 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45962</v>
+        <v>46053</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C169">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>24.3</v>
+        <v>30</v>
       </c>
       <c r="F169">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>46053</v>
+      </c>
+      <c r="B170">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>27.7</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,487 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.01.20269</t>
-  </si>
-  <si>
-    <t>24.01.202610</t>
-  </si>
-  <si>
-    <t>24.01.202611</t>
-  </si>
-  <si>
-    <t>24.01.202612</t>
-  </si>
-  <si>
-    <t>24.01.202613</t>
-  </si>
-  <si>
-    <t>24.01.202614</t>
-  </si>
-  <si>
-    <t>24.01.202615</t>
-  </si>
-  <si>
-    <t>24.01.202616</t>
-  </si>
-  <si>
-    <t>24.01.202617</t>
-  </si>
-  <si>
-    <t>24.01.202618</t>
-  </si>
-  <si>
-    <t>24.01.202619</t>
-  </si>
-  <si>
-    <t>24.01.202620</t>
-  </si>
-  <si>
-    <t>24.01.202621</t>
-  </si>
-  <si>
-    <t>24.01.202622</t>
-  </si>
-  <si>
-    <t>24.01.202623</t>
-  </si>
-  <si>
-    <t>25.01.20261</t>
-  </si>
-  <si>
-    <t>25.01.20262</t>
-  </si>
-  <si>
-    <t>25.01.20263</t>
-  </si>
-  <si>
-    <t>25.01.20264</t>
-  </si>
-  <si>
-    <t>25.01.20265</t>
-  </si>
-  <si>
-    <t>25.01.20266</t>
-  </si>
-  <si>
-    <t>25.01.20267</t>
-  </si>
-  <si>
-    <t>25.01.20268</t>
-  </si>
-  <si>
-    <t>25.01.20269</t>
-  </si>
-  <si>
-    <t>25.01.202610</t>
-  </si>
-  <si>
-    <t>25.01.202611</t>
-  </si>
-  <si>
-    <t>25.01.202612</t>
-  </si>
-  <si>
-    <t>25.01.202613</t>
-  </si>
-  <si>
-    <t>25.01.202614</t>
-  </si>
-  <si>
-    <t>25.01.202615</t>
-  </si>
-  <si>
-    <t>25.01.202616</t>
-  </si>
-  <si>
-    <t>25.01.202617</t>
-  </si>
-  <si>
-    <t>25.01.202618</t>
-  </si>
-  <si>
-    <t>25.01.202619</t>
-  </si>
-  <si>
-    <t>25.01.202620</t>
-  </si>
-  <si>
-    <t>25.01.202621</t>
-  </si>
-  <si>
-    <t>25.01.202622</t>
-  </si>
-  <si>
-    <t>25.01.202623</t>
-  </si>
-  <si>
-    <t>26.01.20261</t>
-  </si>
-  <si>
-    <t>26.01.20262</t>
-  </si>
-  <si>
-    <t>26.01.20263</t>
-  </si>
-  <si>
-    <t>26.01.20264</t>
-  </si>
-  <si>
-    <t>26.01.20265</t>
-  </si>
-  <si>
-    <t>26.01.20266</t>
-  </si>
-  <si>
-    <t>26.01.20267</t>
-  </si>
-  <si>
-    <t>26.01.20268</t>
-  </si>
-  <si>
-    <t>26.01.20269</t>
-  </si>
-  <si>
-    <t>26.01.202610</t>
-  </si>
-  <si>
-    <t>26.01.202611</t>
-  </si>
-  <si>
-    <t>26.01.202612</t>
-  </si>
-  <si>
-    <t>26.01.202613</t>
-  </si>
-  <si>
-    <t>26.01.202614</t>
-  </si>
-  <si>
-    <t>26.01.202615</t>
-  </si>
-  <si>
-    <t>26.01.202616</t>
-  </si>
-  <si>
-    <t>26.01.202617</t>
-  </si>
-  <si>
-    <t>26.01.202618</t>
-  </si>
-  <si>
-    <t>26.01.202619</t>
-  </si>
-  <si>
-    <t>26.01.202620</t>
-  </si>
-  <si>
-    <t>26.01.202621</t>
-  </si>
-  <si>
-    <t>26.01.202622</t>
-  </si>
-  <si>
-    <t>26.01.202623</t>
-  </si>
-  <si>
-    <t>27.01.20261</t>
-  </si>
-  <si>
-    <t>27.01.20262</t>
-  </si>
-  <si>
-    <t>27.01.20263</t>
-  </si>
-  <si>
-    <t>27.01.20264</t>
-  </si>
-  <si>
-    <t>27.01.20265</t>
-  </si>
-  <si>
-    <t>27.01.20266</t>
-  </si>
-  <si>
-    <t>27.01.20267</t>
-  </si>
-  <si>
-    <t>27.01.20268</t>
-  </si>
-  <si>
-    <t>27.01.20269</t>
-  </si>
-  <si>
-    <t>27.01.202610</t>
-  </si>
-  <si>
-    <t>27.01.202611</t>
-  </si>
-  <si>
-    <t>27.01.202612</t>
-  </si>
-  <si>
-    <t>27.01.202613</t>
-  </si>
-  <si>
-    <t>27.01.202614</t>
-  </si>
-  <si>
-    <t>27.01.202615</t>
-  </si>
-  <si>
-    <t>27.01.202616</t>
-  </si>
-  <si>
-    <t>27.01.202617</t>
-  </si>
-  <si>
-    <t>27.01.202618</t>
-  </si>
-  <si>
-    <t>27.01.202619</t>
-  </si>
-  <si>
-    <t>27.01.202620</t>
-  </si>
-  <si>
-    <t>27.01.202621</t>
-  </si>
-  <si>
-    <t>27.01.202622</t>
-  </si>
-  <si>
-    <t>27.01.202623</t>
-  </si>
-  <si>
-    <t>28.01.20261</t>
-  </si>
-  <si>
-    <t>28.01.20262</t>
-  </si>
-  <si>
-    <t>28.01.20263</t>
-  </si>
-  <si>
-    <t>28.01.20264</t>
-  </si>
-  <si>
-    <t>28.01.20265</t>
-  </si>
-  <si>
-    <t>28.01.20266</t>
-  </si>
-  <si>
-    <t>28.01.20267</t>
-  </si>
-  <si>
-    <t>28.01.20268</t>
-  </si>
-  <si>
-    <t>28.01.20269</t>
-  </si>
-  <si>
-    <t>28.01.202610</t>
-  </si>
-  <si>
-    <t>28.01.202611</t>
-  </si>
-  <si>
-    <t>28.01.202612</t>
-  </si>
-  <si>
-    <t>28.01.202613</t>
-  </si>
-  <si>
-    <t>28.01.202614</t>
-  </si>
-  <si>
-    <t>28.01.202615</t>
-  </si>
-  <si>
-    <t>28.01.202616</t>
-  </si>
-  <si>
-    <t>28.01.202617</t>
-  </si>
-  <si>
-    <t>28.01.202618</t>
-  </si>
-  <si>
-    <t>28.01.202619</t>
-  </si>
-  <si>
-    <t>28.01.202620</t>
-  </si>
-  <si>
-    <t>28.01.202621</t>
-  </si>
-  <si>
-    <t>28.01.202622</t>
-  </si>
-  <si>
-    <t>28.01.202623</t>
-  </si>
-  <si>
-    <t>29.01.20261</t>
-  </si>
-  <si>
-    <t>29.01.20262</t>
-  </si>
-  <si>
-    <t>29.01.20263</t>
-  </si>
-  <si>
-    <t>29.01.20264</t>
-  </si>
-  <si>
-    <t>29.01.20265</t>
-  </si>
-  <si>
-    <t>29.01.20266</t>
-  </si>
-  <si>
-    <t>29.01.20267</t>
-  </si>
-  <si>
-    <t>29.01.20268</t>
-  </si>
-  <si>
-    <t>29.01.20269</t>
-  </si>
-  <si>
-    <t>29.01.202610</t>
-  </si>
-  <si>
-    <t>29.01.202611</t>
-  </si>
-  <si>
-    <t>29.01.202612</t>
-  </si>
-  <si>
-    <t>29.01.202613</t>
-  </si>
-  <si>
-    <t>29.01.202614</t>
-  </si>
-  <si>
-    <t>29.01.202615</t>
-  </si>
-  <si>
-    <t>29.01.202616</t>
-  </si>
-  <si>
-    <t>29.01.202617</t>
-  </si>
-  <si>
-    <t>29.01.202618</t>
-  </si>
-  <si>
-    <t>29.01.202619</t>
-  </si>
-  <si>
-    <t>29.01.202620</t>
-  </si>
-  <si>
-    <t>29.01.202621</t>
-  </si>
-  <si>
-    <t>29.01.202622</t>
-  </si>
-  <si>
-    <t>29.01.202623</t>
-  </si>
-  <si>
-    <t>30.01.20261</t>
-  </si>
-  <si>
-    <t>30.01.20262</t>
-  </si>
-  <si>
-    <t>30.01.20263</t>
-  </si>
-  <si>
-    <t>30.01.20264</t>
-  </si>
-  <si>
-    <t>30.01.20265</t>
-  </si>
-  <si>
-    <t>30.01.20266</t>
-  </si>
-  <si>
-    <t>30.01.20267</t>
-  </si>
-  <si>
-    <t>30.01.20268</t>
-  </si>
-  <si>
-    <t>30.01.20269</t>
-  </si>
-  <si>
-    <t>30.01.202610</t>
-  </si>
-  <si>
-    <t>30.01.202611</t>
-  </si>
-  <si>
-    <t>30.01.202612</t>
-  </si>
-  <si>
-    <t>30.01.202613</t>
-  </si>
-  <si>
-    <t>30.01.202614</t>
-  </si>
-  <si>
-    <t>30.01.202615</t>
-  </si>
-  <si>
-    <t>30.01.202616</t>
-  </si>
-  <si>
-    <t>30.01.202617</t>
-  </si>
-  <si>
-    <t>30.01.202618</t>
-  </si>
-  <si>
-    <t>30.01.202619</t>
-  </si>
-  <si>
-    <t>30.01.202620</t>
-  </si>
-  <si>
-    <t>30.01.202621</t>
-  </si>
-  <si>
-    <t>30.01.202622</t>
-  </si>
-  <si>
-    <t>30.01.202623</t>
-  </si>
-  <si>
-    <t>31.01.20261</t>
-  </si>
-  <si>
-    <t>31.01.20262</t>
-  </si>
-  <si>
-    <t>31.01.20263</t>
-  </si>
-  <si>
-    <t>31.01.20264</t>
-  </si>
-  <si>
-    <t>31.01.20265</t>
-  </si>
-  <si>
-    <t>31.01.20266</t>
-  </si>
-  <si>
-    <t>31.01.20267</t>
-  </si>
-  <si>
-    <t>31.01.20268</t>
+    <t>20.02.202620</t>
+  </si>
+  <si>
+    <t>20.02.202621</t>
+  </si>
+  <si>
+    <t>20.02.202622</t>
+  </si>
+  <si>
+    <t>20.02.202623</t>
+  </si>
+  <si>
+    <t>21.02.20261</t>
+  </si>
+  <si>
+    <t>21.02.20262</t>
+  </si>
+  <si>
+    <t>21.02.20263</t>
+  </si>
+  <si>
+    <t>21.02.20264</t>
+  </si>
+  <si>
+    <t>21.02.20265</t>
+  </si>
+  <si>
+    <t>21.02.20266</t>
+  </si>
+  <si>
+    <t>21.02.20267</t>
+  </si>
+  <si>
+    <t>21.02.20268</t>
+  </si>
+  <si>
+    <t>21.02.20269</t>
+  </si>
+  <si>
+    <t>21.02.202610</t>
+  </si>
+  <si>
+    <t>21.02.202611</t>
+  </si>
+  <si>
+    <t>21.02.202612</t>
+  </si>
+  <si>
+    <t>21.02.202613</t>
+  </si>
+  <si>
+    <t>21.02.202614</t>
+  </si>
+  <si>
+    <t>21.02.202615</t>
+  </si>
+  <si>
+    <t>21.02.202616</t>
+  </si>
+  <si>
+    <t>21.02.202617</t>
+  </si>
+  <si>
+    <t>21.02.202618</t>
+  </si>
+  <si>
+    <t>21.02.202619</t>
+  </si>
+  <si>
+    <t>21.02.202620</t>
+  </si>
+  <si>
+    <t>21.02.202621</t>
+  </si>
+  <si>
+    <t>21.02.202622</t>
+  </si>
+  <si>
+    <t>21.02.202623</t>
+  </si>
+  <si>
+    <t>22.02.20261</t>
+  </si>
+  <si>
+    <t>22.02.20262</t>
+  </si>
+  <si>
+    <t>22.02.20263</t>
+  </si>
+  <si>
+    <t>22.02.20264</t>
+  </si>
+  <si>
+    <t>22.02.20265</t>
+  </si>
+  <si>
+    <t>22.02.20266</t>
+  </si>
+  <si>
+    <t>22.02.20267</t>
+  </si>
+  <si>
+    <t>22.02.20268</t>
+  </si>
+  <si>
+    <t>22.02.20269</t>
+  </si>
+  <si>
+    <t>22.02.202610</t>
+  </si>
+  <si>
+    <t>22.02.202611</t>
+  </si>
+  <si>
+    <t>22.02.202612</t>
+  </si>
+  <si>
+    <t>22.02.202613</t>
+  </si>
+  <si>
+    <t>22.02.202614</t>
+  </si>
+  <si>
+    <t>22.02.202615</t>
+  </si>
+  <si>
+    <t>22.02.202616</t>
+  </si>
+  <si>
+    <t>22.02.202617</t>
+  </si>
+  <si>
+    <t>22.02.202618</t>
+  </si>
+  <si>
+    <t>22.02.202619</t>
+  </si>
+  <si>
+    <t>22.02.202620</t>
+  </si>
+  <si>
+    <t>22.02.202621</t>
+  </si>
+  <si>
+    <t>22.02.202622</t>
+  </si>
+  <si>
+    <t>22.02.202623</t>
+  </si>
+  <si>
+    <t>23.02.20261</t>
+  </si>
+  <si>
+    <t>23.02.20262</t>
+  </si>
+  <si>
+    <t>23.02.20263</t>
+  </si>
+  <si>
+    <t>23.02.20264</t>
+  </si>
+  <si>
+    <t>23.02.20265</t>
+  </si>
+  <si>
+    <t>23.02.20266</t>
+  </si>
+  <si>
+    <t>23.02.20267</t>
+  </si>
+  <si>
+    <t>23.02.20268</t>
+  </si>
+  <si>
+    <t>23.02.20269</t>
+  </si>
+  <si>
+    <t>23.02.202610</t>
+  </si>
+  <si>
+    <t>23.02.202611</t>
+  </si>
+  <si>
+    <t>23.02.202612</t>
+  </si>
+  <si>
+    <t>23.02.202613</t>
+  </si>
+  <si>
+    <t>23.02.202614</t>
+  </si>
+  <si>
+    <t>23.02.202615</t>
+  </si>
+  <si>
+    <t>23.02.202616</t>
+  </si>
+  <si>
+    <t>23.02.202617</t>
+  </si>
+  <si>
+    <t>23.02.202618</t>
+  </si>
+  <si>
+    <t>23.02.202619</t>
+  </si>
+  <si>
+    <t>23.02.202620</t>
+  </si>
+  <si>
+    <t>23.02.202621</t>
+  </si>
+  <si>
+    <t>23.02.202622</t>
+  </si>
+  <si>
+    <t>23.02.202623</t>
+  </si>
+  <si>
+    <t>24.02.20261</t>
+  </si>
+  <si>
+    <t>24.02.20262</t>
+  </si>
+  <si>
+    <t>24.02.20263</t>
+  </si>
+  <si>
+    <t>24.02.20264</t>
+  </si>
+  <si>
+    <t>24.02.20265</t>
+  </si>
+  <si>
+    <t>24.02.20266</t>
+  </si>
+  <si>
+    <t>24.02.20267</t>
+  </si>
+  <si>
+    <t>24.02.20268</t>
+  </si>
+  <si>
+    <t>24.02.20269</t>
+  </si>
+  <si>
+    <t>24.02.202610</t>
+  </si>
+  <si>
+    <t>24.02.202611</t>
+  </si>
+  <si>
+    <t>24.02.202612</t>
+  </si>
+  <si>
+    <t>24.02.202613</t>
+  </si>
+  <si>
+    <t>24.02.202614</t>
+  </si>
+  <si>
+    <t>24.02.202615</t>
+  </si>
+  <si>
+    <t>24.02.202616</t>
+  </si>
+  <si>
+    <t>24.02.202617</t>
+  </si>
+  <si>
+    <t>24.02.202618</t>
+  </si>
+  <si>
+    <t>24.02.202619</t>
+  </si>
+  <si>
+    <t>24.02.202620</t>
+  </si>
+  <si>
+    <t>24.02.202621</t>
+  </si>
+  <si>
+    <t>24.02.202622</t>
+  </si>
+  <si>
+    <t>24.02.202623</t>
+  </si>
+  <si>
+    <t>25.02.20261</t>
+  </si>
+  <si>
+    <t>25.02.20262</t>
+  </si>
+  <si>
+    <t>25.02.20263</t>
+  </si>
+  <si>
+    <t>25.02.20264</t>
+  </si>
+  <si>
+    <t>25.02.20265</t>
+  </si>
+  <si>
+    <t>25.02.20266</t>
+  </si>
+  <si>
+    <t>25.02.20267</t>
+  </si>
+  <si>
+    <t>25.02.20268</t>
+  </si>
+  <si>
+    <t>25.02.20269</t>
+  </si>
+  <si>
+    <t>25.02.202610</t>
+  </si>
+  <si>
+    <t>25.02.202611</t>
+  </si>
+  <si>
+    <t>25.02.202612</t>
+  </si>
+  <si>
+    <t>25.02.202613</t>
+  </si>
+  <si>
+    <t>25.02.202614</t>
+  </si>
+  <si>
+    <t>25.02.202615</t>
+  </si>
+  <si>
+    <t>25.02.202616</t>
+  </si>
+  <si>
+    <t>25.02.202617</t>
+  </si>
+  <si>
+    <t>25.02.202618</t>
+  </si>
+  <si>
+    <t>25.02.202619</t>
+  </si>
+  <si>
+    <t>25.02.202620</t>
+  </si>
+  <si>
+    <t>25.02.202621</t>
+  </si>
+  <si>
+    <t>25.02.202622</t>
+  </si>
+  <si>
+    <t>25.02.202623</t>
+  </si>
+  <si>
+    <t>26.02.20261</t>
+  </si>
+  <si>
+    <t>26.02.20262</t>
+  </si>
+  <si>
+    <t>26.02.20263</t>
+  </si>
+  <si>
+    <t>26.02.20264</t>
+  </si>
+  <si>
+    <t>26.02.20265</t>
+  </si>
+  <si>
+    <t>26.02.20266</t>
+  </si>
+  <si>
+    <t>26.02.20267</t>
+  </si>
+  <si>
+    <t>26.02.20268</t>
+  </si>
+  <si>
+    <t>26.02.20269</t>
+  </si>
+  <si>
+    <t>26.02.202610</t>
+  </si>
+  <si>
+    <t>26.02.202611</t>
+  </si>
+  <si>
+    <t>26.02.202612</t>
+  </si>
+  <si>
+    <t>26.02.202613</t>
+  </si>
+  <si>
+    <t>26.02.202614</t>
+  </si>
+  <si>
+    <t>26.02.202615</t>
+  </si>
+  <si>
+    <t>26.02.202616</t>
+  </si>
+  <si>
+    <t>26.02.202617</t>
+  </si>
+  <si>
+    <t>26.02.202618</t>
+  </si>
+  <si>
+    <t>26.02.202619</t>
+  </si>
+  <si>
+    <t>26.02.202620</t>
+  </si>
+  <si>
+    <t>26.02.202621</t>
+  </si>
+  <si>
+    <t>26.02.202622</t>
+  </si>
+  <si>
+    <t>26.02.202623</t>
+  </si>
+  <si>
+    <t>27.02.20261</t>
+  </si>
+  <si>
+    <t>27.02.20262</t>
+  </si>
+  <si>
+    <t>27.02.20263</t>
+  </si>
+  <si>
+    <t>27.02.20264</t>
+  </si>
+  <si>
+    <t>27.02.20265</t>
+  </si>
+  <si>
+    <t>27.02.20266</t>
+  </si>
+  <si>
+    <t>27.02.20267</t>
+  </si>
+  <si>
+    <t>27.02.20268</t>
+  </si>
+  <si>
+    <t>27.02.20269</t>
+  </si>
+  <si>
+    <t>27.02.202610</t>
+  </si>
+  <si>
+    <t>27.02.202611</t>
+  </si>
+  <si>
+    <t>27.02.202612</t>
+  </si>
+  <si>
+    <t>27.02.202613</t>
+  </si>
+  <si>
+    <t>27.02.202614</t>
+  </si>
+  <si>
+    <t>27.02.202615</t>
+  </si>
+  <si>
+    <t>27.02.202616</t>
+  </si>
+  <si>
+    <t>27.02.202617</t>
+  </si>
+  <si>
+    <t>27.02.202618</t>
+  </si>
+  <si>
+    <t>27.02.202619</t>
   </si>
 </sst>
 </file>
@@ -910,10 +910,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>46046</v>
+        <v>46073</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>46046</v>
+        <v>46073</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>46046</v>
+        <v>46073</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>93.2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>46046</v>
+        <v>46073</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>49.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F5">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>46046</v>
+        <v>46073</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>46.7</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,292 +1019,292 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>45.5</v>
-      </c>
-      <c r="F7">
-        <v>0.513</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>43.5</v>
+        <v>55.8</v>
       </c>
       <c r="F8">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>56.4</v>
       </c>
       <c r="F9">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>37.1</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>28.9</v>
+        <v>57.6</v>
       </c>
       <c r="F11">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12">
-        <v>21.2</v>
+        <v>58.2</v>
       </c>
       <c r="F12">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>21.2</v>
+        <v>58.8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14">
-        <v>21.2</v>
+        <v>59.9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E15">
-        <v>21.2</v>
+        <v>61.1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>21.2</v>
+        <v>61.5</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>46046</v>
+        <v>46074</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.2</v>
+        <v>57.9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>21.2</v>
+        <v>58.2</v>
+      </c>
+      <c r="F18">
+        <v>0.416</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>59.3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.736</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -1312,22 +1312,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>213</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>22</v>
+        <v>60.8</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.845</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
@@ -1335,22 +1335,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>23.6</v>
+        <v>64.5</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.823</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>26.9</v>
+        <v>68.2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -1381,22 +1381,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>29.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>30.8</v>
+        <v>71.8</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>28.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,19 +1473,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>28.5</v>
+        <v>65.5</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>29.7</v>
+        <v>63.3</v>
       </c>
       <c r="F28">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>29.7</v>
+        <v>61.7</v>
       </c>
       <c r="F29">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>46047</v>
+        <v>46074</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>24.9</v>
+        <v>59.4</v>
       </c>
       <c r="F30">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,292 +1565,292 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>19.3</v>
-      </c>
-      <c r="F31">
-        <v>0.874</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>20.8</v>
+        <v>56.4</v>
       </c>
       <c r="F32">
-        <v>1.047</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>27.4</v>
+        <v>55.8</v>
       </c>
       <c r="F33">
-        <v>1.006</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>38.3</v>
+        <v>54.5</v>
       </c>
       <c r="F34">
-        <v>0.473</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F35">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>32.1</v>
+        <v>50.1</v>
       </c>
       <c r="F36">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>17.8</v>
+        <v>48.8</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>17.8</v>
+        <v>47.4</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>17.8</v>
+        <v>46.1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>17.8</v>
+        <v>46.1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>46047</v>
+        <v>46075</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>17.8</v>
+        <v>40.5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>17.8</v>
+        <v>35.3</v>
+      </c>
+      <c r="F42">
+        <v>0.472</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -1858,22 +1858,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>389</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
-        <v>21.2</v>
+        <v>30.1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -1881,22 +1881,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>35.1</v>
+        <v>27.7</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.466</v>
       </c>
       <c r="G45" t="s">
         <v>47</v>
@@ -1904,22 +1904,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>50.7</v>
+        <v>30.6</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>53.9</v>
+        <v>35.9</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.194</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>54.5</v>
+        <v>42.3</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.741</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>54.5</v>
+        <v>48</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.252</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>55.1</v>
+        <v>47.4</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,19 +2019,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>57.6</v>
+        <v>50.1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>59</v>
+        <v>49.4</v>
       </c>
       <c r="F52">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C53">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>58.5</v>
+        <v>50.7</v>
       </c>
       <c r="F53">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>46048</v>
+        <v>46075</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>58.3</v>
+        <v>54.5</v>
       </c>
       <c r="F54">
-        <v>0.269</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,292 +2111,292 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>58.7</v>
-      </c>
-      <c r="F55">
-        <v>0.405</v>
-      </c>
-      <c r="G55" t="s">
-        <v>57</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>59.8</v>
+        <v>58.2</v>
       </c>
       <c r="F56">
-        <v>0.411</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>62.5</v>
+        <v>57.6</v>
       </c>
       <c r="F57">
-        <v>0.413</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>66</v>
+        <v>58.8</v>
       </c>
       <c r="F58">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>69.09999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="F59">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>64.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="F60">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>61.7</v>
+        <v>62.8</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>59.4</v>
+        <v>62.8</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>57.6</v>
+        <v>62.8</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B64">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>57</v>
+        <v>67.7</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>46048</v>
+        <v>46076</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>56.4</v>
+        <v>69.3</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>56.4</v>
+        <v>70</v>
+      </c>
+      <c r="F66">
+        <v>0.252</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>57</v>
+        <v>71.3</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="G67" t="s">
         <v>68</v>
@@ -2404,22 +2404,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>154</v>
+      </c>
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
       <c r="E68">
-        <v>56.4</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="G68" t="s">
         <v>69</v>
@@ -2427,22 +2427,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69">
-        <v>57</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="G69" t="s">
         <v>70</v>
@@ -2450,22 +2450,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>58.2</v>
+        <v>71</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="G70" t="s">
         <v>71</v>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71">
-        <v>59.9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72">
-        <v>61.1</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.213</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>60.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,19 +2565,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75">
-        <v>65.40000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C76">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>68.7</v>
+        <v>58.8</v>
       </c>
       <c r="F76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C77">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77">
-        <v>69.7</v>
+        <v>59.4</v>
       </c>
       <c r="F77">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>46049</v>
+        <v>46076</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C78">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78">
-        <v>69.09999999999999</v>
+        <v>58.8</v>
       </c>
       <c r="F78">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,125 +2657,119 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>67.2</v>
-      </c>
-      <c r="F79">
-        <v>0.312</v>
-      </c>
-      <c r="G79" t="s">
-        <v>80</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>68.3</v>
+        <v>59.4</v>
       </c>
       <c r="F80">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>69</v>
+        <v>60.5</v>
       </c>
       <c r="F81">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>69.90000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="F82">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83">
-        <v>70.40000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="F83">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2784,165 +2778,171 @@
         <v>3</v>
       </c>
       <c r="E84">
-        <v>63.3</v>
+        <v>59.9</v>
       </c>
       <c r="F84">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>59.3</v>
+        <v>59.4</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>55.1</v>
+        <v>59.4</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B87">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>52.6</v>
+        <v>59.4</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E88">
-        <v>51.4</v>
+        <v>60.3</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>46049</v>
+        <v>46077</v>
       </c>
       <c r="B89">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>50.7</v>
+        <v>57.7</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>50.7</v>
+        <v>55.3</v>
+      </c>
+      <c r="F90">
+        <v>0.482</v>
+      </c>
+      <c r="G90" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>51.4</v>
+        <v>57.1</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.709</v>
       </c>
       <c r="G91" t="s">
         <v>91</v>
@@ -2950,22 +2950,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>52</v>
+        <v>59.1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="G92" t="s">
         <v>92</v>
@@ -2973,22 +2973,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>52</v>
+        <v>58.8</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="G93" t="s">
         <v>93</v>
@@ -2996,22 +2996,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>51.4</v>
+        <v>55.3</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.706</v>
       </c>
       <c r="G94" t="s">
         <v>94</v>
@@ -3019,22 +3019,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>50.7</v>
+        <v>48.6</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="G95" t="s">
         <v>95</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>50.7</v>
+        <v>45</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>50.1</v>
+        <v>41.7</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.255</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>50.1</v>
+        <v>31.6</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,19 +3111,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>52.6</v>
+        <v>26.9</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>50.9</v>
+        <v>24.5</v>
       </c>
       <c r="F100">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C101">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="E101">
-        <v>48.1</v>
+        <v>21.2</v>
       </c>
       <c r="F101">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>46050</v>
+        <v>46077</v>
       </c>
       <c r="B102">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C102">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>44.9</v>
+        <v>17.8</v>
       </c>
       <c r="F102">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,292 +3203,292 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>41.8</v>
-      </c>
-      <c r="F103">
-        <v>0.6</v>
-      </c>
-      <c r="G103" t="s">
-        <v>103</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>41.4</v>
+        <v>17.8</v>
       </c>
       <c r="F104">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>42.5</v>
+        <v>18.7</v>
       </c>
       <c r="F105">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>46.2</v>
+        <v>17</v>
       </c>
       <c r="F106">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
         <v>17</v>
       </c>
-      <c r="C107">
-        <v>37</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107">
-        <v>51.3</v>
-      </c>
       <c r="F107">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
         <v>1</v>
       </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
       <c r="E108">
-        <v>49.4</v>
+        <v>17</v>
       </c>
       <c r="F108">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B109">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>48.8</v>
+        <v>15.3</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B110">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>47.4</v>
+        <v>15.3</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B111">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>46.7</v>
+        <v>16.1</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>46.7</v>
+        <v>14.3</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="G112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>46050</v>
+        <v>46078</v>
       </c>
       <c r="B113">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>46.7</v>
+        <v>12.4</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="G113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D114">
         <v>4</v>
       </c>
       <c r="E114">
-        <v>48.1</v>
+        <v>12.1</v>
+      </c>
+      <c r="F114">
+        <v>1.085</v>
+      </c>
+      <c r="G114" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>50.7</v>
+        <v>10</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1.733</v>
       </c>
       <c r="G115" t="s">
         <v>114</v>
@@ -3496,22 +3496,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>53.9</v>
+        <v>6.8</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2.334</v>
       </c>
       <c r="G116" t="s">
         <v>115</v>
@@ -3519,22 +3519,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>51.3</v>
+        <v>4.2</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2.394</v>
       </c>
       <c r="G117" t="s">
         <v>116</v>
@@ -3542,22 +3542,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>41.9</v>
+        <v>4.9</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2.472</v>
       </c>
       <c r="G118" t="s">
         <v>117</v>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>32.3</v>
+        <v>9.6</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>2.069</v>
       </c>
       <c r="G119" t="s">
         <v>118</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>165</v>
+      </c>
+      <c r="D120">
         <v>6</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>4</v>
-      </c>
       <c r="E120">
-        <v>28.5</v>
+        <v>17.3</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1.426</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>29.2</v>
+        <v>25.9</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.548</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>29.2</v>
+        <v>28.5</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,19 +3657,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C123">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>4</v>
       </c>
       <c r="E123">
-        <v>30.7</v>
+        <v>29.2</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C124">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>28.4</v>
+        <v>27.7</v>
       </c>
       <c r="F124">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C125">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="F125">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>46051</v>
+        <v>46078</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C126">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>28.8</v>
+        <v>17.8</v>
       </c>
       <c r="F126">
-        <v>0.576</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,292 +3749,292 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>38</v>
-      </c>
-      <c r="F127">
-        <v>0.878</v>
-      </c>
-      <c r="G127" t="s">
-        <v>126</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>48.9</v>
+        <v>17</v>
       </c>
       <c r="F128">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>53.7</v>
+        <v>18.7</v>
       </c>
       <c r="F129">
-        <v>0.603</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>54</v>
+        <v>20.3</v>
       </c>
       <c r="F130">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>58.4</v>
+        <v>20.3</v>
       </c>
       <c r="F131">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B132">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
         <v>1</v>
       </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
       <c r="E132">
-        <v>54.5</v>
+        <v>19.5</v>
       </c>
       <c r="F132">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B133">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>50.7</v>
+        <v>19.5</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>47.4</v>
+        <v>19.5</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>45.4</v>
+        <v>18.7</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B136">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>45.4</v>
+        <v>15.6</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>46051</v>
+        <v>46079</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>45.4</v>
+        <v>12.3</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="G137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E138">
-        <v>46.7</v>
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <v>1.009</v>
+      </c>
+      <c r="G138" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>49.4</v>
+        <v>9.5</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1.787</v>
       </c>
       <c r="G139" t="s">
         <v>137</v>
@@ -4042,22 +4042,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>51.4</v>
+        <v>6.7</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>2.299</v>
       </c>
       <c r="G140" t="s">
         <v>138</v>
@@ -4065,22 +4065,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>52</v>
+        <v>4.2</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="G141" t="s">
         <v>139</v>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>51.4</v>
+        <v>3.3</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2.351</v>
       </c>
       <c r="G142" t="s">
         <v>140</v>
@@ -4111,22 +4111,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>50.7</v>
+        <v>3.6</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2.074</v>
       </c>
       <c r="G143" t="s">
         <v>141</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E144">
-        <v>49.4</v>
+        <v>2.9</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1.577</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>46.7</v>
+        <v>1.9</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>44.7</v>
+        <v>1.9</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,19 +4203,19 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E147">
-        <v>44.6</v>
+        <v>0.9</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C148">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>40.3</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C149">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.261</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>46052</v>
+        <v>46079</v>
       </c>
       <c r="B150">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C150">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>34.7</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.498</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,292 +4295,292 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>33.7</v>
-      </c>
-      <c r="F151">
-        <v>0.885</v>
-      </c>
-      <c r="G151" t="s">
-        <v>149</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B152">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>34.2</v>
+        <v>7.3</v>
       </c>
       <c r="F152">
-        <v>0.972</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>35.7</v>
+        <v>10.9</v>
       </c>
       <c r="F153">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
       <c r="E154">
-        <v>38.1</v>
+        <v>14.4</v>
       </c>
       <c r="F154">
-        <v>0.528</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B155">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <v>2</v>
       </c>
       <c r="E155">
-        <v>43.1</v>
+        <v>19.5</v>
       </c>
       <c r="F155">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
-        <v>41.9</v>
+        <v>24.5</v>
       </c>
       <c r="F156">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>40.5</v>
+        <v>27.7</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>39</v>
+        <v>30.8</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>38.3</v>
+        <v>33.9</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B160">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>38.3</v>
+        <v>31</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="G160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>46052</v>
+        <v>46080</v>
       </c>
       <c r="B161">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>38.3</v>
+        <v>25.7</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="G161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>38.3</v>
+        <v>23.8</v>
+      </c>
+      <c r="F162">
+        <v>0.844</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>38.3</v>
+        <v>22.4</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1.538</v>
       </c>
       <c r="G163" t="s">
         <v>160</v>
@@ -4588,22 +4588,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>37.6</v>
+        <v>20.6</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="G164" t="s">
         <v>161</v>
@@ -4611,22 +4611,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>36.1</v>
+        <v>18.7</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>2.077</v>
       </c>
       <c r="G165" t="s">
         <v>162</v>
@@ -4634,22 +4634,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>34.6</v>
+        <v>19.8</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="G166" t="s">
         <v>163</v>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>33.1</v>
+        <v>24.2</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1.723</v>
       </c>
       <c r="G167" t="s">
         <v>164</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B168">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1.084</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E169">
-        <v>30</v>
+        <v>40.2</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="B170">
+        <v>19</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
         <v>8</v>
       </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
       <c r="E170">
-        <v>27.7</v>
+        <v>39</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>
